--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.625</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.28</v>
+        <v>14.864</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-2050585861.423</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1349915.258</v>
+        <v>34.638</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.975</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.038</v>
+        <v>5.573</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-1327058.643021242</v>
+        <v>22.84836134033164</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>-1023461.906492274</v>
+        <v>22.84908927412959</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>754138.8813615337</v>
+        <v>22.87558536278526</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-3015978.977278399</v>
+        <v>22.81461968836582</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-719530.2320261248</v>
+        <v>22.8623596442091</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-112801.8240100532</v>
+        <v>22.86379642881786</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-2206220.128541193</v>
+        <v>22.82471637923333</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1011497.529446854</v>
+        <v>22.88557174725299</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1927557.508008675</v>
+        <v>22.8953026578646</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-867071.8129167609</v>
+        <v>22.83672180185328</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-460732.0755343097</v>
+        <v>22.85820285593611</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-506536.0108608081</v>
+        <v>22.85407294097269</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-1217026.247947254</v>
+        <v>22.82067178831985</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-973364.0843033269</v>
+        <v>22.82462199921086</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>505932.2570726654</v>
+        <v>22.87508918896707</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-917356.2081359021</v>
+        <v>22.84469880209706</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50354.56362328614</v>
+        <v>22.8688434094475</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>761034.0129404685</v>
+        <v>22.89374692967538</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1532011.290497171</v>
+        <v>22.80889978130039</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1089903.654514483</v>
+        <v>22.8323190251822</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-706075.4790068669</v>
+        <v>22.85167310404356</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-1764683.076221165</v>
+        <v>22.78936955555808</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>-694934.300222958</v>
+        <v>22.85475845684907</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-828345.9190003455</v>
+        <v>22.84414368992207</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>359825.5685070044</v>
+        <v>22.86580395350131</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>610078.5482760489</v>
+        <v>22.87967296668464</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-2617918.348339415</v>
+        <v>22.80123181955255</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>782371.2874234363</v>
+        <v>22.89352194068222</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>838321.2592223237</v>
+        <v>22.89358148905942</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-2144524.606583188</v>
+        <v>22.81690527070418</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2483252.515237164</v>
+        <v>22.92558390087358</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2534056.881229066</v>
+        <v>22.92582447151482</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1675475.804925363</v>
+        <v>22.94189606725467</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2163044.757617008</v>
+        <v>22.96331701432722</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>2214377.554912191</v>
+        <v>22.95540955154861</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-206987.6500297993</v>
+        <v>22.85263952036905</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1480741.730259872</v>
+        <v>22.93170430096082</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2195438.157283714</v>
+        <v>22.95880831501742</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-622712.3621144448</v>
+        <v>22.84799334180546</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>624065.107774358</v>
+        <v>22.9036620536249</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>784917.5727428959</v>
+        <v>22.9283236673121</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1336434.11559763</v>
+        <v>22.8041671207362</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>186949.8157468171</v>
+        <v>22.89047127264436</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>561074.6409532044</v>
+        <v>22.92740994725582</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1428565.45188029</v>
+        <v>22.80134479958404</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>1363291.804531849</v>
+        <v>22.94589627425394</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-1871022.540251299</v>
+        <v>22.82760602656728</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-252809.0338470718</v>
+        <v>22.85369626782495</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>287602.0754458338</v>
+        <v>22.87108311980409</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-2812991.770905008</v>
+        <v>22.79383498798603</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>683622.717107722</v>
+        <v>22.88641704294463</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1096954.861018869</v>
+        <v>22.89657706020453</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>-2199082.759264554</v>
+        <v>22.81737848621222</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2852361.287968863</v>
+        <v>22.92650284577839</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>3263726.050963614</v>
+        <v>22.93553340594692</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>2054859.523864457</v>
+        <v>22.94805668986285</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>2347440.904780496</v>
+        <v>22.96084331575143</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>2630089.273592113</v>
+        <v>22.97164041998145</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>-939741.7423136936</v>
+        <v>22.81145775133408</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1047944.092433173</v>
+        <v>22.89985064086441</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>2009484.625712372</v>
+        <v>22.93778812109912</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-1035612.408726094</v>
+        <v>22.82689580558275</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>431943.6641820979</v>
+        <v>22.88175860694846</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>716718.7015917969</v>
+        <v>22.91982945426608</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-1446201.661374635</v>
+        <v>22.78989435493359</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>-57494.59713449469</v>
+        <v>22.87336365549639</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>808892.5333186463</v>
+        <v>22.93084418505628</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-1350208.285632113</v>
+        <v>22.7999822054438</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1461205.311643144</v>
+        <v>22.94071538322704</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-3528936.20880102</v>
+        <v>22.81676397000675</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>-1760526.060569217</v>
+        <v>22.84539279951581</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>-378421.1100181601</v>
+        <v>22.86910365194906</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-3919370.056624343</v>
+        <v>22.8106253582031</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>396065.7691999091</v>
+        <v>22.88029331985877</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1574892.330571275</v>
+        <v>22.90114767820334</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-3977051.49552869</v>
+        <v>22.81416477426378</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>3038016.611759292</v>
+        <v>22.90352615866813</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>4171888.392119794</v>
+        <v>22.921166383977</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>996493.3219009398</v>
+        <v>22.9063613641229</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1556225.473485298</v>
+        <v>22.91706575829246</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1891139.897967755</v>
+        <v>22.92793384859347</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-2315140.642755255</v>
+        <v>22.80536682543898</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>215547.4817080558</v>
+        <v>22.86744416141949</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>2188754.589806207</v>
+        <v>22.92838451631674</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-1862649.475526527</v>
+        <v>22.82108822406265</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>220080.6750154969</v>
+        <v>22.87772474196254</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>1146616.988800067</v>
+        <v>22.91453445277046</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-1967399.069749305</v>
+        <v>22.81634275940346</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>-84326.44037949387</v>
+        <v>22.87333422502306</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1213539.715443556</v>
+        <v>22.92728622383201</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-2219773.705745217</v>
+        <v>22.80515249324667</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>1316957.270391763</v>
+        <v>22.91272954337434</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>-208359.2888386213</v>
+        <v>22.88151250160622</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>-369679.3570439394</v>
+        <v>22.86037458665183</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>290764.4875141175</v>
+        <v>22.91927460838558</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>514932.3626786685</v>
+        <v>22.92794074573299</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-1058076.324145817</v>
+        <v>22.78387474312321</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>-634632.8812369765</v>
+        <v>22.84461430486225</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>-224079.780520068</v>
+        <v>22.86758530419048</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-963567.2967532116</v>
+        <v>22.8324178323604</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>-291811.7219382281</v>
+        <v>22.84850053600236</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>558401.251795889</v>
+        <v>22.8922327233545</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-1349472.987400297</v>
+        <v>22.77948436814231</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-1056371.088441358</v>
+        <v>22.808889428398</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>-733064.6925125914</v>
+        <v>22.82931604225032</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-1548890.638072515</v>
+        <v>22.77186124254914</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>-504331.1564349043</v>
+        <v>22.85655051808271</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>523577.9427481194</v>
+        <v>22.91336457305592</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>-194338.2270950855</v>
+        <v>22.87372722978387</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>746061.8082346962</v>
+        <v>22.95450434403802</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>821404.0757487327</v>
+        <v>22.98242044708529</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-923713.1061078976</v>
+        <v>22.76248682450303</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>-425383.4052679135</v>
+        <v>22.83147206536589</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>-13375.70470735826</v>
+        <v>22.88753949266789</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1964201.049940976</v>
+        <v>22.9808828875193</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>1241815.356453931</v>
+        <v>22.99936097327577</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>1626590.565290146</v>
+        <v>23.03615932257345</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1649814.563264526</v>
+        <v>23.04528671065059</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>-253397.8506689454</v>
+        <v>22.84277662079511</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>1348801.473834782</v>
+        <v>23.02514563166422</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1573371.708819797</v>
+        <v>23.03660830658251</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-280299.0110219796</v>
+        <v>22.85821152255842</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>755146.6358829329</v>
+        <v>22.9297477816434</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>1131401.94891493</v>
+        <v>22.9609931527506</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-1057572.318691788</v>
+        <v>22.80270097449672</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>792825.9647390766</v>
+        <v>22.93805592183756</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>980222.7906657335</v>
+        <v>22.96140018695348</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>-1005712.150608337</v>
+        <v>22.81268724769067</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>2159981.684993041</v>
+        <v>23.01557360849306</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>2332559.345270772</v>
+        <v>23.05770317599756</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>2073447.386677892</v>
+        <v>23.1477319670474</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>2227512.18883054</v>
+        <v>23.17973767666143</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>2288794.689523668</v>
+        <v>23.19484261313451</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>257603.2403711209</v>
+        <v>22.89648463229122</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1814768.970649048</v>
+        <v>23.12281589252191</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1995639.873735669</v>
+        <v>23.16016232125041</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>2537545.130867314</v>
+        <v>22.99731334465624</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>958510.0935400387</v>
+        <v>22.96641854395481</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1277660.38677167</v>
+        <v>22.98959382841806</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1679180.18820752</v>
+        <v>23.02904630665903</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-651364.7319104624</v>
+        <v>22.79682534111222</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>1273248.957654669</v>
+        <v>22.99244249229659</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1627610.969947078</v>
+        <v>23.02785101309338</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-668289.1796358991</v>
+        <v>22.83041686284076</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>653978.8932103316</v>
+        <v>22.90915083444972</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1124495.011339574</v>
+        <v>22.95393025257707</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-1186819.489134628</v>
+        <v>22.78376916356562</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>680295.3163740465</v>
+        <v>22.92623966241591</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1209708.006206141</v>
+        <v>22.97001201943727</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>-1052440.945692482</v>
+        <v>22.80582213070722</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>2355839.923111229</v>
+        <v>23.01382069069273</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>2819865.929027018</v>
+        <v>23.07548448326106</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2200794.210195946</v>
+        <v>23.13003330842829</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2252713.616699369</v>
+        <v>23.15010143233913</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2544371.437595566</v>
+        <v>23.20028485137754</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>-221983.4578023397</v>
+        <v>22.83150550783514</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1739124.39006681</v>
+        <v>23.08802669461625</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>2258715.96437877</v>
+        <v>23.15856055642295</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>3302425.493157413</v>
+        <v>22.96696074190216</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>58519.82467395824</v>
+        <v>22.8979014537301</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>530175.7023164668</v>
+        <v>22.92539015256788</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1358762.989331141</v>
+        <v>22.9662291536299</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-1252758.571770212</v>
+        <v>22.80386056229306</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>1511333.969354881</v>
+        <v>22.956847240675</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>2243833.678650521</v>
+        <v>22.99582098678921</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-1346534.2621215</v>
+        <v>22.81904862974449</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>734227.2995566165</v>
+        <v>22.89811986363612</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1828068.209435023</v>
+        <v>22.95332666971633</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-1629895.368674597</v>
+        <v>22.81208429641046</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>723261.7400557492</v>
+        <v>22.90913910247137</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1836885.83978933</v>
+        <v>22.96848642222289</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-1869305.414928623</v>
+        <v>22.80115334249421</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>2342408.50311359</v>
+        <v>22.96260771317245</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>3905134.37192733</v>
+        <v>23.03974362244743</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>1961064.581613475</v>
+        <v>23.02079872465656</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>2507576.243008997</v>
+        <v>23.06323891744345</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>3515227.86786675</v>
+        <v>23.1402516563634</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-999486.1188191592</v>
+        <v>22.80600841612708</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>1505027.249952137</v>
+        <v>23.01212927771691</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>2920782.39267248</v>
+        <v>23.10889976655226</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-1133737.302604524</v>
+        <v>22.83413528004185</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>-825215.089216377</v>
+        <v>22.85508557646166</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>731205.6723934389</v>
+        <v>22.89884743142313</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-2265580.745778829</v>
+        <v>22.80683142663605</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>29370.01212265832</v>
+        <v>22.876084479685</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>286718.1316681742</v>
+        <v>22.89249782320235</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-1768677.038864759</v>
+        <v>22.83106009727881</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1943095.483295039</v>
+        <v>22.92759396361521</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>2412596.041791825</v>
+        <v>22.94527071085544</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>-173501.731058193</v>
+        <v>22.88821643558471</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>478605.2130565917</v>
+        <v>22.91605183312285</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>463814.3247319551</v>
+        <v>22.92017388365826</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-424120.2448070192</v>
+        <v>22.8497908555345</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>-336684.2420677274</v>
+        <v>22.87119550217705</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>1491129.194904285</v>
+        <v>22.95679877040013</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-793409.5938424303</v>
+        <v>22.82136040482606</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>109014.9639215361</v>
+        <v>22.87106985034013</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>367803.2725866197</v>
+        <v>22.88853546876252</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1511145.786384777</v>
+        <v>22.75269718750643</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-778947.9245766342</v>
+        <v>22.82146434952354</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>-570921.3879680234</v>
+        <v>22.82905193651009</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-1484605.421382081</v>
+        <v>22.77494524105144</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>220588.1781749371</v>
+        <v>22.89074718567047</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-914184.0253283444</v>
+        <v>22.83473125924465</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>-258334.9684591461</v>
+        <v>22.87307618841125</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>572359.8211404739</v>
+        <v>22.90021953556284</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1993853.0657333</v>
+        <v>22.8009983794434</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>810437.7955228649</v>
+        <v>22.91704061690975</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>816701.1143747134</v>
+        <v>22.92332858278134</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>-1590407.834621746</v>
+        <v>22.82345828593904</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>2366445.679187715</v>
+        <v>22.96594377373705</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>2563158.195320505</v>
+        <v>22.96930860433732</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>1524516.487086555</v>
+        <v>22.98345644395405</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1912988.662244558</v>
+        <v>23.00493151423324</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1923210.269980702</v>
+        <v>23.01264508813091</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>-137651.2958433678</v>
+        <v>22.86767820747544</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>1090805.07717733</v>
+        <v>22.96737700822425</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>1833049.415946286</v>
+        <v>23.01134116200167</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-490272.4345018517</v>
+        <v>22.83980106244179</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>466154.0576814536</v>
+        <v>22.91977198261953</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>618202.7540010014</v>
+        <v>22.9303246136052</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1212711.521861683</v>
+        <v>22.76536126141696</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>414168.1662199536</v>
+        <v>22.90841578984763</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>513864.2955927582</v>
+        <v>22.91779852247052</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>-1164166.59275608</v>
+        <v>22.7988121300348</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>1486362.729281264</v>
+        <v>22.99664391358426</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-1894784.326705069</v>
+        <v>22.81336475966936</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>-825145.7690154834</v>
+        <v>22.85091105863111</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>272074.6895934396</v>
+        <v>22.88135373626396</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-2210547.692324427</v>
+        <v>22.78830551589088</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>705074.9939886947</v>
+        <v>22.89984603115487</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>912014.1161227713</v>
+        <v>22.91503707706563</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-1710866.137960507</v>
+        <v>22.81812524146988</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>2445263.468689157</v>
+        <v>22.9543450001418</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>2985136.309802391</v>
+        <v>22.96697899283835</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>1903631.442445498</v>
+        <v>22.98423729654034</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>2127810.790517753</v>
+        <v>22.99396434102566</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>2492861.72069308</v>
+        <v>23.02453963693896</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-822655.7166902872</v>
+        <v>22.81740707372069</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>665261.8130529679</v>
+        <v>22.92176846176888</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>1450548.329749106</v>
+        <v>22.97110985361616</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-878137.8892003809</v>
+        <v>22.81194424081562</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>268284.5520801413</v>
+        <v>22.8859971204264</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>534333.645283688</v>
+        <v>22.91084888850863</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-1329261.874797373</v>
+        <v>22.74583970926186</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>141876.6776360662</v>
+        <v>22.88179394358586</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>616319.8187189855</v>
+        <v>22.91034697365603</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>-1217108.297535997</v>
+        <v>22.79042706278932</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>1323563.287732346</v>
+        <v>22.97723875405672</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-3123073.379421298</v>
+        <v>22.8030858503473</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>-1740036.344314784</v>
+        <v>22.84430257860069</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>389810.5769968241</v>
+        <v>22.88149752085115</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-3159511.326131616</v>
+        <v>22.80261438931987</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>938995.8056420413</v>
+        <v>22.88988994805631</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>1615000.393872671</v>
+        <v>22.91989857049873</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-3222549.39496173</v>
+        <v>22.81695184472361</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>2910802.027433875</v>
+        <v>22.93130339572429</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>4166133.838031528</v>
+        <v>22.9548037097247</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>2095036.64693627</v>
+        <v>22.95319978362079</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>2654562.937845639</v>
+        <v>22.96768251694944</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>3285623.705528819</v>
+        <v>22.98472649612859</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-1700874.211131441</v>
+        <v>22.81678470428278</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>384714.4090800831</v>
+        <v>22.89710198134226</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>2396192.860254254</v>
+        <v>22.97373388127137</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-1498178.881643345</v>
+        <v>22.79410749618724</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>111122.0993583269</v>
+        <v>22.86808676376067</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>621269.814258207</v>
+        <v>22.89446086702009</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-1886237.126375181</v>
+        <v>22.75948701763777</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>-82575.42726688995</v>
+        <v>22.85893356609495</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>527282.416375555</v>
+        <v>22.89241464380297</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1972262.486496655</v>
+        <v>22.7819114481304</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>1095764.220035155</v>
+        <v>22.92711257272624</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>405810.198881473</v>
+        <v>22.90305079015396</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>-112568.3433651407</v>
+        <v>22.87322655088683</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>610304.3546015521</v>
+        <v>22.93132407782693</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>604772.9245969541</v>
+        <v>22.93205527098604</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-622962.0452768358</v>
+        <v>22.80542828921429</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>-199835.4678458884</v>
+        <v>22.86349582535336</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>140341.8863961747</v>
+        <v>22.90794498279513</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-673034.1158276666</v>
+        <v>22.83025997137771</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21421.58535020461</v>
+        <v>22.87147081685795</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>721975.3082796049</v>
+        <v>22.92817470270147</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1258016.776630532</v>
+        <v>22.73693505875646</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>-690340.4923363887</v>
+        <v>22.82103001345013</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>-264197.8397805314</v>
+        <v>22.84941752305681</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-1202435.572827253</v>
+        <v>22.77254248356534</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>256513.2688383879</v>
+        <v>22.91665776547043</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>1261573.809280942</v>
+        <v>22.97688839446583</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>70608.44966147176</v>
+        <v>22.90524844218836</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>737261.2788132984</v>
+        <v>22.98755809901459</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>1030032.153048774</v>
+        <v>23.02174487337165</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-593044.8678763913</v>
+        <v>22.79293014347068</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>64022.30784743954</v>
+        <v>22.90253594515759</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>564966.930567024</v>
+        <v>22.96576687063596</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1774754.682450944</v>
+        <v>23.00980220833035</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>1086353.640352611</v>
+        <v>23.02343314664096</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>1346299.80341164</v>
+        <v>23.0536339831324</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>1295757.531828338</v>
+        <v>23.05973497268004</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>-95571.2566047218</v>
+        <v>22.85983845294075</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>1139727.756400943</v>
+        <v>23.0504018052863</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>1238662.347166801</v>
+        <v>23.06293043537715</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>-210554.8915386752</v>
+        <v>22.85122051271315</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>607029.4752192264</v>
+        <v>22.94706441573376</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>943270.6891691664</v>
+        <v>22.98076900308038</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-982424.2193399968</v>
+        <v>22.75883816950184</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>787153.3234266582</v>
+        <v>22.96225890517335</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>827561.1530236609</v>
+        <v>22.97356932359464</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>-821710.6768856223</v>
+        <v>22.80388255560994</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1826704.154251501</v>
+        <v>23.07208821868254</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>2066117.439900563</v>
+        <v>23.10453588842093</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>1512347.356267327</v>
+        <v>23.16848420713535</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1632250.216337339</v>
+        <v>23.19451076910945</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1800478.7806256</v>
+        <v>23.22504525823035</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>116353.5896161869</v>
+        <v>22.90522559831833</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>1551803.976736774</v>
+        <v>23.18349695269296</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1605612.813152475</v>
+        <v>23.19741426228975</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1994229.564815421</v>
+        <v>23.01380988260236</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>911538.063875437</v>
+        <v>22.98589685882644</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>1054585.967493913</v>
+        <v>22.99898879062661</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>1297684.085394078</v>
+        <v>23.04030583300764</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>-479574.2178045777</v>
+        <v>22.80338295845342</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>956821.3428378585</v>
+        <v>23.00621695326972</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>1181130.961427123</v>
+        <v>23.03693169804615</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-587222.33976781</v>
+        <v>22.81387979528199</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>477771.6333569528</v>
+        <v>22.91359928355933</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>907127.8496897435</v>
+        <v>22.95913750260634</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1135297.277392083</v>
+        <v>22.73087409845975</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>646996.7268707956</v>
+        <v>22.93880260127927</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>882931.1041098508</v>
+        <v>22.96624122432193</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>-912420.1975365838</v>
+        <v>22.78767637825163</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1864974.737041795</v>
+        <v>23.05546590896217</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>2308478.395725289</v>
+        <v>23.10640958222085</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>1556595.592053281</v>
+        <v>23.14526568484368</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1703639.425477124</v>
+        <v>23.15777985349899</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1986137.160288063</v>
+        <v>23.22792642027663</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>-306321.4908080546</v>
+        <v>22.82737602930451</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1548059.192131116</v>
+        <v>23.13870019409483</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1725847.574927541</v>
+        <v>23.17629008331303</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>2226038.394765266</v>
+        <v>22.96603811149126</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>201156.3844641324</v>
+        <v>22.89708790938486</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>515480.9841019</v>
+        <v>22.92204366903163</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>838780.0566486423</v>
+        <v>22.9490726481303</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-929299.1818852723</v>
+        <v>22.79467494818066</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>900445.069476156</v>
+        <v>22.95465703470353</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>1313492.329108982</v>
+        <v>22.99148415320699</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-1197828.114323388</v>
+        <v>22.80655053068465</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>592862.9758852945</v>
+        <v>22.9093391205137</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1375543.550246716</v>
+        <v>22.96481869144193</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1562865.597313227</v>
+        <v>22.76575741612941</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>782619.2463856384</v>
+        <v>22.92139762015761</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>1235007.646458488</v>
+        <v>22.96960995973771</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>-1542726.035928567</v>
+        <v>22.79136600695671</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>2251928.452553863</v>
+        <v>23.00615601246855</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>3202566.349247043</v>
+        <v>23.07529331919711</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>1663682.348551411</v>
+        <v>23.04913057715022</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>2236022.180708552</v>
+        <v>23.09496042056715</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>2710491.25804735</v>
+        <v>23.1669414984743</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>-712090.4643556263</v>
+        <v>22.81042493329358</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>1942023.11915207</v>
+        <v>23.0768615742253</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>2442161.40230649</v>
+        <v>23.14533524667628</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-1811515.759878899</v>
+        <v>22.82172349008668</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>-1586115.360037858</v>
+        <v>22.82599299141479</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>-263158.1642476021</v>
+        <v>22.86820698607004</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2460734.742535941</v>
+        <v>22.78509785307341</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>-1095650.967026074</v>
+        <v>22.82711671774175</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>-920909.5928946241</v>
+        <v>22.84293095491773</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-2288241.391258459</v>
+        <v>22.80534698429124</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>349931.9603362281</v>
+        <v>22.88195945735536</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>823008.3866856458</v>
+        <v>22.89987793644499</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>-768454.780614879</v>
+        <v>22.84738177239648</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>-111194.0370084664</v>
+        <v>22.87339268964622</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>-92386.33587161521</v>
+        <v>22.88126357900397</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-905513.6449906903</v>
+        <v>22.81554272943849</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>-887845.26764436</v>
+        <v>22.835028056029</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>381196.9531585342</v>
+        <v>22.89303512264399</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-803113.1404695048</v>
+        <v>22.82046127296869</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>151796.9038574405</v>
+        <v>22.88097695632009</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>469938.5839941535</v>
+        <v>22.89780547463568</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-1481587.521932538</v>
+        <v>22.74938271494804</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-790905.9840549938</v>
+        <v>22.82015616507988</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>-469442.0806636057</v>
+        <v>22.82867458919754</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-1470599.479294894</v>
+        <v>22.76895729302549</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>342515.6500006017</v>
+        <v>22.8976600043441</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-1347852.825125431</v>
+        <v>22.82618396747206</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>-686249.0274469985</v>
+        <v>22.85118670443607</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>-92719.05358771194</v>
+        <v>22.87566132278548</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-2071862.411421805</v>
+        <v>22.7882240023118</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>224048.9742994087</v>
+        <v>22.88026576473078</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>193838.5692206966</v>
+        <v>22.88532475830274</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>-1887997.663381304</v>
+        <v>22.80321818641189</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1495896.258011706</v>
+        <v>22.92986475699203</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1599225.249900628</v>
+        <v>22.93191170113544</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>1007539.544942989</v>
+        <v>22.94795029698971</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1461592.853335831</v>
+        <v>22.96655535722651</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1532269.523640568</v>
+        <v>22.97942439915633</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>-619943.0260582155</v>
+        <v>22.83399714618772</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>600104.5926712333</v>
+        <v>22.93610230918466</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>1032722.428185101</v>
+        <v>22.95330454168411</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-498215.9074988536</v>
+        <v>22.83830804662234</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>568200.6451188358</v>
+        <v>22.93742651822497</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>707633.6725397636</v>
+        <v>22.94383522801694</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1211329.056432365</v>
+        <v>22.76839786499576</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>540352.9477998251</v>
+        <v>22.92237829207971</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>651049.7461774279</v>
+        <v>22.92948214396184</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>-1220825.645547547</v>
+        <v>22.79469791529807</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>1686218.003550421</v>
+        <v>23.01533567670874</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-2188950.823927957</v>
+        <v>22.81295810969186</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>-1223167.0428944</v>
+        <v>22.83790122479546</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-353888.8981031679</v>
+        <v>22.86560866446687</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2278950.474790103</v>
+        <v>22.78547606027738</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>61098.65722473129</v>
+        <v>22.87422113560629</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>231731.9237142406</v>
+        <v>22.88818030199707</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-1841645.097001911</v>
+        <v>22.8078351786461</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1674306.983877843</v>
+        <v>22.92913601792887</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>2097157.255294877</v>
+        <v>22.94025541614156</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>1383953.642009296</v>
+        <v>22.96019169468238</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1639668.6149304</v>
+        <v>22.9674442601908</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>2103544.170525488</v>
+        <v>23.00324009100813</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-1206284.403481494</v>
+        <v>22.79537707201031</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>166529.1559500977</v>
+        <v>22.90199813715004</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>663806.3377413779</v>
+        <v>22.92626942349536</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-794137.381732938</v>
+        <v>22.82201329355175</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>509976.5224499884</v>
+        <v>22.9158009760093</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>719916.7275254974</v>
+        <v>22.93564345039402</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1284266.967970262</v>
+        <v>22.7633086404331</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>362877.8461908657</v>
+        <v>22.91133051820532</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>788104.7641137277</v>
+        <v>22.93670163842717</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>-1159271.304704423</v>
+        <v>22.80044832096956</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>1696278.656943206</v>
+        <v>23.01072234609465</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-3299576.8650757</v>
+        <v>22.80203617220901</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>-2314386.427320722</v>
+        <v>22.83006682263589</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>-253889.3987188816</v>
+        <v>22.8658659239418</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-3197404.787515949</v>
+        <v>22.79521396184864</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>-369211.2260819336</v>
+        <v>22.86024247872532</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>616915.1560094687</v>
+        <v>22.89022548939434</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-3372643.546421135</v>
+        <v>22.80458421352733</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>1256717.616351681</v>
+        <v>22.90315558903724</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>2777892.752239346</v>
+        <v>22.92667380842289</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>1212659.296129117</v>
+        <v>22.92659655262314</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>1744036.945299927</v>
+        <v>22.94080847200585</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>2641367.264316179</v>
+        <v>22.96311172379924</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-1921269.260865768</v>
+        <v>22.79627453602841</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>-238616.3575631207</v>
+        <v>22.87556149345806</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>1345659.843702258</v>
+        <v>22.92959005468963</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-1382909.229605806</v>
+        <v>22.80510531243669</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>438179.2048325858</v>
+        <v>22.89223989807633</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>883212.1603628512</v>
+        <v>22.91635322119512</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-1826350.762377157</v>
+        <v>22.77262411401275</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>156562.4558977445</v>
+        <v>22.87803150658611</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>740742.5415195534</v>
+        <v>22.91099488466278</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-1921861.264855319</v>
+        <v>22.79011150731932</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>1493788.274245597</v>
+        <v>22.95081011204143</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>629733.6370018704</v>
+        <v>22.91028997799542</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>-12384.51909673825</v>
+        <v>22.89500996224512</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>748810.7057399751</v>
+        <v>22.95919179754089</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>741757.3988319574</v>
+        <v>22.95350095346123</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-604347.7725255331</v>
+        <v>22.80386268316093</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>-28563.0801434986</v>
+        <v>22.89013862763374</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>367980.1827862173</v>
+        <v>22.92384205816774</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-597637.2463995329</v>
+        <v>22.82226311097735</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>119160.0541079954</v>
+        <v>22.87555183396082</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>893346.7801224638</v>
+        <v>22.93090520238253</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-1274694.218206688</v>
+        <v>22.7229031581503</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>-740297.5480791717</v>
+        <v>22.81124780968281</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>-393909.2513268793</v>
+        <v>22.83899650848798</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1256437.997224719</v>
+        <v>22.75410168782182</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>290860.2949939411</v>
+        <v>22.91329749808822</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>1278449.633353926</v>
+        <v>22.97065337417494</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>176517.0892952079</v>
+        <v>22.92226458593057</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>925332.9604865495</v>
+        <v>23.01988130674155</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>1115692.647519931</v>
+        <v>23.02618937935997</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-626637.2081487244</v>
+        <v>22.77511778779711</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>99719.49824727408</v>
+        <v>22.92055617973949</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>589954.1124169081</v>
+        <v>22.97539732860242</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1932807.688283617</v>
+        <v>23.02450740329699</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>1202426.716512433</v>
+        <v>23.05297746802141</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>1481394.758501581</v>
+        <v>23.08849054019003</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>1390083.846690174</v>
+        <v>23.08637277956442</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>-152007.251619988</v>
+        <v>22.85681987242155</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>1286392.261126198</v>
+        <v>23.08569471574307</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>1399330.755898597</v>
+        <v>23.08749595276103</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>-203272.8572338956</v>
+        <v>22.84660999125379</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>690585.5717397201</v>
+        <v>22.96521192645689</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>1079026.430485113</v>
+        <v>22.99339324716899</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-993621.9621859385</v>
+        <v>22.75918856496591</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>973928.9728426775</v>
+        <v>22.97855722104266</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>937423.1593353688</v>
+        <v>22.98522250896112</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>-906882.2025931962</v>
+        <v>22.79429067000564</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>2048290.878661044</v>
+        <v>23.09015494633306</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>2224753.135890151</v>
+        <v>23.11448015054791</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>1674805.301328142</v>
+        <v>23.20289087260838</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1832197.932385315</v>
+        <v>23.24475305572856</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1863683.175763768</v>
+        <v>23.24375692464238</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>75890.96941783139</v>
+        <v>22.89429433305892</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>1710528.767495645</v>
+        <v>23.22275029115848</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1769474.580661273</v>
+        <v>23.22773985051948</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>2279129.619947031</v>
+        <v>23.04226724659763</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>1131649.187598406</v>
+        <v>23.03203078741877</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>1333324.393273555</v>
+        <v>23.05106009769042</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>1497607.204716218</v>
+        <v>23.08358624833419</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>-447905.9985431759</v>
+        <v>22.81742265513572</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>1225687.912750597</v>
+        <v>23.05844625314551</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>1430020.097078447</v>
+        <v>23.07883308216132</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-538203.7277194506</v>
+        <v>22.82072469123072</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>619491.5932910762</v>
+        <v>22.94422274081737</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>1081190.074765546</v>
+        <v>22.98310846846205</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1135091.018783495</v>
+        <v>22.74660493689718</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>879335.5540261567</v>
+        <v>22.97206600696435</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>1014939.104022959</v>
+        <v>22.99367158817454</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>-928992.233055506</v>
+        <v>22.7931667021856</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>2203434.402833251</v>
+        <v>23.08970146445584</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>2552459.211462311</v>
+        <v>23.13130559153004</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>1795739.52631633</v>
+        <v>23.19728241898815</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1982797.086108405</v>
+        <v>23.22641897097078</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>2087946.702252205</v>
+        <v>23.26461567165034</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>-302337.6068421883</v>
+        <v>22.83485374520163</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1801079.433470791</v>
+        <v>23.1971209304292</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1956041.155128145</v>
+        <v>23.22563980093105</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>2570239.592103571</v>
+        <v>22.98797019740024</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>529314.2433901153</v>
+        <v>22.93326950040115</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>913436.0337839628</v>
+        <v>22.96582307169583</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>1233499.009448346</v>
+        <v>22.98762537740105</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-810405.706997226</v>
+        <v>22.80786459846669</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>1272574.89244693</v>
+        <v>22.99598843487335</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>1586601.606213828</v>
+        <v>23.02337039894358</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-1166414.651326401</v>
+        <v>22.80862571375194</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>723000.9324341558</v>
+        <v>22.92698252292893</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1534338.540556355</v>
+        <v>22.97896219743261</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1539634.678524643</v>
+        <v>22.76895063888046</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>996412.0401651764</v>
+        <v>22.933967545358</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>1332792.781988071</v>
+        <v>22.97964606382841</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>-1539071.50894552</v>
+        <v>22.78787146379727</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>2576503.886114235</v>
+        <v>23.02148647732973</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>3422277.848928326</v>
+        <v>23.08541159902076</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>1969035.862901227</v>
+        <v>23.08072452914351</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>2580113.55563348</v>
+        <v>23.14334441869568</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>2926509.988060611</v>
+        <v>23.18995325767717</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>-648906.9748320575</v>
+        <v>22.80901676331482</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>2256393.09464995</v>
+        <v>23.11310917950895</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>2651648.152299771</v>
+        <v>23.17330319882815</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1938648.526120179</v>
+        <v>22.83819698395927</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-1684029.121530808</v>
+        <v>22.83476188029332</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-254828.2282722018</v>
+        <v>22.85431048140057</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-2747079.41771974</v>
+        <v>22.81531599969253</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-1022608.833018736</v>
+        <v>22.85414733439548</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-483852.2506325174</v>
+        <v>22.85243370237955</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-2457632.048300824</v>
+        <v>22.81779174810203</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-13581.94560827978</v>
+        <v>22.866111983162</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>520448.4684042939</v>
+        <v>22.86809157675448</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-1119968.851388347</v>
+        <v>22.81255307915745</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-838733.2967980573</v>
+        <v>22.82997622754857</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>-952196.430583091</v>
+        <v>22.82929338137384</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1228895.60671772</v>
+        <v>22.82257981502031</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-1316677.955925267</v>
+        <v>22.80992706987783</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>-163093.1127070751</v>
+        <v>22.85863090602375</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-1226526.997136206</v>
+        <v>22.8325542834794</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-694652.9791685338</v>
+        <v>22.83543809113381</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>15013.94434794283</v>
+        <v>22.85099154294199</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1033578.53185056</v>
+        <v>22.82106057594005</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-969312.7526085022</v>
+        <v>22.81462441750734</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-687263.9831523373</v>
+        <v>22.82828858947587</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1678898.842910364</v>
+        <v>22.78171074371403</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-1192441.221062825</v>
+        <v>22.81599905212957</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-1108034.126617333</v>
+        <v>22.8414851076957</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-123602.5124773117</v>
+        <v>22.85337198327526</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>142852.8878846657</v>
+        <v>22.86113079015378</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-2390563.730688263</v>
+        <v>22.80755023931573</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>430017.9479142333</v>
+        <v>22.8851130809784</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>571240.4287153162</v>
+        <v>22.88254448628987</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-2175822.386894992</v>
+        <v>22.81490855631331</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>1629622.970893638</v>
+        <v>22.9046608549721</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>1563596.942963728</v>
+        <v>22.89799312897728</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>1027052.309066159</v>
+        <v>22.90965183437671</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>1396692.347188651</v>
+        <v>22.9263752226492</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>1457241.442660196</v>
+        <v>22.92605743478334</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-296699.7265511684</v>
+        <v>22.85968531593567</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>961332.4863947985</v>
+        <v>22.91007415397296</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>1515342.637086766</v>
+        <v>22.93786702252461</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-800800.3519496867</v>
+        <v>22.82654833120734</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>-241355.7364283767</v>
+        <v>22.84942946228546</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>3741.345078630317</v>
+        <v>22.865319948688</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-952674.5805668036</v>
+        <v>22.80280863358248</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-177991.1874869929</v>
+        <v>22.84734264513214</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>145553.429297284</v>
+        <v>22.87840103848134</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>334689.6817794541</v>
+        <v>22.8793119669612</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1745742.193833912</v>
+        <v>22.83702056005554</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-319481.8580383634</v>
+        <v>22.85332302720449</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>203742.6908526378</v>
+        <v>22.86307699061568</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-2483817.965651686</v>
+        <v>22.8102796331424</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>494010.6862274702</v>
+        <v>22.88833219332207</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>939070.1958096903</v>
+        <v>22.89397900494857</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-1983679.379763762</v>
+        <v>22.82599199161762</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>2255169.988889695</v>
+        <v>22.91656597169514</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>2490862.366888783</v>
+        <v>22.91707317804304</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>1382811.459127874</v>
+        <v>22.92716387237119</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>1522665.329168788</v>
+        <v>22.93416259143187</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>1859742.874259074</v>
+        <v>22.95218970830355</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-770456.5409693292</v>
+        <v>22.83259773389519</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>794271.9101705563</v>
+        <v>22.89088764691765</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>1559080.313721864</v>
+        <v>22.92763367647282</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-989545.9376500347</v>
+        <v>22.81793468356282</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-232403.5282195511</v>
+        <v>22.84017535493382</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24106.34900359589</v>
+        <v>22.86667092307039</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-958270.5945648258</v>
+        <v>22.79832550298239</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-283933.6141741003</v>
+        <v>22.84055307867594</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>365391.0570130476</v>
+        <v>22.88880661736225</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-1238537.914599184</v>
+        <v>22.78759323103054</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>538947.0294874242</v>
+        <v>22.88523574710586</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-3406309.139136254</v>
+        <v>22.81872294887742</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-1916431.878658174</v>
+        <v>22.84185648624284</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>-812688.1688895214</v>
+        <v>22.85677468287241</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-3501838.491947672</v>
+        <v>22.81564976870839</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-25959.84060992475</v>
+        <v>22.8756707742916</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>1023003.059179541</v>
+        <v>22.89056630616042</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-3956817.72374221</v>
+        <v>22.81280107803947</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>1702135.973342182</v>
+        <v>22.88939124179803</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>2485457.982518257</v>
+        <v>22.89734129330419</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>161119.0270129259</v>
+        <v>22.88326883367986</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>465924.9584445219</v>
+        <v>22.88852232135365</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>839471.9448175572</v>
+        <v>22.90173231793494</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-2058803.273408519</v>
+        <v>22.81346438263389</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-216085.1690881903</v>
+        <v>22.85405308329314</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>1454843.094030981</v>
+        <v>22.91138382505508</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-1799038.303951029</v>
+        <v>22.8133037129631</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-547112.9864018314</v>
+        <v>22.84784694186265</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>16977.25890292833</v>
+        <v>22.87114215074661</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-1385077.642560483</v>
+        <v>22.82103157480759</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-312092.4647681338</v>
+        <v>22.84837822182347</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>421987.9517611276</v>
+        <v>22.89108269563344</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-2127637.949488888</v>
+        <v>22.79250127366882</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>218532.1341142879</v>
+        <v>22.86942716559584</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-813044.9772975869</v>
+        <v>22.83284203488918</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-683633.7289045658</v>
+        <v>22.80895174601591</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>13847.80171384983</v>
+        <v>22.86553455956796</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>264727.537011127</v>
+        <v>22.87433127071195</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-1015752.537082987</v>
+        <v>22.78569016121286</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-858682.4880559898</v>
+        <v>22.79445013334987</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>-631797.3980153813</v>
+        <v>22.81097162823813</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-929045.9877736642</v>
+        <v>22.83804882854508</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-513263.9627254513</v>
+        <v>22.83033443422262</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>296405.4126135907</v>
+        <v>22.86858014057896</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-913316.7894266779</v>
+        <v>22.80749480540594</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-859026.0317938366</v>
+        <v>22.80469602708811</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-577779.7265470228</v>
+        <v>22.82249596910819</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-1412606.960028116</v>
+        <v>22.77885879396763</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-732438.9381426022</v>
+        <v>22.83082681088845</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>420806.3618774198</v>
+        <v>22.88263406364621</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>-503346.3152324754</v>
+        <v>22.83044003155052</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>509826.7406520774</v>
+        <v>22.90902264694673</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>623124.9359841677</v>
+        <v>22.93746724223134</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-813385.1732125854</v>
+        <v>22.7740077732928</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-606149.2153090119</v>
+        <v>22.78622269596228</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>-211065.6965394681</v>
+        <v>22.84101855325837</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>916631.7126997639</v>
+        <v>22.90509435165082</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>465819.6873518196</v>
+        <v>22.90897422727087</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>860247.5102761029</v>
+        <v>22.94148206391056</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>991033.9812378929</v>
+        <v>22.95586975821888</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-342577.1897077743</v>
+        <v>22.82403914162647</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>561960.0499213249</v>
+        <v>22.93168040222432</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>681614.326500522</v>
+        <v>22.93961186037992</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-245589.7101803159</v>
+        <v>22.85469888555464</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>226525.5322391328</v>
+        <v>22.88917700023334</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>718190.6543552623</v>
+        <v>22.91577579767724</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-748426.2915451019</v>
+        <v>22.81737383778328</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>463510.4233020687</v>
+        <v>22.9071613317384</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>709012.034945737</v>
+        <v>22.92729272012681</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-950681.9850913838</v>
+        <v>22.80451658193975</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>1327350.824505864</v>
+        <v>22.96033395601216</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1847225.953272035</v>
+        <v>22.99857403460025</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>1398430.16975101</v>
+        <v>23.06481985695807</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>1711406.434159383</v>
+        <v>23.09357951603295</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1907294.244454125</v>
+        <v>23.11571138861679</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>240695.6164166934</v>
+        <v>22.88731073348739</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>1193662.594662652</v>
+        <v>23.03106225447323</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1406100.827471364</v>
+        <v>23.069280176518</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>1430485.76719973</v>
+        <v>22.92965779522238</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>262252.1994749754</v>
+        <v>22.88843952102224</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>530329.8077451794</v>
+        <v>22.90524075050606</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>981304.4243069082</v>
+        <v>22.94850405261269</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>-569493.6014253716</v>
+        <v>22.79234988370034</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>543557.4987522408</v>
+        <v>22.91176460454117</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>727657.3341564568</v>
+        <v>22.93997464232376</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-446290.4092678319</v>
+        <v>22.83896135069664</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>239485.5368383313</v>
+        <v>22.88041825096402</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>776141.8793950635</v>
+        <v>22.9172911606641</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>-793655.2909683773</v>
+        <v>22.80751506860819</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>405991.7008530797</v>
+        <v>22.90456102495641</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>907935.2265180154</v>
+        <v>22.94124101411547</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-878572.1501433329</v>
+        <v>22.8075997852927</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>1575757.650152417</v>
+        <v>22.96874239121709</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>2308796.25077528</v>
+        <v>23.02304429139713</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>1520011.556620809</v>
+        <v>23.05861670539236</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1702547.527361036</v>
+        <v>23.07336439711668</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>2110803.275887796</v>
+        <v>23.12893412142066</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>-105929.9951346043</v>
+        <v>22.83645456608344</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>1127901.560221526</v>
+        <v>23.00815266698612</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1612782.307893362</v>
+        <v>23.07516765458284</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>1533517.191533133</v>
+        <v>22.90936014513154</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-561654.5429211145</v>
+        <v>22.8379519258509</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>-175797.0904878938</v>
+        <v>22.85977640521315</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>571121.4691929872</v>
+        <v>22.89734186869633</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-1102420.338177147</v>
+        <v>22.79901878260174</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>648553.6091186018</v>
+        <v>22.89558833760973</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>998485.4299174631</v>
+        <v>22.92303682256346</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-1042826.60779422</v>
+        <v>22.82492578502242</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>259443.5133191624</v>
+        <v>22.87844222501626</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>1301098.527461475</v>
+        <v>22.92298998923488</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-1068431.026819956</v>
+        <v>22.82753006336016</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>450913.5146905966</v>
+        <v>22.89160962733625</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>1462192.997776909</v>
+        <v>22.9416359070985</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-1637795.964069913</v>
+        <v>22.79834306967324</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>1462332.715036799</v>
+        <v>22.92644675340225</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>3124398.601542988</v>
+        <v>22.99306923520555</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>1243382.135187444</v>
+        <v>22.96321430113546</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>1837332.182402756</v>
+        <v>23.00039362767387</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>2816854.468823391</v>
+        <v>23.07359050505758</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-753857.9059676148</v>
+        <v>22.80655913975907</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>765029.5508971612</v>
+        <v>22.94944411922162</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>2083026.053792842</v>
+        <v>23.03816747053019</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-1915317.678914333</v>
+        <v>22.83897550092975</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-1626755.7281361</v>
+        <v>22.83175247094048</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>41378.4996022812</v>
+        <v>22.86158706323465</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-2563734.348752864</v>
+        <v>22.81109913463228</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-463370.7544763881</v>
+        <v>22.8525992395669</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>164608.1065491739</v>
+        <v>22.85630617674296</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-2429231.972203772</v>
+        <v>22.81406134155225</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>476926.7562385037</v>
+        <v>22.86929561722326</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>1053837.646418732</v>
+        <v>22.87920844922962</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-1023844.827417893</v>
+        <v>22.8178606357605</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>-622970.9907597634</v>
+        <v>22.83850915893967</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>-813917.7321966537</v>
+        <v>22.84263058973351</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-1144760.507230996</v>
+        <v>22.82153200624613</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-1253650.023713528</v>
+        <v>22.81386963073466</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>136702.0105735029</v>
+        <v>22.86490859202183</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-911613.7275105688</v>
+        <v>22.84416169909391</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-197128.886413257</v>
+        <v>22.8656077284644</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>561810.9782172521</v>
+        <v>22.89002751245507</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-885673.3080531599</v>
+        <v>22.82074542340981</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-522019.3047825283</v>
+        <v>22.84255786552519</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-264448.7480300643</v>
+        <v>22.85770243534121</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-1604092.303625338</v>
+        <v>22.79018734829926</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-490711.4661979395</v>
+        <v>22.85962632913909</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-1134067.000484385</v>
+        <v>22.84112831853221</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>-202584.2412742024</v>
+        <v>22.8518356331902</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>141903.4811376712</v>
+        <v>22.8671001081505</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-2297099.06333078</v>
+        <v>22.80220462856383</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>801847.2927837817</v>
+        <v>22.88629927383302</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>942041.9799200447</v>
+        <v>22.88561229883287</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-2224382.360892429</v>
+        <v>22.80870115569319</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1825368.053626299</v>
+        <v>22.90882763994414</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1763198.036850219</v>
+        <v>22.90672471365837</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>1164547.713832304</v>
+        <v>22.91552751350905</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1480931.915656807</v>
+        <v>22.93009389224878</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1476948.694493733</v>
+        <v>22.93363311978064</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-323538.6508734273</v>
+        <v>22.85227036425172</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>930250.4060809491</v>
+        <v>22.91451471816994</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1528494.668101709</v>
+        <v>22.93901868904093</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>-484938.4469845131</v>
+        <v>22.85097164703398</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>284576.4273413476</v>
+        <v>22.89841714651078</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>418835.0201554493</v>
+        <v>22.91746605118125</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>-770322.0738359188</v>
+        <v>22.81651844712933</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>448925.3457089568</v>
+        <v>22.89731344971382</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>635220.1733871198</v>
+        <v>22.92281228982389</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>1186142.792819717</v>
+        <v>22.94269542286271</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-1996726.976705759</v>
+        <v>22.83452932893134</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>-556580.1219311455</v>
+        <v>22.85087597240856</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>109687.5843519913</v>
+        <v>22.86758528951986</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-2494684.342002047</v>
+        <v>22.80357005724201</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>767174.0187057703</v>
+        <v>22.88940881729568</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>1260458.45320608</v>
+        <v>22.89653939761068</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-2215506.943356387</v>
+        <v>22.81830880437921</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>2294201.63834578</v>
+        <v>22.92017794917658</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>2591582.36536798</v>
+        <v>22.92463284357559</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>1510648.500166626</v>
+        <v>22.93238935047957</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1588025.605480251</v>
+        <v>22.93694388662857</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1890848.056879136</v>
+        <v>22.95918403183182</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-959350.3298619905</v>
+        <v>22.82228096111613</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>607147.8580591506</v>
+        <v>22.89462086029348</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1429379.450558453</v>
+        <v>22.92758093038891</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-750170.3431970822</v>
+        <v>22.84239834201023</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>276505.7258214047</v>
+        <v>22.89055321146125</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>417662.1076308425</v>
+        <v>22.91899808573344</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-799015.337522608</v>
+        <v>22.81390680489352</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>359823.048332549</v>
+        <v>22.8937965899852</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>888631.3463063901</v>
+        <v>22.93549481924978</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-1130277.058884066</v>
+        <v>22.81000070310477</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>1442773.575351083</v>
+        <v>22.95090033492919</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-3697073.020992921</v>
+        <v>22.81997671172288</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-2083217.376243124</v>
+        <v>22.8416504329376</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>-651075.4265772176</v>
+        <v>22.86500054247179</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-3403761.052486885</v>
+        <v>22.81463532050382</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>532415.5789047715</v>
+        <v>22.87943755171843</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>1752014.462141601</v>
+        <v>22.89849445305577</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-4104340.02377753</v>
+        <v>22.81120040530346</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>2124115.029926443</v>
+        <v>22.89561471115335</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>2995655.921707501</v>
+        <v>22.9095664117808</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>504175.4653134237</v>
+        <v>22.89300452826866</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>840689.3200882575</v>
+        <v>22.90055043599246</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1257974.179592303</v>
+        <v>22.91932476198658</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-2211577.376168923</v>
+        <v>22.81243800437522</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>-351537.9873780138</v>
+        <v>22.86250020272077</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1626271.066849682</v>
+        <v>22.92076719599799</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-1499002.426374769</v>
+        <v>22.82743140553053</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>156815.4270115559</v>
+        <v>22.88219506525185</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>642431.2061582799</v>
+        <v>22.91071293767338</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-1176259.265985973</v>
+        <v>22.82763981032866</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>479962.1999197687</v>
+        <v>22.88455269711112</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>1056453.433359463</v>
+        <v>22.92592094581969</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-2032691.396201408</v>
+        <v>22.80499174930153</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>1313038.346616154</v>
+        <v>22.9166145595318</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>-51432.90401444363</v>
+        <v>22.88293405241619</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-277257.1856832505</v>
+        <v>22.86294704764111</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>706089.042669883</v>
+        <v>22.9325076131893</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>909564.5570579921</v>
+        <v>22.94773400760876</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-822624.5277426364</v>
+        <v>22.81259388505394</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-446763.9855266702</v>
+        <v>22.85577121852773</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>-185056.2559972717</v>
+        <v>22.87260731748711</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-971526.4361329523</v>
+        <v>22.82644360467689</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-455796.630864953</v>
+        <v>22.83917394623059</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>643722.4424022649</v>
+        <v>22.89783104935666</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-781905.268725954</v>
+        <v>22.79646976235308</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-599542.8650823759</v>
+        <v>22.82443527795835</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>-277755.942225235</v>
+        <v>22.85398684685592</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-1410509.765417507</v>
+        <v>22.77092565289956</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>-417982.1303182668</v>
+        <v>22.8594667036301</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>1036897.325480923</v>
+        <v>22.92952295724085</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>-297927.4515340979</v>
+        <v>22.86867748314557</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>1051175.496157017</v>
+        <v>22.97761836205883</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>1228780.255094155</v>
+        <v>23.01276260044777</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-770517.138440233</v>
+        <v>22.76600466001526</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>-324941.6067623176</v>
+        <v>22.83692032381227</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>72942.13257950987</v>
+        <v>22.89384085227179</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>1692443.995456758</v>
+        <v>22.96839537859335</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>1061145.09814807</v>
+        <v>22.98777560241903</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>1460904.025864465</v>
+        <v>23.02520871370892</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>1575512.21765117</v>
+        <v>23.04340593995492</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-104105.7554804283</v>
+        <v>22.86300768596567</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>1071216.866731544</v>
+        <v>23.01758151279366</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>1126107.434911588</v>
+        <v>23.01546780296982</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-330494.8668971001</v>
+        <v>22.85037678081247</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>380076.0648533946</v>
+        <v>22.9130598409004</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>982503.096104126</v>
+        <v>22.95494349126844</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-645065.745154548</v>
+        <v>22.8164049541529</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>891523.0949846797</v>
+        <v>22.94675199354056</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>1109984.390663463</v>
+        <v>22.97214528169062</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>-1063823.40022997</v>
+        <v>22.80383465445709</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1740843.562297047</v>
+        <v>23.0050963084112</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>2410760.812638976</v>
+        <v>23.05570651759926</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>1611112.229087851</v>
+        <v>23.11809425558068</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>2035693.879985346</v>
+        <v>23.17131316739129</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>2273598.496389702</v>
+        <v>23.19720222809006</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>136924.3881900295</v>
+        <v>22.87958308964303</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>1530740.570458821</v>
+        <v>23.09996710789007</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1694559.076910358</v>
+        <v>23.1302151093925</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>2259599.151919935</v>
+        <v>22.99386465207256</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>889867.0461605887</v>
+        <v>22.96967685634552</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>1131702.817521787</v>
+        <v>22.99073919543245</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1572577.085046588</v>
+        <v>23.03768863042515</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-386289.710022109</v>
+        <v>22.8307441450941</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>1044312.425233688</v>
+        <v>22.99975608007934</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-604506.2884627385</v>
+        <v>22.83499123090451</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>350762.0972754542</v>
+        <v>22.90600036023815</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>1015395.458054668</v>
+        <v>22.95655020528162</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-712232.6419721575</v>
+        <v>22.80853733559795</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>818225.7986338304</v>
+        <v>22.94749528813328</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>1349189.368744892</v>
+        <v>22.98817207345533</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>-1015888.640028388</v>
+        <v>22.80845214973843</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>1989376.469436849</v>
+        <v>23.01588476140701</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>2895099.513793541</v>
+        <v>23.08080673140784</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>1740163.838813821</v>
+        <v>23.11379165846844</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>2024209.057633526</v>
+        <v>23.15193704668429</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>2465290.113900338</v>
+        <v>23.21094254822909</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>-270237.0633505811</v>
+        <v>22.82870120894444</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1472752.754099958</v>
+        <v>23.07922254224384</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1917416.005497147</v>
+        <v>23.13662688682827</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>2596595.376040872</v>
+        <v>22.95904881249422</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>87420.07001520984</v>
+        <v>22.89646108991137</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>562176.3552845578</v>
+        <v>22.92917661919994</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>1315942.268068912</v>
+        <v>22.97262691472574</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-891818.1502139596</v>
+        <v>22.82624974681554</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>1330292.362002094</v>
+        <v>22.96162544151937</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>1563296.027358805</v>
+        <v>22.9854970978968</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-1170701.249827095</v>
+        <v>22.82099910291237</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>389085.3846354538</v>
+        <v>22.89646717590585</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>1740139.256064316</v>
+        <v>22.95647682336979</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-894180.5517998829</v>
+        <v>22.82801602648237</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>924326.8717181403</v>
+        <v>22.92395094788657</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>2079217.997390152</v>
+        <v>22.98200090547461</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-1654624.921677315</v>
+        <v>22.79940437083501</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>1995266.10450149</v>
+        <v>22.96336664310153</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>4010218.059065264</v>
+        <v>23.04301309544409</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>1600501.674033062</v>
+        <v>23.00944577388889</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>2488471.896295737</v>
+        <v>23.07348176655501</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>3583368.521282042</v>
+        <v>23.15257698214525</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-761934.1156894139</v>
+        <v>22.80563958956723</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>1351224.419402753</v>
+        <v>23.0097257303015</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>2601823.341061787</v>
+        <v>23.09614338175425</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-1000972.31988029</v>
+        <v>22.81352288890792</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-1126163.887636816</v>
+        <v>22.78891712413264</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-400313.6482886936</v>
+        <v>22.84301406081714</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-1076984.390068746</v>
+        <v>22.79140401938612</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-242597.8012643828</v>
+        <v>22.83928435092527</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-168116.6707267543</v>
+        <v>22.85309040397213</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-1069218.484300005</v>
+        <v>22.79813313228011</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>60187.58757273998</v>
+        <v>22.86779708186283</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>161620.8317612566</v>
+        <v>22.88393850041482</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-671774.6963069532</v>
+        <v>22.79630741602884</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-377242.2454322863</v>
+        <v>22.8156427405237</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-426811.0251450422</v>
+        <v>22.82821661739293</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-362753.2359229728</v>
+        <v>22.83980737321854</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-556887.5651959528</v>
+        <v>22.7951850373837</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>257208.2264546133</v>
+        <v>22.88340101632351</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-280875.0903310754</v>
+        <v>22.83850859408308</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>108957.5705864823</v>
+        <v>22.8936093628143</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>240549.5914900722</v>
+        <v>22.90969250579761</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-613139.5856375254</v>
+        <v>22.77227924319573</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-220588.9511987354</v>
+        <v>22.85778308841098</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-128384.1241986536</v>
+        <v>22.85238698647191</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-674427.6360504527</v>
+        <v>22.77854123180276</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>267433.5771876583</v>
+        <v>22.92590142404804</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-785677.7647428295</v>
+        <v>22.81236877480168</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-809572.6419353475</v>
+        <v>22.80165811225161</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-425717.1547037923</v>
+        <v>22.83276235636404</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-1010779.590682165</v>
+        <v>22.77100310791445</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-89895.41942541185</v>
+        <v>22.8694058526143</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-80643.7938804928</v>
+        <v>22.86835680419993</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-968057.6198394092</v>
+        <v>22.77702304645656</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>262796.4878201019</v>
+        <v>22.89647802051763</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>215168.1205406656</v>
+        <v>22.8914883990533</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>19204.06967684641</v>
+        <v>22.88433663650918</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>200876.4700138415</v>
+        <v>22.88922167849425</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>222185.3879861566</v>
+        <v>22.905546782995</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-225530.588826581</v>
+        <v>22.84528702680165</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>-46479.32276347035</v>
+        <v>22.87891463732555</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>277971.2732210095</v>
+        <v>22.9163670014493</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-74386.28477058037</v>
+        <v>22.8657510165953</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>271698.0017263158</v>
+        <v>22.9513025458883</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>241283.7689318216</v>
+        <v>22.95082976273534</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-487969.7084267779</v>
+        <v>22.78099906164305</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>329892.343151744</v>
+        <v>22.95082078459935</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>272537.7088504204</v>
+        <v>22.94020049154493</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-535427.2914363254</v>
+        <v>22.80126831686641</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>859866.8391754279</v>
+        <v>23.04439946793114</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>-1146814.949206012</v>
+        <v>22.79656308087084</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-994487.6081409708</v>
+        <v>22.78983047349672</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-449114.9100336027</v>
+        <v>22.82236066088432</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-1114572.276514081</v>
+        <v>22.76447817261272</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-189058.3985910021</v>
+        <v>22.86177567834016</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-82430.75622299936</v>
+        <v>22.86946264767927</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-971320.4320667526</v>
+        <v>22.78064564374743</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>341230.639243399</v>
+        <v>22.89772894357451</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>452978.3506445234</v>
+        <v>22.90136799907356</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>185167.0571673945</v>
+        <v>22.89934757782297</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>255209.3825936808</v>
+        <v>22.89068293283355</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>490015.4542793288</v>
+        <v>22.93246794447455</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-528379.925643041</v>
+        <v>22.79139087535169</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>-269857.6011824391</v>
+        <v>22.83714232569224</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>116392.2521669451</v>
+        <v>22.88137851995013</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-208450.2289091612</v>
+        <v>22.84640979903779</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>243694.3856418595</v>
+        <v>22.92926708727531</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>236797.2707750637</v>
+        <v>22.94098341395852</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-525120.8482142811</v>
+        <v>22.77148159535243</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>264956.670880854</v>
+        <v>22.93671767195497</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>312409.3894767744</v>
+        <v>22.94507058975569</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-491856.9376493127</v>
+        <v>22.80631553579634</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>913268.5006828591</v>
+        <v>23.04077531363608</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1817873.99288797</v>
+        <v>22.78016867827801</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-1694813.084910932</v>
+        <v>22.78979081147924</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-634964.999116558</v>
+        <v>22.83019180057236</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-1570203.841612426</v>
+        <v>22.78254444527863</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-272139.5181916496</v>
+        <v>22.85938874713314</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>75027.82905912341</v>
+        <v>22.88544586650663</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-1832854.400299656</v>
+        <v>22.77874290292539</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>81603.14248207142</v>
+        <v>22.88008032226131</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>566540.5300639814</v>
+        <v>22.89772477355397</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>13242.62540860984</v>
+        <v>22.87983978047592</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>174300.7511111303</v>
+        <v>22.88194128341313</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>556446.6387897269</v>
+        <v>22.90814164908817</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-1012619.34913596</v>
+        <v>22.78792449419622</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-692559.8797613704</v>
+        <v>22.82410168673201</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>409853.30192064</v>
+        <v>22.9033529247488</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-494098.5410390644</v>
+        <v>22.81198007913716</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>268476.4156469051</v>
+        <v>22.9042636182586</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>330681.3240634864</v>
+        <v>22.9196169001158</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-759281.1438262993</v>
+        <v>22.78011333445031</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>295669.6873894706</v>
+        <v>22.90812105549238</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>310558.384891038</v>
+        <v>22.92519531098772</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-907011.5967865884</v>
+        <v>22.78656942320804</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>919474.3185874303</v>
+        <v>22.97743630573147</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>348035.5093902674</v>
+        <v>22.92671779439066</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>9231.688173951874</v>
+        <v>22.91348659567427</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>458676.1654718469</v>
+        <v>22.99711730914755</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>438435.6254224798</v>
+        <v>22.98964161026426</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>-202229.1572057832</v>
+        <v>22.86659827919664</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>61118.25106988713</v>
+        <v>22.92575741561021</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>198622.4971194899</v>
+        <v>22.9402804084626</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-210855.5381659256</v>
+        <v>22.82508310234359</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>34256.40870777768</v>
+        <v>22.87266953221082</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>499762.3036291914</v>
+        <v>22.95603311721318</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>-523659.4610293553</v>
+        <v>22.74629646253801</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>-232855.1428765048</v>
+        <v>22.85397457044822</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>-66154.64080182154</v>
+        <v>22.88941051103641</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-546400.2971875462</v>
+        <v>22.76232218349378</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>254221.9087411971</v>
+        <v>22.94777032026485</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>763880.6525577814</v>
+        <v>23.02549757033714</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>57051.56910668407</v>
+        <v>22.94317145859799</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>534830.3462231567</v>
+        <v>23.08228421232165</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>612150.279549089</v>
+        <v>23.10065275145966</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-230103.2489089436</v>
+        <v>22.8201685516167</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>113450.9596106532</v>
+        <v>22.96334392757011</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>277285.6925638624</v>
+        <v>23.01737992472101</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>860848.5399925765</v>
+        <v>23.03661827831944</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>585916.4864448259</v>
+        <v>23.07860952462787</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>710865.71107115</v>
+        <v>23.11550230504241</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>679816.321608249</v>
+        <v>23.11119998540192</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>88834.1527457106</v>
+        <v>22.92828223279727</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>611722.1993625202</v>
+        <v>23.12933275027956</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>568109.4965066724</v>
+        <v>23.09679537680046</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-33895.95556641067</v>
+        <v>22.86305898308404</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>-407379.4954144163</v>
+        <v>22.7803520491916</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>523782.0649285229</v>
+        <v>23.03093981590034</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>515276.1885921254</v>
+        <v>23.04005358453995</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>-413138.5578593658</v>
+        <v>22.8062516836376</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>1033655.819839349</v>
+        <v>23.14090516563036</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>1148840.120993245</v>
+        <v>23.17838650109751</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>758076.1244004848</v>
+        <v>23.25848594843327</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>892232.7172711466</v>
+        <v>23.3206468718822</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>933546.9412442085</v>
+        <v>23.32920299860681</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>136419.4450174684</v>
+        <v>22.9622281411111</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>834888.9098734129</v>
+        <v>23.29854019078467</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>823735.6316692051</v>
+        <v>23.28800528665642</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>1036038.034124115</v>
+        <v>23.0560690719918</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>569689.1218819855</v>
+        <v>23.05093318049281</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>633751.2511920084</v>
+        <v>23.06634440331571</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>707677.6944068007</v>
+        <v>23.10005524731155</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>-44749.32187979805</v>
+        <v>22.8719763410415</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>587997.8224492065</v>
+        <v>23.09344418188199</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>577933.761957144</v>
+        <v>23.08075861682049</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-192867.1942729173</v>
+        <v>22.83693604892296</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>235620.5049673808</v>
+        <v>22.9565092203192</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>529700.2186723854</v>
+        <v>23.01508476469806</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>-466601.0601418893</v>
+        <v>22.76713163710165</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>504044.1570003881</v>
+        <v>23.02753350367246</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>560706.462599505</v>
+        <v>23.05130443017351</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>-414887.9092039229</v>
+        <v>22.80747728678979</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>1141981.349219488</v>
+        <v>23.14648963895507</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>1316691.56360872</v>
+        <v>23.2003590675176</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>842045.1586588613</v>
+        <v>23.25507038679586</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>960241.9456989473</v>
+        <v>23.29946618153348</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>1029444.780650644</v>
+        <v>23.35094189176493</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>-37750.98973704438</v>
+        <v>22.88722967762725</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>885847.6669890028</v>
+        <v>23.26886255738241</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>933939.0380219206</v>
+        <v>23.28482825148281</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>1166875.214512367</v>
+        <v>22.99883481558716</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>339833.2540249814</v>
+        <v>22.9460176757963</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>490313.1104510579</v>
+        <v>22.98256510730698</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>593949.1767454618</v>
+        <v>23.00200947277023</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>-240917.4119135975</v>
+        <v>22.8442239283936</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>688668.3238642316</v>
+        <v>23.0323604965633</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>699333.7056373204</v>
+        <v>23.03364062841721</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>-387825.8217388361</v>
+        <v>22.81963224925149</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>375584.8811016798</v>
+        <v>22.94957995045104</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>878600.2201056647</v>
+        <v>23.01885307153679</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>-594529.2160764791</v>
+        <v>22.80001971997786</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>682598.5940783698</v>
+        <v>22.99971392759522</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>826513.5873525473</v>
+        <v>23.05016222803258</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>-658227.2217224475</v>
+        <v>22.80239581920367</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>1455012.290645269</v>
+        <v>23.0811140191107</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>1848331.678894619</v>
+        <v>23.1571316168561</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>1036818.615142433</v>
+        <v>23.14098282865589</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>1376723.493845834</v>
+        <v>23.22639195325364</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>1520984.608414108</v>
+        <v>23.28734055820126</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>-175953.2523740696</v>
+        <v>22.85443357814445</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>1163759.777932861</v>
+        <v>23.19080062813235</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>1333994.465909001</v>
+        <v>23.2485788285133</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.644</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.864</v>
+        <v>15.28</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.35</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.638</v>
+        <v>17.489</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.953</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.573</v>
+        <v>4.038</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>22.84836134033164</v>
+        <v>15.20406813732001</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.84908927412959</v>
+        <v>17.32866958788229</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.87558536278526</v>
+        <v>29.76850426981566</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.81461968836582</v>
+        <v>0.1819233082186429</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.8623596442091</v>
+        <v>18.69146945005559</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.86379642881786</v>
+        <v>23.58174513635436</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.82471637923333</v>
+        <v>8.421162606846913</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.88557174725299</v>
+        <v>31.85855881060395</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>22.8953026578646</v>
+        <v>38.53100895881956</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>22.83672180185328</v>
+        <v>15.07608625401646</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>22.85820285593611</v>
+        <v>19.48817730855637</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.85407294097269</v>
+        <v>18.9908320707546</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>22.82067178831985</v>
+        <v>11.02449934566469</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>22.82462199921086</v>
+        <v>13.72061473540302</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>22.87508918896707</v>
+        <v>30.08898958820164</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.84469880209706</v>
+        <v>13.15441151827389</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.8688434094475</v>
+        <v>25.11309784910498</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22.89374692967538</v>
+        <v>33.89546636682026</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>22.80889978130039</v>
+        <v>2.685663832688263</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.8323190251822</v>
+        <v>8.978183096733138</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.85167310404356</v>
+        <v>14.44121063095942</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>22.78936955555808</v>
+        <v>1.792918801049783</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>22.85475845684907</v>
+        <v>15.55235854982413</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>22.84414368992207</v>
+        <v>17.81933042338481</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.86580395350131</v>
+        <v>27.3890182716713</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>22.87967296668464</v>
+        <v>29.40458835113666</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>22.80123181955255</v>
+        <v>0.2061706933873886</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.89352194068222</v>
+        <v>31.7484588855199</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>22.89358148905942</v>
+        <v>32.26747059448171</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>22.81690527070418</v>
+        <v>6.513368845927193</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>22.92558390087358</v>
+        <v>45.30804521730418</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>22.92582447151482</v>
+        <v>45.73393844531158</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>22.94189606725467</v>
+        <v>45.4286542662949</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22.96331701432722</v>
+        <v>51.52163050653144</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22.95540955154861</v>
+        <v>52.16311826439116</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>22.85263952036905</v>
+        <v>21.85489645494346</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.93170430096082</v>
+        <v>43.34762039464657</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>22.95880831501742</v>
+        <v>52.44906354430528</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>22.84799334180546</v>
+        <v>15.63425401401131</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>22.9036620536249</v>
+        <v>33.36655587465633</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>22.9283236673121</v>
+        <v>35.65428125688145</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>22.8041671207362</v>
+        <v>2.598887502766068</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>22.89047127264436</v>
+        <v>27.55311779807133</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>22.92740994725582</v>
+        <v>33.68157750891567</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>22.80134479958404</v>
+        <v>3.343352194505904</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>22.94589627425394</v>
+        <v>44.67192735968612</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>22.82760602656728</v>
+        <v>10.12580731858206</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.85369626782495</v>
+        <v>22.54995515931821</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.87108311980409</v>
+        <v>26.69906619445626</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>22.79383498798603</v>
+        <v>-0.3837851525084659</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>22.88641704294463</v>
+        <v>30.53605072055387</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>22.89657706020453</v>
+        <v>34.19106104399865</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>22.81737848621222</v>
+        <v>6.917634088229391</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>22.92650284577839</v>
+        <v>47.28471906759561</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>22.93553340594692</v>
+        <v>50.57201596528557</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>22.94805668986285</v>
+        <v>48.96950645604046</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>22.96084331575143</v>
+        <v>52.45490359632089</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>22.97164041998145</v>
+        <v>55.82197300202469</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>22.81145775133408</v>
+        <v>13.08284152331532</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>22.89985064086441</v>
+        <v>37.21235337115525</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.93778812109912</v>
+        <v>48.8849745089384</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>22.82689580558275</v>
+        <v>10.45020499400588</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>22.88175860694846</v>
+        <v>30.34699505374168</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>22.91982945426608</v>
+        <v>34.20790997085713</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.78989435493359</v>
+        <v>1.908054090526726</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>22.87336365549639</v>
+        <v>23.59296272402078</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>22.93084418505628</v>
+        <v>37.1217523794481</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>22.7999822054438</v>
+        <v>5.43749102549571</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>22.94071538322704</v>
+        <v>45.11040565069415</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>22.81676397000675</v>
+        <v>4.972898131849981</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>22.84539279951581</v>
+        <v>14.75375105925558</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>22.86910365194906</v>
+        <v>22.39799878374095</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>22.8106253582031</v>
+        <v>-0.4761533901507988</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>22.88029331985877</v>
+        <v>27.01399163891494</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>22.90114767820334</v>
+        <v>34.52334050752533</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>22.81416477426378</v>
+        <v>1.596237716534336</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>22.90352615866813</v>
+        <v>41.97999053745467</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>22.921166383977</v>
+        <v>48.50736803520495</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>22.9063613641229</v>
+        <v>33.04243556395122</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>22.91706575829246</v>
+        <v>37.84583585724921</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>22.92793384859347</v>
+        <v>40.71993919441682</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>22.80536682543898</v>
+        <v>4.244831683597109</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>22.86744416141949</v>
+        <v>26.3758991192583</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>22.92838451631674</v>
+        <v>43.63175105601475</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>22.82108822406265</v>
+        <v>6.29881301049285</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>22.87772474196254</v>
+        <v>26.64037314307933</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>22.91453445277046</v>
+        <v>35.68964634679694</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>22.81634275940346</v>
+        <v>2.35979096295388</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.87333422502306</v>
+        <v>23.54227871461322</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>22.92728622383201</v>
+        <v>38.14183983627586</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>22.80515249324667</v>
+        <v>1.925589843022479</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>22.91272954337434</v>
+        <v>37.87852355622978</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.88151250160622</v>
+        <v>21.81083689784066</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>22.86037458665183</v>
+        <v>17.40243241312387</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.91927460838558</v>
+        <v>30.06578189188158</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22.92794074573299</v>
+        <v>34.36397645983762</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.78387474312321</v>
+        <v>3.816636522053827</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.84461430486225</v>
+        <v>12.09040408405811</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.86758530419048</v>
+        <v>20.11230401916521</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>22.8324178323604</v>
+        <v>10.35598112501422</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>22.84850053600236</v>
+        <v>20.21012015264413</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>22.8922327233545</v>
+        <v>32.68209234071032</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>22.77948436814231</v>
+        <v>1.690961632273492</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.808889428398</v>
+        <v>6.643007703182917</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.82931604225032</v>
+        <v>12.10536797224139</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.77186124254914</v>
+        <v>0.8419538739307981</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.85655051808271</v>
+        <v>16.79051967972183</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.91336457305592</v>
+        <v>32.48486375382805</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.87372722978387</v>
+        <v>20.06733679005466</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>22.95450434403802</v>
+        <v>41.4713316980482</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>22.98242044708529</v>
+        <v>43.18616097244476</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>22.76248682450303</v>
+        <v>3.065877019071888</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.83147206536589</v>
+        <v>14.62418287387444</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>22.88753949266789</v>
+        <v>24.18032815196305</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>22.9808828875193</v>
+        <v>53.56734021050558</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>22.99936097327577</v>
+        <v>51.89421661758598</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>23.03615932257345</v>
+        <v>60.38520113338788</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>23.04528671065059</v>
+        <v>60.89769414922397</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>22.84277662079511</v>
+        <v>18.7922330553648</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>23.02514563166422</v>
+        <v>54.82210501240846</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>23.03660830658251</v>
+        <v>59.87218629014156</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>22.85821152255842</v>
+        <v>19.75847484307655</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>22.9297477816434</v>
+        <v>37.23974494996537</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>22.9609931527506</v>
+        <v>43.59200571413488</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>22.80270097449672</v>
+        <v>3.926335596177005</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>22.93805592183756</v>
+        <v>39.90702926234687</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>22.96140018695348</v>
+        <v>43.55093006362569</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>22.81268724769067</v>
+        <v>6.818104039865535</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>23.01557360849306</v>
+        <v>62.44638510379821</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>23.05770317599756</v>
+        <v>65.4789584004709</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>23.1477319670474</v>
+        <v>78.80470518503105</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>23.17973767666143</v>
+        <v>82.84045191369958</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>23.19484261313451</v>
+        <v>84.44575467098872</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>22.89648463229122</v>
+        <v>31.36697274123832</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>23.12281589252191</v>
+        <v>72.93414854282534</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>23.16016232125041</v>
+        <v>77.76233894016445</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>22.99731334465624</v>
+        <v>60.29904164404853</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>22.96641854395481</v>
+        <v>44.65383425666001</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>22.98959382841806</v>
+        <v>51.36747901675139</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>23.02904630665903</v>
+        <v>59.8138485428039</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>22.79682534111222</v>
+        <v>10.52748572667599</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>22.99244249229659</v>
+        <v>51.78488884333726</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>23.02785101309338</v>
+        <v>59.3812477748186</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>22.83041686284076</v>
+        <v>13.73544631154562</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>22.90915083444972</v>
+        <v>35.01572600904184</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>22.95393025257707</v>
+        <v>42.58810471317103</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>22.78376916356562</v>
+        <v>2.491771364912047</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>22.92623966241591</v>
+        <v>37.10064627538289</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>22.97001201943727</v>
+        <v>46.91384978293306</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.80582213070722</v>
+        <v>6.861360743352968</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>23.01382069069273</v>
+        <v>63.9532283551146</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>23.07548448326106</v>
+        <v>71.72609459411601</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>23.13003330842829</v>
+        <v>79.44613431278665</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>23.15010143233913</v>
+        <v>80.74260390666515</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.20028485137754</v>
+        <v>88.02553570566087</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>22.83150550783514</v>
+        <v>18.84181129675482</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>23.08802669461625</v>
+        <v>68.74511549418116</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>23.15856055642295</v>
+        <v>81.96689542815274</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>22.96696074190216</v>
+        <v>58.06196636949709</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.8979014537301</v>
+        <v>25.37756932203343</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>22.92539015256788</v>
+        <v>32.52502221719121</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>22.9662291536299</v>
+        <v>45.08139834689287</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>22.80386056229306</v>
+        <v>5.144868550857744</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>22.956847240675</v>
+        <v>47.82972626634249</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>22.99582098678921</v>
+        <v>59.14144807113814</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>22.81904862974449</v>
+        <v>8.879581960322703</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>22.89811986363612</v>
+        <v>33.00323522958443</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>22.95332666971633</v>
+        <v>45.68486071115052</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>22.81208429641046</v>
+        <v>2.72678607343498</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>22.90913910247137</v>
+        <v>34.14853277955906</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>22.96848642222289</v>
+        <v>49.01877423425928</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>22.80115334249421</v>
+        <v>1.93379964003562</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>22.96260771317245</v>
+        <v>52.75684424176394</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>23.03974362244743</v>
+        <v>71.61436592450792</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>23.02079872465656</v>
+        <v>59.76735252242182</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>23.06323891744345</v>
+        <v>69.59829128336027</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>23.1402516563634</v>
+        <v>87.72445787062119</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>22.80600841612708</v>
+        <v>6.16891015029508</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>23.01212927771691</v>
+        <v>52.0796318558635</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>23.10889976655226</v>
+        <v>78.03211474979439</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.83413528004185</v>
+        <v>14.20465300247924</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>22.85508557646166</v>
+        <v>17.00383689159505</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.89884743142313</v>
+        <v>31.12504998915117</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>22.80683142663605</v>
+        <v>0.816249012902837</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>22.876084479685</v>
+        <v>24.79778530665932</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.89249782320235</v>
+        <v>27.48699475821777</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>22.83106009727881</v>
+        <v>7.78866756212603</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.92759396361521</v>
+        <v>42.84023124441406</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>22.94527071085544</v>
+        <v>47.27388891787633</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.88821643558471</v>
+        <v>22.04835049190726</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>22.91605183312285</v>
+        <v>31.22826449200946</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>22.92017388365826</v>
+        <v>31.02004851757335</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>22.8497908555345</v>
+        <v>18.40657496566289</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>22.87119550217705</v>
+        <v>19.66088613858549</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>22.95679877040013</v>
+        <v>45.88174189805433</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>22.82136040482606</v>
+        <v>11.77914861890786</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>22.87106985034013</v>
+        <v>26.23732176625557</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>22.88853546876252</v>
+        <v>30.3834923718737</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.75269718750643</v>
+        <v>-3.394117416769394</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>22.82146434952354</v>
+        <v>10.11694843669668</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.82905193651009</v>
+        <v>13.95561060985117</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>22.77494524105144</v>
+        <v>-0.2660807387224509</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>22.89074718567047</v>
+        <v>28.16918315808878</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>22.83473125924465</v>
+        <v>14.94497760404487</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>22.87307618841125</v>
+        <v>21.79334672606252</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>22.90021953556284</v>
+        <v>30.46745319512176</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>22.8009983794434</v>
+        <v>0.5116190830382124</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.91704061690975</v>
+        <v>34.23762851185648</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>22.92332858278134</v>
+        <v>34.31295477475267</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>22.82345828593904</v>
+        <v>7.205730547090234</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.96594377373705</v>
+        <v>50.21026869070117</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.96930860433732</v>
+        <v>52.34821260847171</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>22.98345644395405</v>
+        <v>49.19035175429249</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>23.00493151423324</v>
+        <v>55.48422475933292</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>23.01264508813091</v>
+        <v>55.64983121743354</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.86767820747544</v>
+        <v>22.21807389476298</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>22.96737700822425</v>
+        <v>42.50017784027836</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>23.01134116200167</v>
+        <v>54.75480662686266</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>22.83980106244179</v>
+        <v>15.45047729572193</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>22.91977198261953</v>
+        <v>33.08616436242342</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>22.9303246136052</v>
+        <v>35.8898123678964</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>22.76536126141696</v>
+        <v>-1.264112277254817</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.90841578984763</v>
+        <v>33.28642951605185</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>22.91779852247052</v>
+        <v>35.40370672453906</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>22.7988121300348</v>
+        <v>2.14789570044482</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>22.99664391358426</v>
+        <v>53.01704243627403</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>22.81336475966936</v>
+        <v>5.630303459901601</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.85091105863111</v>
+        <v>16.27743097306308</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>22.88135373626396</v>
+        <v>27.19910731772675</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>22.78830551589088</v>
+        <v>-0.8519085304489842</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.89984603115487</v>
+        <v>32.57416503948347</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>22.91503707706563</v>
+        <v>34.94661273424988</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>22.81812524146988</v>
+        <v>6.765624909600518</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>22.9543450001418</v>
+        <v>49.82478369452254</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>22.96697899283835</v>
+        <v>55.41808144730805</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>22.98423729654034</v>
+        <v>53.89114394114821</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>22.99396434102566</v>
+        <v>57.35345277428444</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>23.02453963693896</v>
+        <v>62.99143446599335</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.81740707372069</v>
+        <v>11.54331934110579</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>22.92176846176888</v>
+        <v>34.96102108365636</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>22.97110985361616</v>
+        <v>47.32031187957147</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>22.81194424081562</v>
+        <v>9.055382747749217</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>22.8859971204264</v>
+        <v>29.20642942926571</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>22.91084888850863</v>
+        <v>33.88286239470146</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>22.74583970926186</v>
+        <v>-2.419883965867974</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>22.88179394358586</v>
+        <v>27.3628899875011</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.91034697365603</v>
+        <v>36.96785398033916</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>22.79042706278932</v>
+        <v>2.223608705875492</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>22.97723875405672</v>
+        <v>48.70536334890552</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>22.8030858503473</v>
+        <v>2.0965010018637</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>22.84430257860069</v>
+        <v>12.01377144558595</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>22.88149752085115</v>
+        <v>27.28615200099847</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>22.80261438931987</v>
+        <v>-1.602843015440499</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>22.88988994805631</v>
+        <v>32.24591048618959</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>22.91989857049873</v>
+        <v>37.82889764158558</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.81695184472361</v>
+        <v>0.4396270981816031</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>22.93130339572429</v>
+        <v>46.21556475971115</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>22.9548037097247</v>
+        <v>55.58466604691748</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>22.95319978362079</v>
+        <v>47.7999214625379</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>22.96768251694944</v>
+        <v>54.02512622281941</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.98472649612859</v>
+        <v>61.04621273623999</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>22.81678470428278</v>
+        <v>5.206703811609184</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>22.89710198134226</v>
+        <v>28.85266647850276</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>22.97373388127137</v>
+        <v>51.65838372340237</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>22.79410749618724</v>
+        <v>5.520290029898845</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.86808676376067</v>
+        <v>25.89789539734322</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>22.89446086702009</v>
+        <v>32.35758748481282</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>22.75948701763777</v>
+        <v>-3.017969950431421</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.85893356609495</v>
+        <v>23.28650229438735</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>22.89241464380297</v>
+        <v>32.18062513865987</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>22.7819114481304</v>
+        <v>-1.502502372652433</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>22.92711257272624</v>
+        <v>38.93236847594181</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.90305079015396</v>
+        <v>31.25788642301928</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.87322655088683</v>
+        <v>21.69222915166445</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>22.93132407782693</v>
+        <v>39.66185913978585</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>22.93205527098604</v>
+        <v>39.52435532927055</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>22.80542828921429</v>
+        <v>8.709528102199897</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.86349582535336</v>
+        <v>19.42824561868983</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>22.90794498279513</v>
+        <v>28.04567869927327</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>22.83025997137771</v>
+        <v>11.69069335469455</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>22.87147081685795</v>
+        <v>24.89807021712281</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.92817470270147</v>
+        <v>38.22142117444447</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>22.73693505875646</v>
+        <v>-3.065461137517207</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>22.82103001345013</v>
+        <v>9.369127203908269</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>22.84941752305681</v>
+        <v>18.70351126373203</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>22.77254248356534</v>
+        <v>0.6885697852692765</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>22.91665776547043</v>
+        <v>29.56830049484953</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>22.97688839446583</v>
+        <v>49.46336255999246</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>22.90524844218836</v>
+        <v>26.57395878271708</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>22.98755809901459</v>
+        <v>46.24586953430865</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>23.02174487337165</v>
+        <v>54.88509261531351</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>22.79293014347068</v>
+        <v>6.65718482388408</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.90253594515759</v>
+        <v>26.41558600377235</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>22.96576687063596</v>
+        <v>41.47928906228791</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>23.00980220833035</v>
+        <v>58.55188125554201</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>23.02343314664096</v>
+        <v>55.57084771828325</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>23.0536339831324</v>
+        <v>63.00786848891509</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>23.05973497268004</v>
+        <v>61.56186167297839</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>22.85983845294075</v>
+        <v>21.70405399596158</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>23.0504018052863</v>
+        <v>57.71900974720001</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>23.06293043537715</v>
+        <v>60.60343276639256</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>22.85122051271315</v>
+        <v>19.8819273088676</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>22.94706441573376</v>
+        <v>37.77738753752618</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>22.98076900308038</v>
+        <v>45.1371066272364</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>22.75883816950184</v>
+        <v>-0.2761752218856728</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>22.96225890517335</v>
+        <v>44.33447257467231</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>22.97356932359464</v>
+        <v>45.35314477795855</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>22.80388255560994</v>
+        <v>5.770384555427718</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>23.07208821868254</v>
+        <v>66.10650161873558</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>23.10453588842093</v>
+        <v>71.56080879886503</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>23.16848420713535</v>
+        <v>75.85167670978257</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>23.19451076910945</v>
+        <v>79.92374105618592</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>23.22504525823035</v>
+        <v>85.63701210147067</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>22.90522559831833</v>
+        <v>28.51708617701011</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>23.18349695269296</v>
+        <v>78.19558733805414</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>23.19741426228975</v>
+        <v>80.05781982364616</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>23.01380988260236</v>
+        <v>60.97524723294831</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.98589685882644</v>
+        <v>49.35054637084857</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>22.99898879062661</v>
+        <v>53.25184526014437</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>23.04030583300764</v>
+        <v>59.8817810604147</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>22.80338295845342</v>
+        <v>11.16203006147444</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>23.00621695326972</v>
+        <v>51.08262351676612</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>23.03693169804615</v>
+        <v>57.31668141639367</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>22.81387979528199</v>
+        <v>12.23811422426582</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>22.91359928355933</v>
+        <v>34.45942058131947</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>22.95913750260634</v>
+        <v>43.41802153137284</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>22.73087409845975</v>
+        <v>-2.792363817909916</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>22.93880260127927</v>
+        <v>40.0388538385126</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>22.96624122432193</v>
+        <v>45.7087133790757</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>22.78767637825163</v>
+        <v>4.675405317639438</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>23.05546590896217</v>
+        <v>64.99259923263557</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>23.10640958222085</v>
+        <v>74.62424932667739</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>23.14526568484368</v>
+        <v>74.8836673978666</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>23.15777985349899</v>
+        <v>79.64407400457527</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>23.22792642027663</v>
+        <v>88.78967400602482</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.82737602930451</v>
+        <v>14.38454397521292</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>23.13870019409483</v>
+        <v>75.56198904203771</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>23.17629008331303</v>
+        <v>81.42736454023876</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>22.96603811149126</v>
+        <v>53.82874802225213</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>22.89708790938486</v>
+        <v>28.44272111118488</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>22.92204366903163</v>
+        <v>34.61817721062154</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>22.9490726481303</v>
+        <v>40.96995251488288</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>22.79467494818066</v>
+        <v>5.885139576625043</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>22.95465703470353</v>
+        <v>42.51845852222324</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>22.99148415320699</v>
+        <v>50.78807980425564</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>22.80655053068465</v>
+        <v>6.486314554209116</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>22.9093391205137</v>
+        <v>33.4020375850483</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>22.96481869144193</v>
+        <v>45.16644166139574</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>22.76575741612941</v>
+        <v>-2.565418604237752</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>22.92139762015761</v>
+        <v>38.03931327961578</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>22.96960995973771</v>
+        <v>45.87100306506555</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>22.79136600695671</v>
+        <v>0.3553093164576495</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.00615601246855</v>
+        <v>59.72142986688292</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>23.07529331919711</v>
+        <v>74.59384688039054</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>23.04913057715022</v>
+        <v>63.2904602974459</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>23.09496042056715</v>
+        <v>76.63839722946521</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>23.1669414984743</v>
+        <v>87.70382193814177</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>22.81042493329358</v>
+        <v>7.567037208502825</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>23.0768615742253</v>
+        <v>70.64459743631332</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>23.14533524667628</v>
+        <v>82.53086442727316</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>22.82172349008668</v>
+        <v>8.055252876124531</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>22.82599299141479</v>
+        <v>10.10028283006669</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.86820698607004</v>
+        <v>22.10330986587724</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>22.78509785307341</v>
+        <v>-1.223050802131883</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>22.82711671774175</v>
+        <v>13.04165879727672</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>22.84293095491773</v>
+        <v>14.86765292430806</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>22.80534698429124</v>
+        <v>2.882240005951957</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.88195945735536</v>
+        <v>27.7954319341388</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>22.89987793644499</v>
+        <v>32.26285777604551</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>22.84738177239648</v>
+        <v>13.67300979308574</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.87339268964622</v>
+        <v>22.92547544523501</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>22.88126357900397</v>
+        <v>23.19023735359049</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>22.81554272943849</v>
+        <v>11.5007569787423</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>22.835028056029</v>
+        <v>11.75421828093629</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>22.89303512264399</v>
+        <v>29.95923436806667</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>22.82046127296869</v>
+        <v>11.62368348215953</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>22.88097695632009</v>
+        <v>26.92275157847757</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>22.89780547463568</v>
+        <v>32.01985078442352</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>22.74938271494804</v>
+        <v>-2.848686081389225</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>22.82015616507988</v>
+        <v>9.896289325930292</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.82867458919754</v>
+        <v>15.82818314150021</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>22.76895729302549</v>
+        <v>-0.03252212140421307</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>22.8976600043441</v>
+        <v>30.20240673958383</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>22.82618396747206</v>
+        <v>10.41661244653378</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>22.85118670443607</v>
+        <v>17.32507251303116</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.87566132278548</v>
+        <v>23.52270640972901</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>22.7882240023118</v>
+        <v>-0.4265660262796729</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.88026576473078</v>
+        <v>27.18538040636638</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>22.88532475830274</v>
+        <v>26.8220527570811</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>22.80321818641189</v>
+        <v>3.971414922976976</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.92986475699203</v>
+        <v>40.748817651838</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>22.93191170113544</v>
+        <v>41.87183510940113</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.94795029698971</v>
+        <v>40.81449518473967</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>22.96655535722651</v>
+        <v>48.17088785142336</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>22.97942439915633</v>
+        <v>49.31596339547271</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>22.83399714618772</v>
+        <v>14.25532387847481</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>22.93610230918466</v>
+        <v>34.39859731089027</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>22.95330454168411</v>
+        <v>41.54121963047712</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>22.83830804662234</v>
+        <v>15.30400644287262</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>22.93742651822497</v>
+        <v>34.96781621646423</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>22.94383522801694</v>
+        <v>37.53884206994594</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>22.76839786499576</v>
+        <v>-1.234752435870462</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.92237829207971</v>
+        <v>35.9662543375143</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>22.92948214396184</v>
+        <v>38.3171561200805</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>22.79469791529807</v>
+        <v>1.060491140759922</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>23.01533567670874</v>
+        <v>56.85267903466931</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>22.81295810969186</v>
+        <v>2.702185187129697</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>22.83790122479546</v>
+        <v>12.31554756349947</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>22.86560866446687</v>
+        <v>20.96829777099804</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>22.78547606027738</v>
+        <v>-1.636110289414368</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.87422113560629</v>
+        <v>25.1913165965021</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>22.88818030199707</v>
+        <v>27.14753683924152</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.8078351786461</v>
+        <v>5.410702783476211</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>22.92913601792887</v>
+        <v>41.83736731495545</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>22.94025541614156</v>
+        <v>46.21826461663338</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>22.96019169468238</v>
+        <v>45.86504762894521</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>22.9674442601908</v>
+        <v>49.81440432537246</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>23.00324009100813</v>
+        <v>56.97867011267017</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.79537707201031</v>
+        <v>5.505550454336387</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>22.90199813715004</v>
+        <v>27.11167971907113</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>22.92626942349536</v>
+        <v>34.93811397619957</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>22.82201329355175</v>
+        <v>10.53188746912999</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>22.9158009760093</v>
+        <v>33.4547291851832</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>22.93564345039402</v>
+        <v>37.14491765364883</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>22.7633086404331</v>
+        <v>-1.508975107645202</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>22.91133051820532</v>
+        <v>31.8369946431168</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>22.93670163842717</v>
+        <v>40.44559045106137</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>22.80044832096956</v>
+        <v>3.281740313941683</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>23.01072234609465</v>
+        <v>55.52421567275471</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>22.80203617220901</v>
+        <v>0.8308568021338907</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>22.83006682263589</v>
+        <v>7.895309713933553</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.8658659239418</v>
+        <v>22.67040666537303</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>22.79521396184864</v>
+        <v>-1.915797560225386</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.86024247872532</v>
+        <v>21.44168935829761</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>22.89022548939434</v>
+        <v>29.58591059683003</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>22.80458421352733</v>
+        <v>-0.6805925089124898</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>22.90315558903724</v>
+        <v>33.8703949375271</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>22.92667380842289</v>
+        <v>45.22360355009803</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>22.92659655262314</v>
+        <v>37.98272471262025</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>22.94080847200585</v>
+        <v>43.89475194863918</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>22.96311172379924</v>
+        <v>53.87831315790132</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>22.79627453602841</v>
+        <v>2.70791135202191</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.87556149345806</v>
+        <v>21.78547408287255</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>22.92959005468963</v>
+        <v>39.74766257303109</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>22.80510531243669</v>
+        <v>6.979879943652584</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.89223989807633</v>
+        <v>30.03922179100852</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>22.91635322119512</v>
+        <v>35.67440504781513</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.77262411401275</v>
+        <v>-2.144591533398973</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>22.87803150658611</v>
+        <v>26.77407194977168</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>22.91099488466278</v>
+        <v>35.29371222145474</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>22.79011150731932</v>
+        <v>-0.8382425461848726</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>22.95081011204143</v>
+        <v>44.17810222146954</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>22.91028997799542</v>
+        <v>34.99196216508691</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.89500996224512</v>
+        <v>24.18266247133741</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>22.95919179754089</v>
+        <v>43.10493824342795</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>22.95350095346123</v>
+        <v>42.92960264742822</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>22.80386268316093</v>
+        <v>9.181068161459532</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>22.89013862763374</v>
+        <v>23.76694812540295</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>22.92384205816774</v>
+        <v>33.81225240342215</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>22.82226311097735</v>
+        <v>13.12461472231476</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>22.87555183396082</v>
+        <v>26.75689114501107</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.93090520238253</v>
+        <v>41.48061770527968</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>22.7229031581503</v>
+        <v>-3.43076989943868</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>22.81124780968281</v>
+        <v>8.27484963745421</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>22.83899650848798</v>
+        <v>15.86226520433478</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>22.75410168782182</v>
+        <v>-0.380402223702994</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>22.91329749808822</v>
+        <v>30.24819607289779</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>22.97065337417494</v>
+        <v>49.79741762814233</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>22.92226458593057</v>
+        <v>29.69916161032412</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>23.01988130674155</v>
+        <v>51.79557873075057</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>23.02618937935997</v>
+        <v>57.41280348442915</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>22.77511778779711</v>
+        <v>5.647043151625269</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.92055617973949</v>
+        <v>27.48902177255445</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>22.97539732860242</v>
+        <v>42.2306684974287</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>23.02450740329699</v>
+        <v>61.58524575330246</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>23.05297746802141</v>
+        <v>58.89168103297106</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>23.08849054019003</v>
+        <v>66.87291490925124</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>23.08637277956442</v>
+        <v>64.26052340581322</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>22.85681987242155</v>
+        <v>20.05867110335618</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>23.08569471574307</v>
+        <v>61.99499118355311</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>23.08749595276103</v>
+        <v>65.28769590444705</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>22.84660999125379</v>
+        <v>20.0413180220263</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>22.96521192645689</v>
+        <v>39.60628112079495</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>22.99339324716899</v>
+        <v>48.10855712006482</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>22.75918856496591</v>
+        <v>-0.5584677748505982</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>22.97855722104266</v>
+        <v>49.04304426011803</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>22.98522250896112</v>
+        <v>48.12274099589667</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>22.79429067000564</v>
+        <v>3.830009095686552</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>23.09015494633306</v>
+        <v>71.15468454931833</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>23.11448015054791</v>
+        <v>75.17484305479699</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>23.20289087260838</v>
+        <v>81.36896967081628</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>23.24475305572856</v>
+        <v>86.71423767309977</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>23.24375692464238</v>
+        <v>87.78351939769254</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>22.89429433305892</v>
+        <v>27.11674357893887</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>23.22275029115848</v>
+        <v>83.68878290423325</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>23.22773985051948</v>
+        <v>85.72879743490708</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>23.04226724659763</v>
+        <v>66.18751257932291</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>23.03203078741877</v>
+        <v>55.35356536504793</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>23.05106009769042</v>
+        <v>60.85378757031231</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>23.08358624833419</v>
+        <v>65.33421918517206</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>22.81742265513572</v>
+        <v>12.04215956147232</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>23.05844625314551</v>
+        <v>58.55501714238026</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>23.07883308216132</v>
+        <v>64.23385818303015</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>22.82072469123072</v>
+        <v>13.2608970972318</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>22.94422274081737</v>
+        <v>37.41643510541657</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>22.98310846846205</v>
+        <v>47.04986370720319</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>22.74660493689718</v>
+        <v>-2.787407111924917</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>22.97206600696435</v>
+        <v>45.62230687831828</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>22.99367158817454</v>
+        <v>48.88106505794815</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>22.7931667021856</v>
+        <v>4.315507390442789</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>23.08970146445584</v>
+        <v>72.34298971538051</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>23.13130559153004</v>
+        <v>79.92282533800824</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>23.19728241898815</v>
+        <v>82.62572864662847</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>23.22641897097078</v>
+        <v>88.68154222775502</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>23.26461567165034</v>
+        <v>92.08566272521898</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.83485374520163</v>
+        <v>14.51597537153655</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>23.1971209304292</v>
+        <v>83.9093214197772</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>23.22563980093105</v>
+        <v>89.02162780938411</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>22.98797019740024</v>
+        <v>58.36512670848554</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>22.93326950040115</v>
+        <v>34.88995576548162</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>22.96582307169583</v>
+        <v>42.43669966063942</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>22.98762537740105</v>
+        <v>48.72489618597766</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>22.80786459846669</v>
+        <v>8.26550644094683</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.99598843487335</v>
+        <v>49.96887159711876</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>23.02337039894358</v>
+        <v>56.25600202767021</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>22.80862571375194</v>
+        <v>6.958487601860753</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>22.92698252292893</v>
+        <v>35.35812996380729</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>22.97896219743261</v>
+        <v>47.55327543815885</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>22.76895063888046</v>
+        <v>-2.163247926665193</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>22.933967545358</v>
+        <v>41.74046662257577</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>22.97964606382841</v>
+        <v>47.56384675197827</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>22.78787146379727</v>
+        <v>0.4124831883052948</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>23.02148647732973</v>
+        <v>64.79930569851294</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>23.08541159902076</v>
+        <v>78.03116097999659</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>23.08072452914351</v>
+        <v>70.41182285603298</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>23.14334441869568</v>
+        <v>84.66319248797248</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>23.18995325767717</v>
+        <v>92.74174560227749</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>22.80901676331482</v>
+        <v>9.068653563805626</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>23.11310917950895</v>
+        <v>78.11590205059291</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>23.17330319882815</v>
+        <v>87.50951838230324</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>22.83819698395927</v>
+        <v>10.56701043970441</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>22.83476188029332</v>
+        <v>12.39576232552573</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.85431048140057</v>
+        <v>22.66070593019448</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.81531599969253</v>
+        <v>1.766493448008504</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.85414733439548</v>
+        <v>16.03168861628618</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.85243370237955</v>
+        <v>20.48840006391303</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.81779174810203</v>
+        <v>6.11874881309889</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.866111983162</v>
+        <v>24.38941767485424</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.86809157675448</v>
+        <v>28.38159968690884</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.81255307915745</v>
+        <v>12.01001448946532</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.82997622754857</v>
+        <v>15.14408172737323</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.82929338137384</v>
+        <v>13.87965735249596</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.82257981502031</v>
+        <v>10.53526276350992</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.80992706987783</v>
+        <v>9.538388251328973</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.85863090602375</v>
+        <v>22.63873630790106</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.8325542834794</v>
+        <v>8.934823259154197</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>22.83543809113381</v>
+        <v>15.6805631154602</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.85099154294199</v>
+        <v>24.68124427104572</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>22.82106057594005</v>
+        <v>9.392653742308383</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>22.81462441750734</v>
+        <v>10.33142380079934</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>22.82828858947587</v>
+        <v>14.45148494255243</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>22.78171074371403</v>
+        <v>2.327919973107015</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>22.81599905212957</v>
+        <v>8.749573631431732</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>22.8414851076957</v>
+        <v>15.33179113643277</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.85337198327526</v>
+        <v>23.46921824923845</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.86113079015378</v>
+        <v>25.67176982124683</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>22.80755023931573</v>
+        <v>1.731515311417208</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.8851130809784</v>
+        <v>28.5848904077713</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.88254448628987</v>
+        <v>29.92940039936536</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.81490855631331</v>
+        <v>5.77091383150276</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.9046608549721</v>
+        <v>38.51162456427025</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.89799312897728</v>
+        <v>37.94355988903822</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.90965183437671</v>
+        <v>37.66334102576569</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>22.9263752226492</v>
+        <v>42.40418171939321</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>22.92605743478334</v>
+        <v>43.18075781009979</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.85968531593567</v>
+        <v>20.61298395933762</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>22.91007415397296</v>
+        <v>37.05531263854085</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>22.93786702252461</v>
+        <v>44.29615821908504</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>22.82654833120734</v>
+        <v>12.80161508612175</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>22.84942946228546</v>
+        <v>20.96774307313634</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>22.865319948688</v>
+        <v>24.54538790392099</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>22.80280863358248</v>
+        <v>8.474417941774714</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>22.84734264513214</v>
+        <v>21.49834539539813</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.87840103848134</v>
+        <v>26.93775671446186</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>22.8793119669612</v>
+        <v>29.5756619798717</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>22.83702056005554</v>
+        <v>10.73488847931461</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.85332302720449</v>
+        <v>21.9734960697018</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>22.86307699061568</v>
+        <v>26.09638670829175</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>22.8102796331424</v>
+        <v>1.948928940307169</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>22.88833219332207</v>
+        <v>28.97432364116172</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.89397900494857</v>
+        <v>33.01347777591579</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>22.82599199161762</v>
+        <v>8.221731306720169</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>22.91656597169514</v>
+        <v>42.98677181892951</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>22.91707317804304</v>
+        <v>44.91980938571623</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>22.92716387237119</v>
+        <v>41.39724692459541</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.93416259143187</v>
+        <v>43.10711651205001</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.95218970830355</v>
+        <v>47.22826555708463</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.83259773389519</v>
+        <v>14.89169884845843</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>22.89088764691765</v>
+        <v>34.38667402593723</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>22.92763367647282</v>
+        <v>43.91543336555227</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.81793468356282</v>
+        <v>10.72164097042278</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>22.84017535493382</v>
+        <v>21.25698690098074</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.86667092307039</v>
+        <v>24.82622335833885</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>22.79832550298239</v>
+        <v>9.133329333982523</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>22.84055307867594</v>
+        <v>19.94037141986983</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>22.88880661736225</v>
+        <v>30.34656187506128</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>22.78759323103054</v>
+        <v>6.553292377591632</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>22.88523574710586</v>
+        <v>32.29623634992008</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.81872294887742</v>
+        <v>5.155258709163519</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>22.84185648624284</v>
+        <v>13.61246911975384</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.85677468287241</v>
+        <v>19.87781260844076</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>22.81564976870839</v>
+        <v>1.596461244847998</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>22.8756707742916</v>
+        <v>24.3212517596233</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.89056630616042</v>
+        <v>31.17921906705845</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>22.81280107803947</v>
+        <v>1.113183328009313</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>22.88939124179803</v>
+        <v>34.54760670562379</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>22.89734129330419</v>
+        <v>39.17565653562767</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>22.88326883367986</v>
+        <v>25.90996971853973</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>22.88852232135365</v>
+        <v>28.59454047021839</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>22.90173231793494</v>
+        <v>31.88454637425304</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>22.81346438263389</v>
+        <v>6.012635661576482</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.85405308329314</v>
+        <v>22.55149490461199</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>22.91138382505508</v>
+        <v>37.54849704191414</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>22.8133037129631</v>
+        <v>6.457614165440674</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>22.84784694186265</v>
+        <v>19.00671447827612</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>22.87114215074661</v>
+        <v>24.66106540048556</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>22.82103157480759</v>
+        <v>8.500171035164808</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.84837822182347</v>
+        <v>20.88775267399064</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>22.89108269563344</v>
+        <v>29.36268902672795</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>22.79250127366882</v>
+        <v>2.292923893488066</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>22.86942716559584</v>
+        <v>26.770855362366</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.83284203488918</v>
+        <v>13.7579261935248</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>22.80895174601591</v>
+        <v>11.03765317520939</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.86553455956796</v>
+        <v>24.76315783579531</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.87433127071195</v>
+        <v>29.70013584153068</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>22.78569016121286</v>
+        <v>4.121219113896913</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.79445013334987</v>
+        <v>7.271027950481354</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>22.81097162823813</v>
+        <v>11.82087476039981</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>22.83804882854508</v>
+        <v>10.50366959108559</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>22.83033443422262</v>
+        <v>16.76340577150731</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.86858014057896</v>
+        <v>28.95324654781738</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>22.80749480540594</v>
+        <v>8.653800666898899</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.80469602708811</v>
+        <v>9.595202111812066</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.82249596910819</v>
+        <v>14.47201152984177</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.77885879396763</v>
+        <v>2.355077577864741</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.83082681088845</v>
+        <v>13.01336880585999</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.88263406364621</v>
+        <v>31.08482154904503</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.83044003155052</v>
+        <v>12.73260059799874</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.90902264694673</v>
+        <v>36.3999023467405</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.93746724223134</v>
+        <v>39.04650112958215</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.7740077732928</v>
+        <v>5.1282669999995</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>22.78622269596228</v>
+        <v>10.06142967750226</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>22.84101855325837</v>
+        <v>19.46622259571486</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>22.90509435165082</v>
+        <v>38.41703802453797</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>22.90897422727087</v>
+        <v>35.04056090060351</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>22.94148206391056</v>
+        <v>43.97364500274099</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>22.95586975821888</v>
+        <v>46.93572444191803</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>22.82403914162647</v>
+        <v>16.58400903812298</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>22.93168040222432</v>
+        <v>37.46040568528662</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>22.93961186037992</v>
+        <v>40.22198368225362</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.85469888555464</v>
+        <v>20.23532518101131</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>22.88917700023334</v>
+        <v>28.415764219284</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>22.91577579767724</v>
+        <v>36.93494809079878</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>22.81737383778328</v>
+        <v>9.554577405272445</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>22.9071613317384</v>
+        <v>33.74075130820515</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>22.92729272012681</v>
+        <v>38.64013639978789</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>22.80451658193975</v>
+        <v>7.345398989548976</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>22.96033395601216</v>
+        <v>48.42910553282312</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>22.99857403460025</v>
+        <v>57.80491308897194</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>23.06481985695807</v>
+        <v>62.08669419871518</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>23.09357951603295</v>
+        <v>70.50093214801029</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>23.11571138861679</v>
+        <v>75.76729523884094</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>22.88731073348739</v>
+        <v>31.08473334354136</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>23.03106225447323</v>
+        <v>57.19290424136529</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>23.069280176518</v>
+        <v>63.01301534071348</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>22.92965779522238</v>
+        <v>45.20820606895644</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>22.88843952102224</v>
+        <v>30.15254349609188</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>22.90524075050606</v>
+        <v>35.94025085484565</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>22.94850405261269</v>
+        <v>45.6766444452219</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>22.79234988370034</v>
+        <v>11.96120030576315</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>22.91176460454117</v>
+        <v>36.44937050991697</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>22.93997464232376</v>
+        <v>40.49973989836278</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>22.83896135069664</v>
+        <v>17.11918797776059</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>22.88041825096402</v>
+        <v>28.44639875719607</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>22.9172911606641</v>
+        <v>37.31054679676632</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>22.80751506860819</v>
+        <v>9.392255073482419</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>22.90456102495641</v>
+        <v>32.2142099161739</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>22.94124101411547</v>
+        <v>41.7631293519765</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>22.8075997852927</v>
+        <v>9.386460614850407</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.96874239121709</v>
+        <v>51.58085013539842</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>23.02304429139713</v>
+        <v>64.18311583113027</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>23.05861670539236</v>
+        <v>63.44543516707493</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>23.07336439711668</v>
+        <v>68.12347580390556</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>23.12893412142066</v>
+        <v>78.58627376138791</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>22.83645456608344</v>
+        <v>21.72400020258014</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>23.00815266698612</v>
+        <v>53.94704770818397</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>23.07516765458284</v>
+        <v>66.61031223481791</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>22.90936014513154</v>
+        <v>40.49028446217969</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.8379519258509</v>
+        <v>15.75544427438508</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>22.85977640521315</v>
+        <v>21.75661327938454</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>22.89734186869633</v>
+        <v>33.37329835660552</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>22.79901878260174</v>
+        <v>7.018392611214846</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>22.89558833760973</v>
+        <v>34.76972615810396</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>22.92303682256346</v>
+        <v>40.31582505503917</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>22.82492578502242</v>
+        <v>12.08244231250087</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>22.87844222501626</v>
+        <v>27.5779122410426</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>22.92298998923488</v>
+        <v>39.97237149021714</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>22.82753006336016</v>
+        <v>9.848514633568399</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.89160962733625</v>
+        <v>30.67032963043577</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>22.9416359070985</v>
+        <v>44.52938116986863</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>22.79834306967324</v>
+        <v>4.207254178782215</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>22.92644675340225</v>
+        <v>42.60135041125746</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>22.99306923520555</v>
+        <v>63.18550165030286</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>22.96321430113546</v>
+        <v>47.44598783122103</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>23.00039362767387</v>
+        <v>58.41148665461925</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>23.07359050505758</v>
+        <v>76.49541564763192</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>22.80655913975907</v>
+        <v>10.30783377070151</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>22.94944411922162</v>
+        <v>38.88369151413031</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>23.03816747053019</v>
+        <v>63.68005177299178</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>22.83897550092975</v>
+        <v>11.08737039130963</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>22.83175247094048</v>
+        <v>13.10675685181605</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.86158706323465</v>
+        <v>24.78053319245091</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>22.81109913463228</v>
+        <v>3.827048345909056</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>22.8525992395669</v>
+        <v>20.7561337188227</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>22.85630617674296</v>
+        <v>25.81768962259835</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>22.81406134155225</v>
+        <v>6.796776164775629</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>22.86929561722326</v>
+        <v>27.96482158989746</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>22.87920844922962</v>
+        <v>32.16695818005165</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>22.8178606357605</v>
+        <v>13.37382395663592</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>22.83850915893967</v>
+        <v>17.72656553222487</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>22.84263058973351</v>
+        <v>15.65324035065575</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>22.82153200624613</v>
+        <v>11.8241178534468</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>22.81386963073466</v>
+        <v>10.61925823642932</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>22.86490859202183</v>
+        <v>26.00346668609789</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>22.84416169909391</v>
+        <v>13.22537541220053</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.8656077284644</v>
+        <v>22.05476984715548</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>22.89002751245507</v>
+        <v>31.43352644462614</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>22.82074542340981</v>
+        <v>11.8849942097196</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.84255786552519</v>
+        <v>17.06088269203729</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.85770243534121</v>
+        <v>20.72688517266236</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.79018734829926</v>
+        <v>3.858487006706039</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.85962632913909</v>
+        <v>18.17913582981643</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.84112831853221</v>
+        <v>15.35701303132129</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.8518356331902</v>
+        <v>22.85929644362819</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>22.8671001081505</v>
+        <v>25.63384540874871</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>22.80220462856383</v>
+        <v>3.182203746249904</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.88629927383302</v>
+        <v>31.92912519330854</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.88561229883287</v>
+        <v>33.2296206505634</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>22.80870115569319</v>
+        <v>5.843920933329162</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.90882763994414</v>
+        <v>39.79299682450005</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.90672471365837</v>
+        <v>39.271825294986</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>22.91552751350905</v>
+        <v>39.04376715994212</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>22.93009389224878</v>
+        <v>42.99750829514088</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>22.93363311978064</v>
+        <v>42.94773139328453</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.85227036425172</v>
+        <v>20.37065465926035</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>22.91451471816994</v>
+        <v>36.33727963744023</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>22.93901868904093</v>
+        <v>43.95573963599622</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>22.85097164703398</v>
+        <v>17.59374454909827</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>22.89841714651078</v>
+        <v>28.53817558619434</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>22.91746605118125</v>
+        <v>30.4476694234361</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>22.81651844712933</v>
+        <v>11.87224924198284</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>22.89731344971382</v>
+        <v>31.8444836001518</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>22.92281228982389</v>
+        <v>34.896139809104</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>22.94269542286271</v>
+        <v>42.04954534886976</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>22.83452932893134</v>
+        <v>9.160687143422122</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.85087597240856</v>
+        <v>20.21769375304384</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.86758528951986</v>
+        <v>25.33309320534726</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>22.80357005724201</v>
+        <v>2.430941347251931</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>22.88940881729568</v>
+        <v>31.27487753181646</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.89653939761068</v>
+        <v>35.63688935947791</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>22.81830880437921</v>
+        <v>6.786385196080616</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>22.92017794917658</v>
+        <v>42.82435529879836</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.92463284357559</v>
+        <v>45.20078329971882</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>22.93238935047957</v>
+        <v>42.48655275691235</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>22.93694388662857</v>
+        <v>43.40831319409077</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.95918403183182</v>
+        <v>47.01570783695517</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.82228096111613</v>
+        <v>12.8448030781575</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>22.89462086029348</v>
+        <v>31.8613075600521</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>22.92758093038891</v>
+        <v>41.84278783528207</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.84239834201023</v>
+        <v>14.32016332601954</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>22.89055321146125</v>
+        <v>28.23960298609025</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>22.91899808573344</v>
+        <v>30.15336897180035</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>22.81390680489352</v>
+        <v>12.01398403281947</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>22.8937965899852</v>
+        <v>30.10945223151032</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.93549481924978</v>
+        <v>38.36688817425215</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>22.81000070310477</v>
+        <v>8.541023280816056</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>22.95090033492919</v>
+        <v>44.85030848782257</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>22.81997671172288</v>
+        <v>4.042954683280904</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>22.8416504329376</v>
+        <v>12.96898619420805</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.86500054247179</v>
+        <v>20.88998223398696</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>22.81463532050382</v>
+        <v>2.808373798785752</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>22.87943755171843</v>
+        <v>27.88256579799321</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>22.89849445305577</v>
+        <v>35.65164209310078</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>22.81120040530346</v>
+        <v>0.8634738455175288</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>22.89561471115335</v>
+        <v>36.7189189385849</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>22.9095664117808</v>
+        <v>41.736132087299</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>22.89300452826866</v>
+        <v>28.81755812920824</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>22.90055043599246</v>
+        <v>31.70538714555001</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>22.91932476198658</v>
+        <v>35.28636102896415</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>22.81243800437522</v>
+        <v>5.150500625780847</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>22.86250020272077</v>
+        <v>21.41669192307756</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>22.92076719599799</v>
+        <v>38.71278824204166</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>22.82743140553053</v>
+        <v>9.850472506771212</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>22.88219506525185</v>
+        <v>26.02247559824374</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>22.91071293767338</v>
+        <v>30.76537643456922</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>22.82763981032866</v>
+        <v>11.25924016193422</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>22.88455269711112</v>
+        <v>29.88990281849075</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>22.92592094581969</v>
+        <v>36.37479262083555</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>22.80499174930153</v>
+        <v>3.827390663985625</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>22.9166145595318</v>
+        <v>37.83868540973769</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.88293405241619</v>
+        <v>23.82927261417692</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.86294704764111</v>
+        <v>19.17453501529056</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.9325076131893</v>
+        <v>38.02921441136663</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>22.94773400760876</v>
+        <v>41.93065367875945</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.81259388505394</v>
+        <v>8.417188185138158</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>22.85577121852773</v>
+        <v>15.76122152442232</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.87260731748711</v>
+        <v>20.87479444559307</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>22.82644360467689</v>
+        <v>10.2392266551911</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>22.83917394623059</v>
+        <v>17.80458731960107</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>22.89783104935666</v>
+        <v>33.93368876321797</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.79646976235308</v>
+        <v>11.28019152542443</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>22.82443527795835</v>
+        <v>14.36126001270599</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.85398684685592</v>
+        <v>19.79794832030358</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.77092565289956</v>
+        <v>2.954783724789117</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>22.8594667036301</v>
+        <v>18.10891575911799</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>22.92952295724085</v>
+        <v>40.32233792242906</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>22.86867748314557</v>
+        <v>17.7095920547109</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>22.97761836205883</v>
+        <v>48.41587824983344</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>23.01276260044777</v>
+        <v>52.45825512468418</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>22.76600466001526</v>
+        <v>6.619118672219511</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>22.83692032381227</v>
+        <v>16.95383937593996</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.89384085227179</v>
+        <v>26.18239217183761</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.96839537859335</v>
+        <v>49.54445120816763</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>22.98777560241903</v>
+        <v>47.90729560367561</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>23.02520871370892</v>
+        <v>56.72893168454461</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>23.04340593995492</v>
+        <v>59.25803532609209</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.86300768596567</v>
+        <v>22.14947768253221</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>23.01758151279366</v>
+        <v>48.57984932161057</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>23.01546780296982</v>
+        <v>49.81421517917231</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>22.85037678081247</v>
+        <v>18.91102590413679</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>22.9130598409004</v>
+        <v>30.90748600338424</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>22.95494349126844</v>
+        <v>41.0781692106235</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>22.8164049541529</v>
+        <v>11.94745882712002</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>22.94675199354056</v>
+        <v>41.82617890753193</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>22.97214528169062</v>
+        <v>46.07412327070871</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.80383465445709</v>
+        <v>5.796960146992948</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>23.0050963084112</v>
+        <v>55.0811961421463</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>23.05570651759926</v>
+        <v>66.8531320989656</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>23.11809425558068</v>
+        <v>66.69377800554628</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>23.17131316739129</v>
+        <v>77.81574736337851</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>23.19720222809006</v>
+        <v>84.04768849447277</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>22.87958308964303</v>
+        <v>28.145556441992</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>23.09996710789007</v>
+        <v>65.35225907930365</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>23.1302151093925</v>
+        <v>69.72525067860474</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>22.99386465207256</v>
+        <v>56.37684140147895</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>22.96967685634552</v>
+        <v>43.20985928584205</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>22.99073919543245</v>
+        <v>48.29711595968543</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>23.03768863042515</v>
+        <v>57.5713459347104</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>22.8307441450941</v>
+        <v>16.20982452198825</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>22.99975608007934</v>
+        <v>46.87724069688936</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>22.83499123090451</v>
+        <v>14.76195356219595</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>22.90600036023815</v>
+        <v>30.13582430152891</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>22.95655020528162</v>
+        <v>40.83228147546914</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>22.80853733559795</v>
+        <v>11.28872202865298</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>22.94749528813328</v>
+        <v>39.65732827093369</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>22.98817207345533</v>
+        <v>49.49927892430311</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>22.80845214973843</v>
+        <v>7.473645785639434</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>23.01588476140701</v>
+        <v>57.81462540920462</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.08080673140784</v>
+        <v>72.98632695957735</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.11379165846844</v>
+        <v>67.9438211945801</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>23.15193704668429</v>
+        <v>75.03666015956307</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>23.21094254822909</v>
+        <v>86.05081105992085</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>22.82870120894444</v>
+        <v>17.61392657898538</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>23.07922254224384</v>
+        <v>61.96689327980284</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>23.13662688682827</v>
+        <v>73.28201066307209</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>22.95904881249422</v>
+        <v>50.88679144533845</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.89646108991137</v>
+        <v>25.81552239762592</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>22.92917661919994</v>
+        <v>33.00995873668708</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>22.97262691472574</v>
+        <v>44.4324949775802</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>22.82624974681554</v>
+        <v>10.71873784382476</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>22.96162544151937</v>
+        <v>45.0339677541147</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>22.9854970978968</v>
+        <v>48.6321570892981</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>22.82099910291237</v>
+        <v>10.91813106657362</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>22.89646717590585</v>
+        <v>29.00177536143339</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>22.95647682336979</v>
+        <v>44.66544184908099</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>22.82801602648237</v>
+        <v>12.55079847703232</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>22.92395094788657</v>
+        <v>36.8333588861932</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>22.98200090547461</v>
+        <v>52.25463963679938</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>22.79940437083501</v>
+        <v>4.524364074361007</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>22.96336664310153</v>
+        <v>48.56785278813415</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>23.04301309544409</v>
+        <v>72.88241808148072</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.00944577388889</v>
+        <v>53.281357594451</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>23.07348176655501</v>
+        <v>69.254632262204</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>23.15257698214525</v>
+        <v>88.95020772771596</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>22.80563958956723</v>
+        <v>10.52352212493227</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>23.0097257303015</v>
+        <v>49.26024225350521</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>23.09614338175425</v>
+        <v>72.18521433530218</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>22.81352288890792</v>
+        <v>9.815719550180951</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>22.78891712413264</v>
+        <v>7.980311019249875</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>22.84301406081714</v>
+        <v>18.62185617562088</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.79140401938612</v>
+        <v>6.305200383108708</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>22.83928435092527</v>
+        <v>20.39431237271026</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>22.85309040397213</v>
+        <v>21.65197039758402</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>22.79813313228011</v>
+        <v>8.175079822981441</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>22.86779708186283</v>
+        <v>25.4091889768307</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>22.88393850041482</v>
+        <v>26.95700392639553</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>22.79630741602884</v>
+        <v>9.209424097560312</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>22.8156427405237</v>
+        <v>15.90928236373801</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>22.82821661739293</v>
+        <v>14.78171968765032</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>22.83980737321854</v>
+        <v>16.08167009553652</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>22.7951850373837</v>
+        <v>11.58148878363139</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>22.88340101632351</v>
+        <v>30.45284801930317</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>22.83850859408308</v>
+        <v>17.21892567644876</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>22.8936093628143</v>
+        <v>27.31130150737194</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>22.90969250579761</v>
+        <v>30.71808668587359</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>22.77227924319573</v>
+        <v>6.208004113412791</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>22.85778308841098</v>
+        <v>17.91295280913015</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>22.85238698647191</v>
+        <v>20.66228671627395</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>22.77854123180276</v>
+        <v>6.31726533998901</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>22.92590142404804</v>
+        <v>31.69677097652229</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>22.81236877480168</v>
+        <v>11.23386851871256</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>22.80165811225161</v>
+        <v>10.83068688405294</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>22.83276235636404</v>
+        <v>17.30753468570803</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>22.77100310791445</v>
+        <v>4.84751176121026</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>22.8694058526143</v>
+        <v>22.74366067746828</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>22.86835680419993</v>
+        <v>22.92345361303731</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>22.77702304645656</v>
+        <v>7.489557339779569</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>22.89647802051763</v>
+        <v>29.10596743594768</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>22.8914883990533</v>
+        <v>28.26951223551662</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>22.88433663650918</v>
+        <v>24.99325618148447</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.88922167849425</v>
+        <v>29.74945158731797</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>22.905546782995</v>
+        <v>30.30732046324664</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>22.84528702680165</v>
+        <v>18.47359951315618</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>22.87891463732555</v>
+        <v>23.25046859733583</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>22.9163670014493</v>
+        <v>31.90641421212803</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.8657510165953</v>
+        <v>22.27401305864166</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>22.9513025458883</v>
+        <v>32.58583355391969</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>22.95082976273534</v>
+        <v>31.67962046850926</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>22.78099906164305</v>
+        <v>7.744529146430779</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>22.95082078459935</v>
+        <v>35.81128126867152</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>22.94020049154493</v>
+        <v>33.8430296535123</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>22.80126831686641</v>
+        <v>7.885521595131568</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>23.04439946793114</v>
+        <v>51.15685554699211</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>22.79656308087084</v>
+        <v>6.044772615258317</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>22.78983047349672</v>
+        <v>8.494884649245682</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>22.82236066088432</v>
+        <v>17.26694225425772</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>22.76447817261272</v>
+        <v>3.842824131882487</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>22.86177567834016</v>
+        <v>20.98830443355662</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>22.86946264767927</v>
+        <v>22.96362018564109</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>22.78064564374743</v>
+        <v>8.22955842779875</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>22.89772894357451</v>
+        <v>30.20336746382995</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>22.90136799907356</v>
+        <v>32.07416923620686</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>22.89934757782297</v>
+        <v>29.11163549209058</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>22.89068293283355</v>
+        <v>30.85964356743634</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>22.93246794447455</v>
+        <v>36.71957050373705</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>22.79139087535169</v>
+        <v>11.0528275707155</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>22.83714232569224</v>
+        <v>17.62753056108701</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>22.88137851995013</v>
+        <v>27.45058190160604</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>22.84640979903779</v>
+        <v>18.56980708738313</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>22.92926708727531</v>
+        <v>31.41211176320936</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.94098341395852</v>
+        <v>31.21621238134558</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>22.77148159535243</v>
+        <v>7.311900928527901</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>22.93671767195497</v>
+        <v>33.15793720489302</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>22.94507058975569</v>
+        <v>34.71027182599047</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>22.80631553579634</v>
+        <v>9.94970460035581</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>23.04077531363608</v>
+        <v>51.48925160110407</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>22.78016867827801</v>
+        <v>3.427143031994586</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>22.78979081147924</v>
+        <v>4.853049825911459</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>22.83019180057236</v>
+        <v>17.1335100540765</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>22.78254444527863</v>
+        <v>3.535901673495864</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>22.85938874713314</v>
+        <v>20.85901215577073</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>22.88544586650663</v>
+        <v>25.49207864080811</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>22.77874290292539</v>
+        <v>2.386371415655141</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>22.88008032226131</v>
+        <v>25.47498288977165</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>22.89772477355397</v>
+        <v>31.32339199832978</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>22.87983978047592</v>
+        <v>24.72877160133225</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>22.88194128341313</v>
+        <v>27.62430420957251</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>22.90814164908817</v>
+        <v>34.49459326858035</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>22.78792449419622</v>
+        <v>5.938833792508383</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>22.82410168673201</v>
+        <v>11.80253332889811</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>22.9033529247488</v>
+        <v>31.99946633940992</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>22.81198007913716</v>
+        <v>14.38084279058652</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>22.9042636182586</v>
+        <v>29.98394978522206</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>22.9196169001158</v>
+        <v>31.25672937640295</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>22.78011333445031</v>
+        <v>6.597282868590923</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>22.90812105549238</v>
+        <v>31.45832930763255</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>22.92519531098772</v>
+        <v>31.80919741356748</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>22.78656942320804</v>
+        <v>5.174378733288634</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>22.97743630573147</v>
+        <v>44.0722584065187</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>22.92671779439066</v>
+        <v>33.8686803448024</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>22.91348659567427</v>
+        <v>24.86097657164254</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>22.99711730914755</v>
+        <v>42.91466890548492</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>22.98964161026426</v>
+        <v>42.10162858308718</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>22.86659827919664</v>
+        <v>16.21206342524403</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>22.92575741561021</v>
+        <v>26.99195134681097</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>22.9402804084626</v>
+        <v>32.62056326617572</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>22.82508310234359</v>
+        <v>18.01045989807258</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>22.87266953221082</v>
+        <v>25.5431340050306</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>22.95603311721318</v>
+        <v>39.84885939310288</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>22.74629646253801</v>
+        <v>5.955279428949829</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>22.85397457044822</v>
+        <v>16.24833194160547</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>22.88941051103641</v>
+        <v>22.14871551444841</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>22.76232218349378</v>
+        <v>7.012956077207875</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>22.94777032026485</v>
+        <v>32.62200109969823</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>23.02549757033714</v>
+        <v>48.92416411722786</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>22.94317145859799</v>
+        <v>27.21033018946803</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>23.08228421232165</v>
+        <v>49.99204179633705</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>23.10065275145966</v>
+        <v>53.67885357379785</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>22.8201685516167</v>
+        <v>13.30902572096922</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>22.96334392757011</v>
+        <v>30.00262469681309</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>23.01737992472101</v>
+        <v>37.96349742784591</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>23.03661827831944</v>
+        <v>51.18730038508608</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>23.07860952462787</v>
+        <v>51.57719279188451</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>23.11550230504241</v>
+        <v>57.35365351721391</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>23.11119998540192</v>
+        <v>55.91822581196577</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>22.92828223279727</v>
+        <v>28.67505654762472</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>23.12933275027956</v>
+        <v>53.30890023804417</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>23.09679537680046</v>
+        <v>51.25425677847581</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>22.86305898308404</v>
+        <v>23.29140075153474</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>22.7803520491916</v>
+        <v>7.8950014770598</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>23.03093981590034</v>
+        <v>45.82708056530146</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>23.04005358453995</v>
+        <v>45.48058261301455</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>22.8062516836376</v>
+        <v>9.281263748025889</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>23.14090516563036</v>
+        <v>62.54245003180741</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>23.17838650109751</v>
+        <v>66.78275716548762</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>23.25848594843327</v>
+        <v>66.09144228634381</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>23.3206468718822</v>
+        <v>73.45367915417953</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>23.32920299860681</v>
+        <v>75.72091847795797</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>22.9622281411111</v>
+        <v>32.11879269211381</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>23.29854019078467</v>
+        <v>71.17952658260981</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>23.28800528665642</v>
+        <v>70.55579819667241</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>23.0560690719918</v>
+        <v>55.11867191157565</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>23.05093318049281</v>
+        <v>49.59610078269863</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>23.06634440331571</v>
+        <v>52.4193016104222</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>23.10005524731155</v>
+        <v>55.67722010177712</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>22.8719763410415</v>
+        <v>22.4803760752946</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>23.09344418188199</v>
+        <v>50.89656325537303</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>23.08075861682049</v>
+        <v>50.44459404571782</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>22.83693604892296</v>
+        <v>17.98761144284411</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>22.9565092203192</v>
+        <v>32.43447170879317</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>23.01508476469806</v>
+        <v>42.34964205902539</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>22.76713163710165</v>
+        <v>6.370963564469641</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>23.02753350367246</v>
+        <v>44.06340514674551</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>23.05130443017351</v>
+        <v>46.26373602562183</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>22.80747728678979</v>
+        <v>9.930757859296117</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>23.14648963895507</v>
+        <v>64.56542601744567</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>23.2003590675176</v>
+        <v>70.69647044224249</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>23.25507038679586</v>
+        <v>68.53978945315259</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>23.29946618153348</v>
+        <v>74.72302200520704</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>23.35094189176493</v>
+        <v>78.34323227050506</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>22.88722967762725</v>
+        <v>22.47733919747314</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>23.26886255738241</v>
+        <v>71.71397941863169</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>23.28482825148281</v>
+        <v>74.2777093635014</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>22.99883481558716</v>
+        <v>49.34104816270307</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>22.9460176757963</v>
+        <v>35.27905854550135</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>22.98256510730698</v>
+        <v>40.0563497205056</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>23.00200947277023</v>
+        <v>43.34648885725842</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>22.8442239283936</v>
+        <v>16.69622744296356</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>23.0323604965633</v>
+        <v>46.77000638756348</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>23.03364062841721</v>
+        <v>47.11505076750478</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>22.81963224925149</v>
+        <v>15.07088849846316</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>22.94957995045104</v>
+        <v>33.61287662792061</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>23.01885307153679</v>
+        <v>45.83029041324397</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>22.80001971997786</v>
+        <v>7.859006876729921</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>22.99971392759522</v>
+        <v>43.58555480919776</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>23.05016222803258</v>
+        <v>47.61145250285713</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>22.80239581920367</v>
+        <v>7.850452167321283</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>23.0811140191107</v>
+        <v>61.27339771857222</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>23.1571316168561</v>
+        <v>71.21655851020157</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>23.14098282865589</v>
+        <v>63.56310975641792</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>23.22639195325364</v>
+        <v>76.37255285115421</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>23.28734055820126</v>
+        <v>81.80908716891551</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>22.85443357814445</v>
+        <v>17.73301504168004</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>23.19080062813235</v>
+        <v>69.18235885205252</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>23.2485788285133</v>
+        <v>75.71992532487374</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.625</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.28</v>
+        <v>16.005</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.656</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.489</v>
+        <v>18.66</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.975</v>
+        <v>0.993</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.038</v>
+        <v>2.221</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.2040681373201</v>
+        <v>15.80528293610244</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.32866958788246</v>
+        <v>16.26959126085325</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.76850426981586</v>
+        <v>30.50911471552223</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.181923308218682</v>
+        <v>2.021187988364087</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>18.69146945005563</v>
+        <v>23.32546487069992</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.58174513635447</v>
+        <v>28.3462247867243</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8.421162606847059</v>
+        <v>6.080283259137616</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>31.85855881060424</v>
+        <v>44.02203835152748</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>38.53100895881999</v>
+        <v>45.24669450073547</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.0760862540166</v>
+        <v>17.21697259802268</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.48817730855651</v>
+        <v>19.96003810886447</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.99083207075453</v>
+        <v>19.69574908499792</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.02449934566459</v>
+        <v>13.36108804309485</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.72061473540314</v>
+        <v>15.85483824854602</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.08898958820144</v>
+        <v>42.44465134278163</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.15441151827372</v>
+        <v>13.9904466585592</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.11309784910512</v>
+        <v>24.9417655214667</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.89546636682026</v>
+        <v>33.48171487974732</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.685663832688029</v>
+        <v>2.270327848473688</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>8.978183096732991</v>
+        <v>10.32680948605752</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>14.44121063095928</v>
+        <v>13.94047490099711</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.792918801049595</v>
+        <v>2.325271040430582</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.5523585498239</v>
+        <v>16.51470299128808</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.81933042338482</v>
+        <v>21.67114835630929</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.38901827167138</v>
+        <v>27.93205168150374</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.40458835113654</v>
+        <v>29.78279539524471</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.2061706933876302</v>
+        <v>1.92739597979666</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>31.74845888552036</v>
+        <v>33.39612489555432</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.26747059448171</v>
+        <v>32.89497647982225</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.513368845926831</v>
+        <v>7.513037772719951</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>45.30804521730413</v>
+        <v>47.55397733404301</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.73393844531135</v>
+        <v>47.45213554492826</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>45.42865426629535</v>
+        <v>47.89504031544745</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>51.52163050653159</v>
+        <v>52.00652655162077</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.16311826439136</v>
+        <v>52.7190021401331</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.85489645494325</v>
+        <v>25.1658630728762</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.34762039464638</v>
+        <v>43.76722245269117</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>52.4490635443057</v>
+        <v>57.08858820948802</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.63425401401151</v>
+        <v>20.82397735237516</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.36655587465688</v>
+        <v>33.14696308711418</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.65428125688158</v>
+        <v>35.01221309845448</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>2.598887502766409</v>
+        <v>3.313005794973922</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>27.55311779807108</v>
+        <v>28.79213908959869</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.68157750891547</v>
+        <v>34.67823749537722</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.343352194505975</v>
+        <v>3.465719805807183</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>44.67192735968605</v>
+        <v>45.63026321502663</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>10.12580731858186</v>
+        <v>8.991800516049526</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.5499551593183</v>
+        <v>23.21080202332735</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.69906619445636</v>
+        <v>28.94158672282686</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.3837851525087075</v>
+        <v>0.7238205461089251</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>30.53605072055373</v>
+        <v>33.91028718452675</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.19106104399852</v>
+        <v>37.41177956630499</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>6.917634088229331</v>
+        <v>9.154057949238052</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>47.28471906759555</v>
+        <v>50.41529780320191</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>50.57201596528567</v>
+        <v>54.07849084164993</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.96950645604038</v>
+        <v>58.44879253015313</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>52.45490359632069</v>
+        <v>60.05833783872218</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>55.8219730020243</v>
+        <v>63.75352133165542</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>13.08284152331524</v>
+        <v>10.50899905302222</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.21235337115517</v>
+        <v>34.05445416687861</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.88497450893832</v>
+        <v>48.68214991077122</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>10.450204994006</v>
+        <v>11.28455613574533</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.34699505374162</v>
+        <v>30.44429837832451</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>34.20790997085693</v>
+        <v>33.71087054833677</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.908054090526889</v>
+        <v>1.786961860415005</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23.59296272402058</v>
+        <v>25.0032986682465</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.12175237944803</v>
+        <v>38.2041451198236</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.437491025495618</v>
+        <v>4.652410307806718</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>45.11040565069381</v>
+        <v>44.94063391465245</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>4.972898131850567</v>
+        <v>5.380099641694819</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.75375105925577</v>
+        <v>14.56322917694457</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>22.3979987837408</v>
+        <v>24.77837755770481</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.476153390150742</v>
+        <v>1.212635731883417</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>27.01399163891493</v>
+        <v>30.91572708702626</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>34.5233405075255</v>
+        <v>37.82103530686895</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.596237716534233</v>
+        <v>2.251263366988638</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>41.97999053745511</v>
+        <v>46.11590871797719</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.50736803520525</v>
+        <v>52.06115363237778</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>33.04243556395136</v>
+        <v>47.47117822616175</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>37.84583585724924</v>
+        <v>49.52934182820555</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>40.71993919441691</v>
+        <v>57.56693510698928</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>4.244831683597319</v>
+        <v>6.738708663629065</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.37589911925854</v>
+        <v>23.48577086544146</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>43.63175105601478</v>
+        <v>51.33765679543723</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.298813010492641</v>
+        <v>7.364660391970908</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.64037314307924</v>
+        <v>26.69396793575902</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.68964634679688</v>
+        <v>34.98545698948109</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.359790962953667</v>
+        <v>2.998469844437928</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.54227871461309</v>
+        <v>24.20832666918978</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.14183983627593</v>
+        <v>38.29584734081645</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.925589843022536</v>
+        <v>1.602463168149185</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.87852355623005</v>
+        <v>38.61704867171996</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.81083689784071</v>
+        <v>22.40823092356347</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>17.4024324131239</v>
+        <v>18.32246389878357</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>30.06578189188173</v>
+        <v>32.05305945793302</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.36397645983764</v>
+        <v>35.69721101123152</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.816636522053649</v>
+        <v>5.99942292936538</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>12.09040408405811</v>
+        <v>13.42085808533725</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.11230401916502</v>
+        <v>20.15195021159932</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.35598112501419</v>
+        <v>10.17813778995615</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.21012015264403</v>
+        <v>20.45383540229872</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.68209234071019</v>
+        <v>32.75320902424416</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.690961632273339</v>
+        <v>1.728474435173005</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>6.643007703183116</v>
+        <v>7.867708526162783</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>12.10536797224143</v>
+        <v>13.32616402016251</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>0.8419538739308265</v>
+        <v>2.794654283800678</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>16.79051967972165</v>
+        <v>17.34140111448414</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>32.48486375382828</v>
+        <v>37.06174241129673</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.06733679005443</v>
+        <v>20.30676509357487</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.47133169804793</v>
+        <v>40.74229360286755</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>43.18616097244465</v>
+        <v>47.81895615577345</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.06587701907176</v>
+        <v>4.140382848610606</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>14.62418287387464</v>
+        <v>16.69093923635521</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>24.18032815196295</v>
+        <v>28.67964784663202</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.56734021050542</v>
+        <v>54.9753355873047</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.89421661758611</v>
+        <v>53.27480840006761</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.38520113338791</v>
+        <v>60.25512259636221</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.89769414922409</v>
+        <v>61.01367244926017</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.79223305536468</v>
+        <v>21.28444407095413</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>54.82210501240853</v>
+        <v>55.53080908549073</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.87218629014156</v>
+        <v>59.35765998801158</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.75847484307651</v>
+        <v>24.90031771092932</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.23974494996542</v>
+        <v>37.38046475934746</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>43.59200571413494</v>
+        <v>42.91121911530325</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3.926335596176987</v>
+        <v>4.615493042288758</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.90702926234699</v>
+        <v>39.88230110552936</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.55093006362567</v>
+        <v>43.42830628815926</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.818104039865368</v>
+        <v>6.979599115264769</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.44638510379836</v>
+        <v>62.26303702970114</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.47895840047083</v>
+        <v>66.18792508309255</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.80470518503111</v>
+        <v>77.84981496261683</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>82.84045191369961</v>
+        <v>80.913833979713</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>84.44575467098878</v>
+        <v>83.19162719973426</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.36697274123844</v>
+        <v>31.16898476507</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.93414854282545</v>
+        <v>72.9534533548877</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>77.7623389401646</v>
+        <v>77.17078670375692</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>60.29904164404827</v>
+        <v>58.02837279555088</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.65383425666006</v>
+        <v>44.30447925271193</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.36747901675142</v>
+        <v>50.31502962359</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.81384854280392</v>
+        <v>59.77952644688968</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>10.5274857266759</v>
+        <v>9.367513904251911</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.78488884333747</v>
+        <v>51.11915694888286</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>59.38124777481867</v>
+        <v>58.15051403407532</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.73544631154556</v>
+        <v>13.53460847538068</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.01572600904195</v>
+        <v>34.64873796623738</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>42.58810471317093</v>
+        <v>41.67068148081879</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.491771364911582</v>
+        <v>2.280681900123454</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.10064627538316</v>
+        <v>38.50891323964792</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.91384978293302</v>
+        <v>46.545560940405</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.861360743352886</v>
+        <v>6.994361431231823</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.95322835511485</v>
+        <v>61.95342728299231</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.72609459411589</v>
+        <v>71.62937403814099</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>79.44613431278668</v>
+        <v>77.43045095555998</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>80.74260390666524</v>
+        <v>78.92642297834502</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>88.02553570566101</v>
+        <v>86.47635384782913</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>18.84181129675485</v>
+        <v>13.431762645235</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>68.74511549418129</v>
+        <v>66.80298400088537</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>81.96689542815277</v>
+        <v>79.84009502931447</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>58.06196636949715</v>
+        <v>56.89180211237291</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.37756932203331</v>
+        <v>26.19993021800818</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.52502221719121</v>
+        <v>33.98983277736671</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.08139834689296</v>
+        <v>44.88890699663094</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.144868550857638</v>
+        <v>6.015607578954011</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.82972626634254</v>
+        <v>47.3054139161198</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>59.14144807113856</v>
+        <v>57.69880612502857</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.879581960322829</v>
+        <v>9.167745656240719</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.00323522958445</v>
+        <v>33.29843001653483</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.68486071115064</v>
+        <v>45.00116074369582</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>2.726786073434944</v>
+        <v>3.554078073612239</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.1485327795594</v>
+        <v>34.13116085692322</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>49.01877423425921</v>
+        <v>48.31695420617045</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.933799640035637</v>
+        <v>1.512312088351869</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.75684424176406</v>
+        <v>51.84434034705099</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.61436592450792</v>
+        <v>71.16581552752345</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>59.76735252242198</v>
+        <v>57.96166011524777</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>69.59829128335988</v>
+        <v>66.73039294243307</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.72445787062108</v>
+        <v>86.99357555737824</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>6.16891015029487</v>
+        <v>5.600643744607861</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>52.07963185586362</v>
+        <v>55.05101701653285</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>78.03211474979449</v>
+        <v>76.44910820086908</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>14.20465300247918</v>
+        <v>13.90423654655887</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.00383689159493</v>
+        <v>17.11722991979464</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>31.12504998915092</v>
+        <v>28.82228686820138</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.8162490129027375</v>
+        <v>1.280913723650222</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>24.79778530665924</v>
+        <v>21.11417494381591</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>27.48699475821769</v>
+        <v>24.00319942399539</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.788667562125926</v>
+        <v>6.710072027900697</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>42.84023124441428</v>
+        <v>42.16181510556022</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>47.27388891787632</v>
+        <v>44.02236742134797</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.04835049190729</v>
+        <v>20.48252104050003</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>31.22826449200954</v>
+        <v>25.86320068083139</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.02004851757354</v>
+        <v>25.69218735048551</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>18.40657496566286</v>
+        <v>20.1863194770923</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.66088613858548</v>
+        <v>18.8518050884813</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>45.88174189805426</v>
+        <v>42.76316558684438</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.77914861890776</v>
+        <v>9.567570584201441</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.23732176625542</v>
+        <v>25.014746604825</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.38349237187378</v>
+        <v>29.05139116893277</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.394117416769568</v>
+        <v>-1.417218036671237</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>10.11694843669669</v>
+        <v>9.656497774692095</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.95561060985107</v>
+        <v>13.68564635247299</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-0.2660807387226072</v>
+        <v>0.5634269565120924</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.1691831580887</v>
+        <v>25.82616824194583</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>14.94497760404485</v>
+        <v>16.88324134775424</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.79334672606267</v>
+        <v>23.58159136387021</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>30.46745319512153</v>
+        <v>29.23699468422199</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>0.5116190830382799</v>
+        <v>1.498110456249769</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>34.23762851185655</v>
+        <v>31.44151180695557</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>34.31295477475278</v>
+        <v>32.33287663916776</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.205730547090283</v>
+        <v>7.152719564441657</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>50.21026869070114</v>
+        <v>47.48414536189218</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>52.34821260847167</v>
+        <v>49.2261834419717</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>49.19035175429233</v>
+        <v>47.67163864994512</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>55.48422475933273</v>
+        <v>53.38381614928861</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>55.64983121743357</v>
+        <v>53.65042263160522</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>22.21807389476295</v>
+        <v>23.16036149184722</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>42.50017784027857</v>
+        <v>48.5809529288689</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54.75480662686236</v>
+        <v>54.76345797469116</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>15.45047729572209</v>
+        <v>18.3781327293162</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.08616436242333</v>
+        <v>31.15762325325488</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>35.88981236789641</v>
+        <v>34.68811698414023</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1.264112277254807</v>
+        <v>0.02589898403260449</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.28642951605217</v>
+        <v>31.41993801307738</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>35.40370672453919</v>
+        <v>33.02001151662918</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.147895700445041</v>
+        <v>2.297412171268881</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>53.0170424362742</v>
+        <v>49.83892873009385</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.630303459901477</v>
+        <v>5.557634954438694</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>16.2774309730632</v>
+        <v>17.28350791635863</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.1991073177269</v>
+        <v>26.49007779129508</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.8519085304489558</v>
+        <v>0.006335294241193168</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>32.5741650394835</v>
+        <v>30.21419625612653</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.94661273424982</v>
+        <v>32.62927855687783</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6.765624909600561</v>
+        <v>5.866268492392972</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>49.82478369452229</v>
+        <v>45.78470231483446</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>55.41808144730818</v>
+        <v>52.28312718613282</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>53.89114394114786</v>
+        <v>52.07880074745692</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>57.35345277428451</v>
+        <v>54.53301675243449</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.99143446599319</v>
+        <v>62.28711237799543</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>11.5433193411057</v>
+        <v>6.534990684144312</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.9610210836562</v>
+        <v>32.76972526689512</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.32031187957133</v>
+        <v>41.62683715259369</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>9.05538274774915</v>
+        <v>8.264053208631228</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.20642942926559</v>
+        <v>28.88714643425818</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>33.88286239470148</v>
+        <v>32.63148454962975</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.41988396586806</v>
+        <v>-0.8366358247428494</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.36288998750078</v>
+        <v>25.66101953264362</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.967853980339</v>
+        <v>35.02332778566527</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>2.223608705875378</v>
+        <v>3.318578906293787</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>48.70536334890535</v>
+        <v>45.39623417594261</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>2.096501001863786</v>
+        <v>3.012300426827551</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.01377144558602</v>
+        <v>13.05269004515745</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>27.28615200099831</v>
+        <v>25.10983923802143</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-1.60284301544052</v>
+        <v>-0.03463233574973756</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>32.24591048618976</v>
+        <v>27.87368678978258</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>37.82889764158578</v>
+        <v>35.10602965920161</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.4396270981815178</v>
+        <v>1.021021117967212</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>46.21556475971138</v>
+        <v>42.87805629144515</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>55.58466604691726</v>
+        <v>51.1007395321105</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>47.79992146253798</v>
+        <v>50.3837198809069</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>54.02512622281939</v>
+        <v>53.66010052834393</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>61.04621273623977</v>
+        <v>59.59929982444112</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>5.206703811609195</v>
+        <v>3.09571880659405</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.85266647850283</v>
+        <v>27.16929235683054</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>51.65838372340217</v>
+        <v>45.62522328933952</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.52029002989897</v>
+        <v>5.160156201446622</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>25.89789539734332</v>
+        <v>24.65957679657614</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>32.35758748481274</v>
+        <v>31.33918586925871</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-3.017969950431599</v>
+        <v>-0.4073867875822046</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.28650229438739</v>
+        <v>21.9781716420185</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>32.18062513865988</v>
+        <v>31.46665445358994</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1.502502372652547</v>
+        <v>0.8548918674258772</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>38.93236847594167</v>
+        <v>36.46587524736232</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>31.25788642301924</v>
+        <v>27.0806244429278</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.6922291516642</v>
+        <v>21.43807286712393</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>39.6618591397858</v>
+        <v>37.51765479193232</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>39.52435532927083</v>
+        <v>38.05498150254702</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.70952810219986</v>
+        <v>8.679460830092964</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.42824561868975</v>
+        <v>18.55344864477769</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.0456786992731</v>
+        <v>26.40335608341818</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.69069335469448</v>
+        <v>11.8258466601573</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.89807021712278</v>
+        <v>24.78790532410928</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.22142117444433</v>
+        <v>35.85268028089471</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-3.065461137517431</v>
+        <v>-1.578304896059052</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.36912720390818</v>
+        <v>8.133325062680949</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.70351126373198</v>
+        <v>17.35246575464598</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.6885697852693156</v>
+        <v>1.423761161486023</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.5683004948495</v>
+        <v>25.462324624264</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>49.46336255999252</v>
+        <v>48.86415587655453</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.57395878271699</v>
+        <v>25.49554401801441</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.24586953430858</v>
+        <v>45.14818100496733</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>54.88509261531343</v>
+        <v>52.86629214460197</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.657184823883981</v>
+        <v>7.066470791841883</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.41558600377211</v>
+        <v>23.36990430030754</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>41.47928906228788</v>
+        <v>38.68661797479236</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>58.55188125554204</v>
+        <v>56.41595039431805</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>55.57084771828345</v>
+        <v>51.86607548641703</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>63.00786848891528</v>
+        <v>59.70393187109414</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>61.56186167297834</v>
+        <v>57.37960591474484</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.7040539959616</v>
+        <v>20.42326287498382</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>57.7190097471999</v>
+        <v>55.33003887224229</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>60.60343276639252</v>
+        <v>58.56142181858888</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.88192730886755</v>
+        <v>23.312411952738</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>37.77738753752608</v>
+        <v>36.55697944222361</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>45.13710662723641</v>
+        <v>43.73609954442776</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-0.2761752218858149</v>
+        <v>0.9782265677417534</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>44.33447257467259</v>
+        <v>42.82171460332818</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>45.35314477795862</v>
+        <v>44.57579270141734</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>5.770384555427732</v>
+        <v>5.576917350399754</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>66.10650161873536</v>
+        <v>65.16364662866592</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>71.56080879886495</v>
+        <v>68.82964072097469</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>75.85167670978291</v>
+        <v>74.34269278581964</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>79.92374105618609</v>
+        <v>78.20124130567913</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>85.63701210147062</v>
+        <v>82.34599381692293</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.51708617701015</v>
+        <v>29.97539840897204</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>78.195587338054</v>
+        <v>74.34729682247752</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>80.05781982364597</v>
+        <v>77.10326571991212</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>60.9752472329483</v>
+        <v>57.56145587166348</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>49.35054637084837</v>
+        <v>46.59837453108641</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>53.25184526014444</v>
+        <v>50.55460397597673</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>59.88178106041497</v>
+        <v>58.37656580727501</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>11.16203006147439</v>
+        <v>8.454030800801885</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>51.08262351676593</v>
+        <v>48.46852739317148</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>57.31668141639373</v>
+        <v>55.48553830893906</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.2381142242657</v>
+        <v>11.28527832977947</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.45942058131951</v>
+        <v>33.37488910762035</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>43.41802153137287</v>
+        <v>42.05356438702127</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-2.792363817909823</v>
+        <v>-1.015741464871503</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>40.03885383851254</v>
+        <v>37.46579916902965</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>45.70871337907565</v>
+        <v>44.8719786707691</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.67540531763937</v>
+        <v>5.242087118865811</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>64.99259923263563</v>
+        <v>60.7821875632286</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>74.62424932667737</v>
+        <v>71.73363444038883</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>74.88366739786623</v>
+        <v>70.79067939009479</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>79.64407400457536</v>
+        <v>76.61652879631059</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>88.78967400602454</v>
+        <v>86.04432479261862</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.3845439752128</v>
+        <v>11.80515209267723</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>75.56198904203768</v>
+        <v>71.204396876356</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>81.4273645402386</v>
+        <v>78.01708026917325</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>53.82874802225202</v>
+        <v>51.42897642132893</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.44272111118473</v>
+        <v>26.89531038085537</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>34.61817721062169</v>
+        <v>33.51558081271851</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>40.96995251488288</v>
+        <v>39.94694333311216</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.88513957662482</v>
+        <v>5.727965329171123</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.51845852222348</v>
+        <v>42.18706011586589</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.78807980425552</v>
+        <v>50.62955503530628</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.48631455420912</v>
+        <v>7.940230367584292</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.40203758504833</v>
+        <v>31.76246771189822</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>45.16644166139575</v>
+        <v>43.57093143358921</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-2.565418604237898</v>
+        <v>-0.1259199027003888</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>38.0393132796157</v>
+        <v>34.92713493784849</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>45.87100306506531</v>
+        <v>44.41095402696594</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.3553093164577206</v>
+        <v>1.402004006987269</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>59.72142986688278</v>
+        <v>55.98954501706753</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>74.59384688039056</v>
+        <v>71.69130830903985</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>63.29046029744571</v>
+        <v>60.52288401060594</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>76.63839722946511</v>
+        <v>73.18759700818123</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>87.70382193814173</v>
+        <v>84.39283891179915</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.567037208502597</v>
+        <v>7.394514514426927</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>70.64459743631332</v>
+        <v>67.11369585245335</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>82.5308644272732</v>
+        <v>78.68699246156227</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.055252876124559</v>
+        <v>8.101372486557221</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.10028283006664</v>
+        <v>10.40078173580282</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.10330986587722</v>
+        <v>20.09782416282463</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.223050802131947</v>
+        <v>-0.08444673245746159</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>13.0416587972767</v>
+        <v>12.05352932108991</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>14.867652924308</v>
+        <v>13.12620249570752</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>2.882240005951875</v>
+        <v>4.104217733827944</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>27.79543193413876</v>
+        <v>26.65668422002115</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>32.26285777604571</v>
+        <v>28.92823951837106</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>13.67300979308581</v>
+        <v>12.76620927818057</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>22.9254754452352</v>
+        <v>16.92957523063032</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>23.19023735359061</v>
+        <v>16.55052643057153</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>11.50075697874229</v>
+        <v>14.4166338001956</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>11.7542182809362</v>
+        <v>12.01693911790284</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.95923436806657</v>
+        <v>28.29257240441091</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.62368348215959</v>
+        <v>9.253772967061714</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.92275157847756</v>
+        <v>25.2813996219716</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.01985078442358</v>
+        <v>29.1973611246557</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.848686081389481</v>
+        <v>-2.185510149638134</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>9.896289325930296</v>
+        <v>8.65980168916408</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.82818314150014</v>
+        <v>15.06594651524039</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-0.0325221214041207</v>
+        <v>0.4154070506253902</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.2024067395837</v>
+        <v>27.1439740904236</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.41661244653379</v>
+        <v>11.36235210056047</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>17.3250725130311</v>
+        <v>17.22472238353163</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>23.52270640972887</v>
+        <v>21.56995948681999</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.4265660262795343</v>
+        <v>-0.3185320762569646</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.18538040636657</v>
+        <v>23.984363260008</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.82205275708108</v>
+        <v>25.04019452836088</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.971414922977161</v>
+        <v>3.736673407959898</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.74881765183805</v>
+        <v>36.92301064074612</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>41.87183510940113</v>
+        <v>37.72954474880218</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.81449518473961</v>
+        <v>36.80172148943353</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>48.17088785142322</v>
+        <v>44.04529331276134</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>49.31596339547286</v>
+        <v>44.3687177541883</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>14.25532387847484</v>
+        <v>15.98289622506204</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.39859731089032</v>
+        <v>37.81795966647248</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.54121963047716</v>
+        <v>41.45027847188003</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>15.30400644287264</v>
+        <v>17.54965606521091</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.96781621646416</v>
+        <v>32.03394675113613</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>37.53884206994591</v>
+        <v>35.12719770823264</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1.234752435870586</v>
+        <v>-0.8767146351100514</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>35.96625433751447</v>
+        <v>32.54776305381088</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.31715612008036</v>
+        <v>35.62915870047822</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.060491140760227</v>
+        <v>1.344976396301025</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>56.85267903466921</v>
+        <v>52.53872048924244</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.702185187129672</v>
+        <v>3.15893185544191</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.31554756349947</v>
+        <v>12.15334395965117</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.96829777099779</v>
+        <v>21.1957459504576</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1.636110289414432</v>
+        <v>-1.220835142437796</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.1913165965023</v>
+        <v>22.85398336598049</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.14753683924154</v>
+        <v>24.7221756478918</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>5.410702783476118</v>
+        <v>4.983446765452925</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>41.8373673149555</v>
+        <v>37.61185790381957</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>46.21826461663326</v>
+        <v>42.24233949466353</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>45.86504762894522</v>
+        <v>40.72077297493519</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>49.81440432537254</v>
+        <v>43.38605256025552</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>56.97867011266992</v>
+        <v>54.4734638085736</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>5.505550454336351</v>
+        <v>3.563124123615037</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>27.11167971907087</v>
+        <v>24.17534227946542</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>34.93811397619951</v>
+        <v>31.11576582133822</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>10.53188746913005</v>
+        <v>9.962528479139642</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>33.45472918518307</v>
+        <v>31.00571512459707</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>37.14491765364876</v>
+        <v>34.25965550594763</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.508975107645533</v>
+        <v>-1.136997122419011</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>31.83699464311667</v>
+        <v>28.42788048333228</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>40.44559045106131</v>
+        <v>35.96830119882327</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>3.28174031394169</v>
+        <v>4.076364960355583</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>55.52421567275469</v>
+        <v>50.79756355812759</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.8308568021338409</v>
+        <v>0.6069252217010543</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>7.895309713933845</v>
+        <v>8.013925361263087</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.67040666537304</v>
+        <v>20.12636081188999</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.91579756022535</v>
+        <v>-1.632968166534297</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>21.44168935829788</v>
+        <v>16.83228288658338</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.58591059683016</v>
+        <v>27.32899982240651</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.6805925089124187</v>
+        <v>-0.6483778337353563</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.87039493752705</v>
+        <v>30.20940002855238</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>45.22360355009798</v>
+        <v>40.38397759950661</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>37.98272471262015</v>
+        <v>35.13380838380612</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>43.89475194863925</v>
+        <v>38.86097599536182</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>53.87831315790109</v>
+        <v>48.05818558300007</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.707911352021735</v>
+        <v>0.6086829563022214</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.7854740828726</v>
+        <v>19.54335444920872</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>39.74766257303079</v>
+        <v>36.15211848258416</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.979879943652655</v>
+        <v>6.338972024192845</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>30.0392217910084</v>
+        <v>27.20632757244972</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>35.67440504781508</v>
+        <v>32.38252685587715</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2.144591533399201</v>
+        <v>-0.9701742577154278</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.77407194977174</v>
+        <v>24.16737990674058</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>35.29371222145476</v>
+        <v>32.79861358110715</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-0.8382425461848975</v>
+        <v>0.1566571639936356</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>44.17810222146944</v>
+        <v>40.100690904771</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>34.9919621650869</v>
+        <v>31.12970732305099</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>24.18266247133737</v>
+        <v>22.61351069194828</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>43.10493824342791</v>
+        <v>39.72463414703508</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>42.92960264742828</v>
+        <v>39.87589681412875</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.181068161459391</v>
+        <v>8.473146619263765</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>23.76694812540301</v>
+        <v>21.31152296708744</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>33.81225240342206</v>
+        <v>29.7852475396668</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.12461472231468</v>
+        <v>13.18166580490153</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.75689114501095</v>
+        <v>26.42026553364409</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>41.48061770527968</v>
+        <v>38.60172276071488</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-3.430769899438815</v>
+        <v>-2.418608897598315</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>8.274849637453919</v>
+        <v>6.76353654549548</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.86226520433477</v>
+        <v>15.14315171450666</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-0.3804022237030509</v>
+        <v>0.530102879903108</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.24819607289782</v>
+        <v>24.65983406665175</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>49.79741762814243</v>
+        <v>48.00672106769662</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>29.69916161032377</v>
+        <v>27.43954861393359</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>51.79557873075049</v>
+        <v>48.4412861150778</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>57.41280348442918</v>
+        <v>54.27843662630811</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>5.647043151625052</v>
+        <v>6.481306467908535</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>27.4890217725543</v>
+        <v>22.60052882714882</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>42.23066849742855</v>
+        <v>37.53161328841198</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>61.58524575330262</v>
+        <v>57.92475572830939</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>58.89168103297116</v>
+        <v>54.13211886655758</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>66.87291490925128</v>
+        <v>60.90757904956455</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>64.26052340581329</v>
+        <v>60.30078130372198</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>20.05867110335615</v>
+        <v>19.46650784889668</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>61.9949911835532</v>
+        <v>57.73737097275542</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>65.28769590444722</v>
+        <v>60.71876162538196</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>20.04131802202631</v>
+        <v>23.54505454487698</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>39.60628112079502</v>
+        <v>37.86528655222325</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>48.1085571200648</v>
+        <v>46.45920343046505</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.5584677748505911</v>
+        <v>0.02712274564048656</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>49.04304426011811</v>
+        <v>45.69223539633515</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>48.12274099589668</v>
+        <v>48.75075505015738</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>3.83000909568668</v>
+        <v>4.068722209332829</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>71.15468454931835</v>
+        <v>69.54135027801249</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>75.17484305479684</v>
+        <v>72.59153896397171</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>81.36896967081643</v>
+        <v>78.1378140462965</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>86.7142376730999</v>
+        <v>82.5271795424907</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>87.78351939769232</v>
+        <v>85.57843230467398</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.11674357893895</v>
+        <v>29.79675775976132</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>83.68878290423314</v>
+        <v>79.02222771141808</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>85.72879743490711</v>
+        <v>81.54470229909825</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>66.18751257932291</v>
+        <v>61.45018395506173</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>55.35356536504783</v>
+        <v>50.63651619245697</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>60.85378757031249</v>
+        <v>55.26845017394034</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>65.33421918517226</v>
+        <v>61.29778787708429</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.04215956147215</v>
+        <v>11.22478683421366</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>58.55501714238027</v>
+        <v>53.06512663603166</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>64.23385818303024</v>
+        <v>59.39541563688394</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.2608970972318</v>
+        <v>13.3459259963341</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>37.41643510541665</v>
+        <v>35.65411879879042</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>47.0498637072032</v>
+        <v>45.38510444172573</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.787407111924953</v>
+        <v>-1.70383422893422</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>45.62230687831821</v>
+        <v>42.11338276570217</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>48.88106505794792</v>
+        <v>46.5986971850009</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.315507390442701</v>
+        <v>4.695357464338031</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>72.34298971538036</v>
+        <v>68.72004414618029</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>79.92282533800801</v>
+        <v>76.3610612325092</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>82.6257286466281</v>
+        <v>77.6988952704544</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>88.68154222775493</v>
+        <v>83.49611391371727</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>92.08566272521904</v>
+        <v>89.5506236976356</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.51597537153658</v>
+        <v>12.42871230961625</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>83.90932141977726</v>
+        <v>78.26867919380088</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>89.02162780938431</v>
+        <v>83.57738937508917</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>58.36512670848553</v>
+        <v>53.87636647920097</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>34.88995576548157</v>
+        <v>31.39426002179506</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>42.43669966063931</v>
+        <v>38.29011630918656</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>48.72489618597746</v>
+        <v>44.64212335458591</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.265506440946741</v>
+        <v>7.535414687987767</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>49.96887159711898</v>
+        <v>43.98586004658442</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>56.25600202767029</v>
+        <v>52.30666621255023</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.958487601860682</v>
+        <v>8.931447331140454</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.35812996380716</v>
+        <v>33.88056172231263</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>47.55327543815892</v>
+        <v>45.92594817192968</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-2.163247926665214</v>
+        <v>-0.9556280876615979</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>41.74046662257591</v>
+        <v>38.42722090139635</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>47.56384675197813</v>
+        <v>45.82063300039122</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>0.4124831883052416</v>
+        <v>0.2404974524221153</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>64.799305698513</v>
+        <v>62.24902101170164</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>78.03116097999649</v>
+        <v>74.87423117295411</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>70.4118228560331</v>
+        <v>67.91582420936554</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>84.66319248797251</v>
+        <v>80.05309426608126</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>92.74174560227738</v>
+        <v>88.73087577800864</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>9.068653563805526</v>
+        <v>8.070693959377991</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>78.11590205059294</v>
+        <v>74.43476047285002</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>87.50951838230338</v>
+        <v>82.38879189047883</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.56701043970435</v>
+        <v>14.14263754712831</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.3957623255254</v>
+        <v>14.69958414616048</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.66070593019425</v>
+        <v>24.36231706538052</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.76649344800844</v>
+        <v>4.644110359076279</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>16.03168861628637</v>
+        <v>18.57794754819123</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>20.48840006391319</v>
+        <v>21.84173456784529</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.118748813098914</v>
+        <v>8.042982374061125</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>24.38941767485407</v>
+        <v>31.73124189946243</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.38159968690887</v>
+        <v>32.21464806836391</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>12.01001448946548</v>
+        <v>14.61575161185782</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>15.14408172737343</v>
+        <v>16.74207674493618</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>13.87965735249617</v>
+        <v>17.28780633990783</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>10.53526276350979</v>
+        <v>13.61827658233631</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.538388251328977</v>
+        <v>12.62687003181992</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.63873630790086</v>
+        <v>27.54429473496387</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>8.934823259154307</v>
+        <v>11.02358436838118</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>15.68056311545993</v>
+        <v>18.87885742451199</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>24.68124427104567</v>
+        <v>28.99335987353184</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>9.392653742308294</v>
+        <v>8.719667688574024</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>10.33142380079927</v>
+        <v>12.55242530629724</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>14.45148494255202</v>
+        <v>15.74357051098688</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.327919973106905</v>
+        <v>3.96712666822766</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>8.749573631432103</v>
+        <v>12.69750574937595</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.3317911364332</v>
+        <v>19.03049268987734</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.4692182492384</v>
+        <v>24.70992746804828</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.67176982124717</v>
+        <v>25.58516515171603</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>1.731515311417077</v>
+        <v>4.406369400532629</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.58489040777138</v>
+        <v>29.63141610700947</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.92940039936536</v>
+        <v>29.93279848566682</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.770913831502849</v>
+        <v>7.933596843123475</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.51162456427015</v>
+        <v>39.1802949464544</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.94355988903818</v>
+        <v>38.33515851239487</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>37.6633410257657</v>
+        <v>40.65573726565889</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>42.40418171939345</v>
+        <v>44.91825518497649</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.18075781010025</v>
+        <v>44.80616496823983</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>20.61298395933754</v>
+        <v>23.53382986502488</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.05531263854084</v>
+        <v>37.81250227730994</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>44.29615821908514</v>
+        <v>44.77110658249583</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>12.80161508612192</v>
+        <v>16.56729877104274</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.96774307313629</v>
+        <v>24.23417756535952</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>24.54538790392075</v>
+        <v>27.99367107995853</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.474417941774728</v>
+        <v>8.820601002423867</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.49834539539838</v>
+        <v>24.19629335865623</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.93775671446154</v>
+        <v>30.63944595276957</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>29.57566197987169</v>
+        <v>34.09551714500819</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.73488847931456</v>
+        <v>10.98988068059928</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.97349606970175</v>
+        <v>22.6085019807532</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.09638670829197</v>
+        <v>27.28396994867605</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1.948928940307152</v>
+        <v>3.38597372674932</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.97432364116172</v>
+        <v>30.4850978928491</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.01347777591592</v>
+        <v>33.99790881247596</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.221731306720375</v>
+        <v>10.16777399490397</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.98677181892965</v>
+        <v>43.22357005294185</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.91980938571641</v>
+        <v>45.65582609342798</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>41.39724692459528</v>
+        <v>46.67836237334355</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>43.10711651204974</v>
+        <v>48.65779609194939</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>47.22826555708485</v>
+        <v>51.68193527299644</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.89169884845836</v>
+        <v>14.25023398640532</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>34.3866740259373</v>
+        <v>33.71258658075148</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>43.91543336555211</v>
+        <v>42.78927586834503</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.72164097042275</v>
+        <v>11.97178724237089</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>21.25698690098049</v>
+        <v>24.58367727284316</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>24.82622335833872</v>
+        <v>28.00529683378197</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.133329333982523</v>
+        <v>8.448142037511339</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>19.9403714198697</v>
+        <v>23.04450726601537</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>30.3465618750611</v>
+        <v>34.09094158161867</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>6.553292377591564</v>
+        <v>6.868547241356509</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>32.29623634992009</v>
+        <v>35.52977765374101</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.155258709163455</v>
+        <v>6.867355339618172</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>13.61246911975374</v>
+        <v>14.25402663150879</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>19.87781260844073</v>
+        <v>22.20312351072734</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.596461244848044</v>
+        <v>3.286574085257943</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>24.32125175962323</v>
+        <v>27.34587165632801</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.17921906705831</v>
+        <v>33.37078564546037</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>1.113183328009217</v>
+        <v>3.705291199034381</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>34.54760670562398</v>
+        <v>37.06973128416173</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>39.17565653562765</v>
+        <v>42.21341798523316</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>25.90996971853975</v>
+        <v>33.62006914228744</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.59454047021838</v>
+        <v>35.85032817738145</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>31.88454637425293</v>
+        <v>42.28898217166134</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>6.012635661576507</v>
+        <v>9.069555064026527</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.55149490461192</v>
+        <v>22.99150454942639</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>37.54849704191394</v>
+        <v>44.11349644439308</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>6.457614165440511</v>
+        <v>8.071032914507857</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>19.00671447827604</v>
+        <v>21.6154548486022</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.66106540048548</v>
+        <v>27.76431534040109</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.500171035164577</v>
+        <v>8.875387213690612</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>20.88775267399077</v>
+        <v>22.42425563826163</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.36268902672768</v>
+        <v>32.43610491100249</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>2.292923893487995</v>
+        <v>2.802802255616797</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.77085536236631</v>
+        <v>30.40962741346975</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>13.75792619352472</v>
+        <v>17.76530055308395</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>11.03765317520946</v>
+        <v>14.69674063376723</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>24.76315783579536</v>
+        <v>29.38527505378637</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>29.7001358415307</v>
+        <v>33.0721849490993</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>4.121219113896991</v>
+        <v>6.249968030253495</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>7.271027950481304</v>
+        <v>11.34620166530136</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>11.82087476039963</v>
+        <v>16.32952419592225</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.50366959108552</v>
+        <v>10.5563386171192</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>16.76340577150738</v>
+        <v>18.29983471116941</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.95324654781738</v>
+        <v>29.19555973282504</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>8.653800666898828</v>
+        <v>8.429405057227239</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>9.595202111812039</v>
+        <v>11.64629004437097</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>14.47201152984148</v>
+        <v>14.55325276818535</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2.355077577864762</v>
+        <v>4.299642324432927</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.01336880586013</v>
+        <v>15.07091728718529</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.08482154904513</v>
+        <v>31.89917023499321</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>12.73260059799885</v>
+        <v>17.38465745370578</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.39990234674042</v>
+        <v>37.40701535027988</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>39.04650112958211</v>
+        <v>42.65005035312832</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.128266999999717</v>
+        <v>5.459240768152839</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>10.06142967750251</v>
+        <v>13.81230057318476</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>19.46622259571483</v>
+        <v>23.30476599437938</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.41703802453805</v>
+        <v>43.86459413284169</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>35.04056090060384</v>
+        <v>38.04629581904747</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>43.97364500274127</v>
+        <v>48.26851639310716</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.93572444191805</v>
+        <v>51.53396559715711</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.58400903812281</v>
+        <v>18.03755748498449</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.46040568528657</v>
+        <v>42.02719194837226</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>40.22198368225371</v>
+        <v>45.33300229251016</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>20.23532518101133</v>
+        <v>22.47723490361788</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.41576421928415</v>
+        <v>30.27611510952908</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.93494809079884</v>
+        <v>38.65021816611294</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>9.554577405272365</v>
+        <v>10.21503109902305</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.74075130820503</v>
+        <v>34.84526483165509</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>38.64013639978749</v>
+        <v>39.74589899186665</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>7.345398989548947</v>
+        <v>7.59577538719298</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.42910553282314</v>
+        <v>50.24439981953939</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.80491308897179</v>
+        <v>60.18450368278708</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>62.08669419871536</v>
+        <v>63.16687277450301</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>70.50093214801015</v>
+        <v>71.02931399764309</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>75.76729523884103</v>
+        <v>76.52727036147459</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>31.08473334354145</v>
+        <v>28.79122230807585</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.19290424136534</v>
+        <v>60.90330917958717</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>63.01301534071368</v>
+        <v>65.60884437308745</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>45.20820606895648</v>
+        <v>48.74204627304674</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.15254349609164</v>
+        <v>34.00997955057665</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>35.94025085484526</v>
+        <v>38.85405289094999</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>45.67664444522185</v>
+        <v>49.84242100440044</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>11.96120030576302</v>
+        <v>12.82295075522541</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.44937050991696</v>
+        <v>40.63792219915668</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>40.49973989836266</v>
+        <v>45.08260017452818</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>17.11918797776053</v>
+        <v>16.3655176043959</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.44639875719586</v>
+        <v>29.56755416468439</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.31054679676623</v>
+        <v>38.51267201449922</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>9.392255073482549</v>
+        <v>9.180433324609165</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.21420991617386</v>
+        <v>34.69991229358639</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.76312935197642</v>
+        <v>42.5401535978414</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.386460614850211</v>
+        <v>9.731541172916177</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>51.58085013539844</v>
+        <v>51.78221430698515</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>64.18311583113018</v>
+        <v>66.28364744792694</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.44543516707461</v>
+        <v>63.88614365343297</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>68.12347580390548</v>
+        <v>68.61439211482202</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>78.58627376138807</v>
+        <v>78.5305671630924</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>21.72400020257978</v>
+        <v>18.36593598182609</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>53.94704770818406</v>
+        <v>55.33521485601201</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>66.61031223481802</v>
+        <v>66.64488493215124</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>40.49028446217951</v>
+        <v>43.40098770621129</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>15.75544427438495</v>
+        <v>20.00378825204215</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>21.75661327938449</v>
+        <v>26.18817419936688</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>33.37329835660529</v>
+        <v>35.39112974074579</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>7.0183926112148</v>
+        <v>8.115522062779171</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>34.76972615810372</v>
+        <v>36.88116537800759</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>40.31582505503922</v>
+        <v>43.54431051657245</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>12.08244231250091</v>
+        <v>11.93426760466345</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>27.57791224104255</v>
+        <v>28.82831271729837</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.97237149021706</v>
+        <v>41.16075921494809</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>9.848514633568236</v>
+        <v>10.16895333846269</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.67032963043576</v>
+        <v>30.99400378497938</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.52938116986863</v>
+        <v>44.82922993833439</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>4.207254178782122</v>
+        <v>3.494669300343347</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.60135041125736</v>
+        <v>42.94329097121548</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>63.18550165030272</v>
+        <v>64.48128364780908</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>47.44598783122118</v>
+        <v>47.54819956852714</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>58.41148665461913</v>
+        <v>56.833210809519</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>76.49541564763172</v>
+        <v>77.14799300885215</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>10.30783377070146</v>
+        <v>9.247724612547064</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>38.88369151413015</v>
+        <v>43.11651604664273</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>63.6800517729918</v>
+        <v>64.66548475262327</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>11.08737039130972</v>
+        <v>14.30822877753785</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>13.10675685181577</v>
+        <v>14.59236446094542</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.78053319245061</v>
+        <v>26.48064852119449</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>3.827048345909006</v>
+        <v>5.399372381672304</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>20.75613371882256</v>
+        <v>21.92845629237882</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>25.81768962259878</v>
+        <v>26.13909921036048</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>6.796776164775647</v>
+        <v>7.795688133622207</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>27.9648215898974</v>
+        <v>35.67985928541359</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>32.16695818005165</v>
+        <v>36.12142557425055</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>13.37382395663606</v>
+        <v>15.85421984205298</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.72656553222483</v>
+        <v>17.66119730357255</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.6532403506555</v>
+        <v>18.18798806930841</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>11.82411785344679</v>
+        <v>14.26959299105731</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.61925823642927</v>
+        <v>13.53538593022661</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.00346668609784</v>
+        <v>31.42141648809296</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>13.22537541220042</v>
+        <v>12.96728823363157</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.0547698471555</v>
+        <v>21.70953988860491</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.433526444626</v>
+        <v>32.25438595374421</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>11.88499420971937</v>
+        <v>10.6404853095563</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.06088269203711</v>
+        <v>16.46491066950018</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.72688517266212</v>
+        <v>19.32767641487559</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>3.858487006705886</v>
+        <v>4.853096415236745</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>18.17913582981647</v>
+        <v>17.17369038500202</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>15.35701303132133</v>
+        <v>19.92625679309308</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.85929644362839</v>
+        <v>25.40360840610089</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.63384540874889</v>
+        <v>27.00614597309697</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>3.182203746249925</v>
+        <v>5.176642723606637</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>31.92912519330889</v>
+        <v>32.66536238574682</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.22962065056294</v>
+        <v>32.97753595365642</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>5.843920933329034</v>
+        <v>8.428295413252762</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>39.79299682449973</v>
+        <v>41.48917321538272</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.27182529498594</v>
+        <v>40.54432501708423</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.04376715994201</v>
+        <v>42.23963341161299</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.99750829514056</v>
+        <v>45.46111824283726</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>42.94773139328461</v>
+        <v>44.83821143314928</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>20.37065465926041</v>
+        <v>23.85367240990788</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.33727963744035</v>
+        <v>38.03971229623085</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>43.95573963599657</v>
+        <v>46.09291213400654</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>17.59374454909834</v>
+        <v>19.91931387791361</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.53817558619406</v>
+        <v>27.64248473391071</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.44766942343613</v>
+        <v>30.14796661116925</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>11.87224924198311</v>
+        <v>11.0581237541811</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.84448360015167</v>
+        <v>29.63480416649229</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>34.89613980910389</v>
+        <v>33.52725173139531</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>42.04954534886966</v>
+        <v>39.71644105240016</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.160687143422042</v>
+        <v>9.968049485281302</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.2176937530438</v>
+        <v>22.17088972001159</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>25.33309320534714</v>
+        <v>27.75422137285136</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>2.430941347251832</v>
+        <v>3.673555923280624</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>31.27487753181627</v>
+        <v>32.76174491480617</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>35.63688935947786</v>
+        <v>36.19876387767946</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.786385196080783</v>
+        <v>9.467944624644634</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>42.82435529879826</v>
+        <v>44.13073033558101</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>45.20078329971912</v>
+        <v>46.44923253922443</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>42.48655275691222</v>
+        <v>48.39214520392031</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.4083131940908</v>
+        <v>49.71798133790466</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>47.01570783695524</v>
+        <v>52.85494643615566</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.84480307815737</v>
+        <v>12.33859371468941</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.86130756005188</v>
+        <v>31.7519450001689</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>41.84278783528169</v>
+        <v>42.01180396729062</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.32016332601927</v>
+        <v>14.11171365541179</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.23960298609014</v>
+        <v>27.55739936427326</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>30.1533689718001</v>
+        <v>29.71798994468968</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>12.01398403281956</v>
+        <v>10.50117449396866</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>30.10945223151043</v>
+        <v>28.48691851371675</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>38.3668881742521</v>
+        <v>36.8222846799669</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>8.541023280815919</v>
+        <v>7.616081445707756</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>44.85030848782263</v>
+        <v>41.61114468693364</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.042954683281021</v>
+        <v>5.86874308644958</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.96898619420799</v>
+        <v>13.82700118655895</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>20.88998223398682</v>
+        <v>22.91648906889119</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>2.808373798785819</v>
+        <v>4.089070608905082</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>27.88256579799331</v>
+        <v>29.90417969078028</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.65164209310075</v>
+        <v>36.48633771609232</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0.86347384551771</v>
+        <v>3.89765497237201</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.71891893858508</v>
+        <v>39.9109840614535</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>41.73613208729883</v>
+        <v>44.1459755867519</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.81755812920841</v>
+        <v>37.9284651865116</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>31.70538714554968</v>
+        <v>39.71015737707848</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>35.28636102896387</v>
+        <v>45.90497529473019</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>5.150500625780914</v>
+        <v>7.817656004983181</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.41669192307774</v>
+        <v>21.60113624856591</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>38.71278824204179</v>
+        <v>43.68051206418314</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>9.850472506771304</v>
+        <v>10.01891407855001</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.02247559824373</v>
+        <v>24.87219765528064</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>30.76537643456903</v>
+        <v>29.9941372796017</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>11.25924016193424</v>
+        <v>11.07812865732745</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>29.88990281849049</v>
+        <v>27.26078326869806</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.37479262083536</v>
+        <v>35.1459482178645</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>3.82739066398554</v>
+        <v>3.676833356186066</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>37.83868540973739</v>
+        <v>35.82762378684875</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.82927261417677</v>
+        <v>22.78681641286182</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.17453501529048</v>
+        <v>18.19204533372857</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>38.02921441136657</v>
+        <v>35.30082536616003</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>41.93065367875934</v>
+        <v>38.9778464214145</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.417188185137878</v>
+        <v>8.406273421233355</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.7612215244222</v>
+        <v>15.43800154689028</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>20.87479444559326</v>
+        <v>21.46797499966544</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.23922665519098</v>
+        <v>10.26158572171565</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>17.80458731960098</v>
+        <v>18.23168531971825</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.93368876321781</v>
+        <v>31.03860284785827</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>11.28019152542453</v>
+        <v>10.46175036658885</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.36126001270613</v>
+        <v>14.43463377212276</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.79794832030368</v>
+        <v>17.89683437904694</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2.954783724789326</v>
+        <v>4.531188769916998</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.10891575911787</v>
+        <v>17.06397447487399</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>40.32233792242926</v>
+        <v>36.50127460596027</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>17.70959205471084</v>
+        <v>19.97916422329153</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>48.41587824983361</v>
+        <v>44.54388984870128</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.45825512468419</v>
+        <v>50.19521555539109</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.619118672219269</v>
+        <v>6.423821777584962</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.95383937593966</v>
+        <v>16.60434297927029</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.18239217183747</v>
+        <v>26.82680748631198</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.54445120816773</v>
+        <v>48.69905842504491</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>47.90729560367556</v>
+        <v>43.79422666030101</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.72893168454452</v>
+        <v>53.55312401530906</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>59.25803532609216</v>
+        <v>56.98155339194317</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.14947768253216</v>
+        <v>21.26587261051503</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>48.57984932161035</v>
+        <v>46.82877055879144</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.81421517917204</v>
+        <v>49.02726798520283</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>18.91102590413677</v>
+        <v>21.98397700326337</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>30.90748600338421</v>
+        <v>31.04915444933118</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.07816921062356</v>
+        <v>39.7709799311877</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.94745882712011</v>
+        <v>11.91988792999143</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>41.82617890753151</v>
+        <v>38.91081670493445</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>46.07412327070865</v>
+        <v>43.30226467684614</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>5.796960146992909</v>
+        <v>6.080488202027652</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>55.08119614214634</v>
+        <v>52.78137432406061</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>66.85313209896577</v>
+        <v>64.07540715666174</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.69377800554642</v>
+        <v>63.68254102109478</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>77.81574736337853</v>
+        <v>73.43005018147758</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>84.04768849447285</v>
+        <v>79.07545965510955</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.14555644199202</v>
+        <v>26.51726389626112</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>65.35225907930376</v>
+        <v>64.2256064784563</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>69.72525067860499</v>
+        <v>67.35928291457896</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>56.37684140147914</v>
+        <v>53.44121461977353</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>43.20985928584201</v>
+        <v>40.31525496971882</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>48.29711595968531</v>
+        <v>44.38354604067941</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>57.57134593471018</v>
+        <v>54.90235101063413</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>16.209824521988</v>
+        <v>14.77161177309836</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>46.87724069688905</v>
+        <v>44.73870306550259</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>14.76195356219582</v>
+        <v>15.3005924374549</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.13582430152886</v>
+        <v>29.91432884726112</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.83228147546925</v>
+        <v>39.4552506730627</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>11.28872202865291</v>
+        <v>10.81846770234214</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>39.65732827093368</v>
+        <v>38.03302343237741</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>49.49927892430284</v>
+        <v>45.92014476130529</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>7.473645785639373</v>
+        <v>8.441550721723793</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>57.81462540920475</v>
+        <v>53.95607432884397</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>72.98632695957747</v>
+        <v>69.84088695612671</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.94382119458004</v>
+        <v>65.0161494924034</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>75.03666015956296</v>
+        <v>71.30034201355022</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>86.05081105992056</v>
+        <v>80.98026447826115</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>17.61392657898535</v>
+        <v>15.51445185163501</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>61.96689327980279</v>
+        <v>58.25667620985573</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>73.28201066307194</v>
+        <v>68.29593799003192</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>50.88679144533822</v>
+        <v>47.21056445791925</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>25.81552239762585</v>
+        <v>24.77578072552685</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>33.00995873668681</v>
+        <v>31.13829900379184</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>44.43249497757993</v>
+        <v>39.26132522418079</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.71873784382467</v>
+        <v>10.02265079953484</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>45.03396775411453</v>
+        <v>41.07499227328636</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>48.6321570892979</v>
+        <v>46.5466024981677</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.91813106657373</v>
+        <v>11.60097486464924</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.00177536143326</v>
+        <v>29.06015967092598</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>44.66544184908116</v>
+        <v>42.86326913014844</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.5507984770321</v>
+        <v>12.22770515691176</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.83335888619285</v>
+        <v>33.95586851445404</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>52.25463963679927</v>
+        <v>48.54967786799686</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>4.524364074361024</v>
+        <v>3.45236185314868</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>48.56785278813383</v>
+        <v>45.3574044250559</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>72.88241808148089</v>
+        <v>68.43479481732852</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.28135759445081</v>
+        <v>50.62348277590159</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>69.2546322622037</v>
+        <v>62.4688719489955</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>88.95020772771602</v>
+        <v>82.42051847399985</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>10.52352212493216</v>
+        <v>9.557151564547397</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>49.26024225350497</v>
+        <v>48.84033607965991</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>72.18521433530216</v>
+        <v>68.0670396301667</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>9.815719550181079</v>
+        <v>15.39044976073701</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>7.980311019249868</v>
+        <v>15.24295540692718</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.62185617562093</v>
+        <v>23.25946119552897</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>6.305200383108808</v>
+        <v>10.54863948351993</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>20.39431237271032</v>
+        <v>21.57539958161639</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>21.65197039758377</v>
+        <v>23.30905532196295</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.175079822981324</v>
+        <v>12.51841715820861</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>25.40918897683071</v>
+        <v>29.68777854160177</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.95700392639547</v>
+        <v>30.45349252890738</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>9.209424097560296</v>
+        <v>16.58316704587644</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>15.90928236373788</v>
+        <v>18.04503241878547</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>14.78171968765031</v>
+        <v>17.88643721043429</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>16.08167009553654</v>
+        <v>21.23713168397172</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>11.5814887836313</v>
+        <v>17.68666576830304</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>30.45284801930311</v>
+        <v>32.3600628244485</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.21892567644883</v>
+        <v>16.1830616245574</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.31130150737193</v>
+        <v>25.88028081451853</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.71808668587345</v>
+        <v>29.18892409324259</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>6.208004113412841</v>
+        <v>10.59391128665268</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.91295280913014</v>
+        <v>17.74439727202804</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.66228671627376</v>
+        <v>20.75019822245574</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.317265339988964</v>
+        <v>11.12612517567485</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.69677097652225</v>
+        <v>27.16369287694846</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>11.2338685187125</v>
+        <v>18.12094450227136</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>10.83068688405302</v>
+        <v>20.03028396843079</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>17.30753468570799</v>
+        <v>23.68680514360585</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>4.847511761210328</v>
+        <v>10.36379609518754</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>22.74366067746829</v>
+        <v>26.12968665068429</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>22.92345361303733</v>
+        <v>26.7858846590714</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>7.48955733977952</v>
+        <v>13.28221072049996</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>29.1059674359475</v>
+        <v>33.52745756169023</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>28.26951223551668</v>
+        <v>33.23238106195079</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>24.99325618148432</v>
+        <v>31.29885358020302</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.74945158731783</v>
+        <v>35.08003298650884</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>30.3073204632465</v>
+        <v>34.86629987715091</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>18.47359951315624</v>
+        <v>23.52743233272034</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>23.25046859733578</v>
+        <v>31.3683267501706</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>31.90641421212806</v>
+        <v>35.39974417110009</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>22.27401305864166</v>
+        <v>23.39952471642358</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>32.58583355391962</v>
+        <v>30.07909654514853</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>31.67962046850916</v>
+        <v>30.41545220623391</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>7.744529146430803</v>
+        <v>11.45038383746697</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>35.81128126867155</v>
+        <v>31.45595280115032</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.84302965351209</v>
+        <v>31.25757496946032</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>7.885521595131571</v>
+        <v>11.63190380045134</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>51.15685554699202</v>
+        <v>42.42069113253343</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>6.044772615258395</v>
+        <v>11.81480300548174</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>8.494884649245606</v>
+        <v>16.98956820826118</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>17.26694225425787</v>
+        <v>23.42729562800228</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>3.842824131882445</v>
+        <v>9.379088656010651</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>20.98830443355664</v>
+        <v>25.22384367350744</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>22.96362018564089</v>
+        <v>26.50533312483585</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>8.229558427798693</v>
+        <v>12.71522622046879</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>30.20336746382988</v>
+        <v>33.34364390914364</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>32.07416923620689</v>
+        <v>35.05882136178361</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>29.11163549209063</v>
+        <v>34.50338541779625</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.85964356743637</v>
+        <v>35.85863501793558</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.71957050373703</v>
+        <v>41.9658587031568</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>11.05282757071548</v>
+        <v>13.10531822414007</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>17.627530561087</v>
+        <v>23.31030466928108</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>27.45058190160583</v>
+        <v>30.33105348903622</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>18.56980708738323</v>
+        <v>18.42461641926411</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>31.41211176320929</v>
+        <v>28.76422500502206</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>31.21621238134555</v>
+        <v>29.73472779415858</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>7.311900928527912</v>
+        <v>11.04007438427434</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.157937204893</v>
+        <v>29.09268169409383</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.71027182599042</v>
+        <v>31.13308585925284</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>9.949704600355947</v>
+        <v>13.16584773828859</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>51.48925160110384</v>
+        <v>41.87850378898364</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>3.427143031994508</v>
+        <v>9.656039974205996</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>4.853049825911434</v>
+        <v>13.30021825035121</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>17.13351005407641</v>
+        <v>21.38445765437883</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>3.535901673495886</v>
+        <v>9.561099237971252</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>20.85901215577066</v>
+        <v>23.42423342024279</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>25.49207864080803</v>
+        <v>28.04752434654217</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>2.386371415655063</v>
+        <v>9.527011990359597</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>25.47498288977153</v>
+        <v>29.53431551516236</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>31.32339199832988</v>
+        <v>34.06683491862758</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>24.72877160133221</v>
+        <v>32.013528963488</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>27.62430420957249</v>
+        <v>33.57189976942846</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>34.4945932685803</v>
+        <v>38.8616486899869</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>5.938833792508479</v>
+        <v>9.633763390908339</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>11.80253332889822</v>
+        <v>18.49739277569146</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.99946633940988</v>
+        <v>33.07857866000465</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>14.38084279058645</v>
+        <v>15.34353053436918</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>29.98394978522214</v>
+        <v>27.2114120912852</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.256729376403</v>
+        <v>29.32612926331803</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>6.597282868590998</v>
+        <v>11.26278084278173</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>31.45832930763241</v>
+        <v>27.2977216679576</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.80919741356728</v>
+        <v>29.84998816979532</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>5.174378733288719</v>
+        <v>10.52703300302716</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>44.07225840651864</v>
+        <v>36.50985043384603</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>33.86868034480237</v>
+        <v>29.96825118203587</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>24.8609765716425</v>
+        <v>23.81555706597792</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>42.91466890548501</v>
+        <v>35.75209495986254</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>42.10162858308716</v>
+        <v>36.39688528410832</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>16.21206342524392</v>
+        <v>16.54519231924262</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>26.99195134681081</v>
+        <v>24.26540636376455</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>32.62056326617576</v>
+        <v>29.59756863957126</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>18.01045989807252</v>
+        <v>18.51514943729283</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.54313400503058</v>
+        <v>25.20754305869506</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>39.84885939310287</v>
+        <v>33.80234072262957</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>5.955279428949755</v>
+        <v>10.58794491126845</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>16.24833194160558</v>
+        <v>16.20780263433892</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>22.14871551444841</v>
+        <v>21.3962967444695</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>7.012956077207875</v>
+        <v>11.08729854222949</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>32.6220010996982</v>
+        <v>25.95743444079461</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>48.92416411722783</v>
+        <v>40.79142806368832</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>27.21033018946805</v>
+        <v>26.67069015770764</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>49.99204179633706</v>
+        <v>42.53225972731927</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>53.6788535737978</v>
+        <v>45.59806243491055</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>13.30902572096925</v>
+        <v>14.95269618360838</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>30.00262469681301</v>
+        <v>24.82332179476873</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>37.96349742784607</v>
+        <v>32.95416141078513</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>51.18730038508603</v>
+        <v>44.60898446769837</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>51.57719279188466</v>
+        <v>43.47945221713531</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>57.35365351721397</v>
+        <v>47.52405346898567</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>55.91822581196577</v>
+        <v>48.31789134966259</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>28.67505654762477</v>
+        <v>25.67944583261453</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>53.30890023804402</v>
+        <v>45.04506190424743</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>51.25425677847577</v>
+        <v>44.81693810148656</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>23.29140075153475</v>
+        <v>24.93531595652842</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>7.895001477059708</v>
+        <v>11.86844718654845</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>45.82708056530127</v>
+        <v>38.68143250343569</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>45.48058261301449</v>
+        <v>40.81791344324974</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>9.28126374802588</v>
+        <v>12.53775816756705</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>62.54245003180745</v>
+        <v>51.74589864733025</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>66.78275716548774</v>
+        <v>55.8585972213159</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>66.09144228634381</v>
+        <v>55.28568861234582</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>73.4536791541792</v>
+        <v>60.95472318522783</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>75.72091847795792</v>
+        <v>63.31722427050666</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>32.11879269211396</v>
+        <v>30.28523630791243</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>71.17952658260987</v>
+        <v>58.34047284721284</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>70.55579819667273</v>
+        <v>58.7158443655657</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>55.1186719115756</v>
+        <v>47.18240691010654</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>49.59610078269861</v>
+        <v>41.57343976959149</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>52.41930161042227</v>
+        <v>43.83508484155142</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>55.67722010177705</v>
+        <v>47.57842420369423</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>22.48037607529448</v>
+        <v>19.77613382732469</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>50.89656325537305</v>
+        <v>42.20337805940981</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>50.44459404571774</v>
+        <v>44.19183361401042</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.9876114428441</v>
+        <v>18.85257159610833</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>32.43447170879318</v>
+        <v>30.62396533395936</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>42.34964205902535</v>
+        <v>37.58230966383999</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>6.370963564469719</v>
+        <v>10.81758159996605</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>44.06340514674552</v>
+        <v>36.83696392470429</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>46.2637360256219</v>
+        <v>39.63401837230586</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>9.930757859296063</v>
+        <v>13.18672065172058</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>64.56542601744565</v>
+        <v>51.79446061600675</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>70.69647044224257</v>
+        <v>58.32514748718116</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>68.53978945315237</v>
+        <v>56.41087226761946</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>74.72302200520693</v>
+        <v>61.30461785685189</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>78.34323227050501</v>
+        <v>64.9293985364308</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>22.47733919747306</v>
+        <v>19.5793589679793</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>71.71397941863162</v>
+        <v>57.3383431532134</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>74.27770936350142</v>
+        <v>60.41959562293179</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>49.34104816270317</v>
+        <v>42.15248861073971</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>35.27905854550125</v>
+        <v>30.19690714731718</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>40.05634972050554</v>
+        <v>34.14234993686449</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>43.34648885725849</v>
+        <v>36.90224060804633</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>16.69622744296342</v>
+        <v>16.36860116675066</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>46.7700063875634</v>
+        <v>38.46404779547747</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>47.11505076750493</v>
+        <v>40.97051064606551</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.07088849846311</v>
+        <v>16.81409679090196</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>33.61287662792056</v>
+        <v>30.42892874082071</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>45.83029041324393</v>
+        <v>39.34748011822573</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>7.859006876729975</v>
+        <v>11.71722535683049</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>43.58555480919753</v>
+        <v>35.45155310899545</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>47.61145250285709</v>
+        <v>40.5669920191558</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>7.850452167321386</v>
+        <v>10.64817379790639</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>61.27339771857223</v>
+        <v>49.25709164480002</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>71.21655851020142</v>
+        <v>58.10190576209258</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>63.56310975641789</v>
+        <v>52.53721021266968</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>76.37255285115415</v>
+        <v>60.7088291076321</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>81.80908716891548</v>
+        <v>66.26350907314981</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>17.73301504167996</v>
+        <v>16.46845213533083</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>69.18235885205232</v>
+        <v>55.82856455384825</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>75.71992532487366</v>
+        <v>61.1471324334068</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.589</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.005</v>
+        <v>17.62</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.608</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.66</v>
+        <v>20.573</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.993</v>
+        <v>0.997</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.221</v>
+        <v>1.474</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>15.80528293610244</v>
+        <v>17.68747534239402</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.26959126085325</v>
+        <v>17.24661075572387</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>30.50911471552223</v>
+        <v>31.27696215258822</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2.021187988364087</v>
+        <v>3.736443361465277</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.32546487069992</v>
+        <v>24.66697603031879</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.3462247867243</v>
+        <v>29.30312843714078</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6.080283259137616</v>
+        <v>7.681346556330134</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44.02203835152748</v>
+        <v>44.58987336161594</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>45.24669450073547</v>
+        <v>45.95474356720671</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.21697259802268</v>
+        <v>18.27843795437195</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.96003810886447</v>
+        <v>21.03222643076156</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.69574908499792</v>
+        <v>20.76634088780095</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.36108804309485</v>
+        <v>16.21735751046453</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.85483824854602</v>
+        <v>18.49378211758533</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.44465134278163</v>
+        <v>47.81498685132412</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.9904466585592</v>
+        <v>14.27934216246327</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.9417655214667</v>
+        <v>25.00504204443384</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.48171487974732</v>
+        <v>33.06653906029469</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.270327848473688</v>
+        <v>4.947076057443894</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>10.32680948605752</v>
+        <v>12.12577533585231</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.94047490099711</v>
+        <v>15.3008262655022</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2.325271040430582</v>
+        <v>3.794985001474494</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.51470299128808</v>
+        <v>18.56257038886833</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>21.67114835630929</v>
+        <v>24.27598380781005</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.93205168150374</v>
+        <v>27.39515523406167</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>29.78279539524471</v>
+        <v>30.73221890899845</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.92739597979666</v>
+        <v>4.357162861071277</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>33.39612489555432</v>
+        <v>34.50640169978922</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.89497647982225</v>
+        <v>33.61182401309044</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.513037772719951</v>
+        <v>8.997998858533876</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.55397733404301</v>
+        <v>47.73237280084315</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>47.45213554492826</v>
+        <v>46.85186940552062</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>47.89504031544745</v>
+        <v>46.34367748836947</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>52.00652655162077</v>
+        <v>50.07625873575132</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.7190021401331</v>
+        <v>52.33208859543084</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.1658630728762</v>
+        <v>30.35324026786092</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>43.76722245269117</v>
+        <v>51.3513557531432</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>57.08858820948802</v>
+        <v>57.39220080362814</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>20.82397735237516</v>
+        <v>21.6594087321624</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>33.14696308711418</v>
+        <v>31.2795805095039</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>35.01221309845448</v>
+        <v>34.46307709626269</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>3.313005794973922</v>
+        <v>5.342378889625358</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.79213908959869</v>
+        <v>28.26124841962318</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.67823749537722</v>
+        <v>34.65022798635366</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.465719805807183</v>
+        <v>5.084237962517147</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>45.63026321502663</v>
+        <v>44.74713656149184</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.991800516049526</v>
+        <v>8.708812673656382</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.21080202332735</v>
+        <v>23.90409715929414</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.94158672282686</v>
+        <v>30.27502072920613</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.7238205461089251</v>
+        <v>3.346933042588297</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.91028718452675</v>
+        <v>35.46586519146224</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>37.41177956630499</v>
+        <v>38.44269811716897</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>9.154057949238052</v>
+        <v>10.51397637281164</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>50.41529780320191</v>
+        <v>52.0740029211828</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.07849084164993</v>
+        <v>55.24424762464332</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>58.44879253015313</v>
+        <v>59.04655507254422</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>60.05833783872218</v>
+        <v>59.75917517522065</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>63.75352133165542</v>
+        <v>64.14529174642507</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>10.50899905302222</v>
+        <v>9.997305946489671</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>34.05445416687861</v>
+        <v>37.31994299619035</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.68214991077122</v>
+        <v>48.69978344732235</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.28455613574533</v>
+        <v>13.08511510248139</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.44429837832451</v>
+        <v>30.8732212155462</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.71087054833677</v>
+        <v>33.39075960323053</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.786961860415005</v>
+        <v>4.64689176332071</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.0032986682465</v>
+        <v>26.83552282282801</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>38.2041451198236</v>
+        <v>37.92707422876033</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>4.652410307806718</v>
+        <v>6.708243693613024</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.94063391465245</v>
+        <v>44.97430157619506</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.380099641694819</v>
+        <v>6.878890269096033</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.56322917694457</v>
+        <v>16.58519660045546</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.77837755770481</v>
+        <v>26.00653697539547</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1.212635731883417</v>
+        <v>3.141146946665803</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>30.91572708702626</v>
+        <v>31.31967216944846</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>37.82103530686895</v>
+        <v>38.61358727405141</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>2.251263366988638</v>
+        <v>4.034400602069237</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>46.11590871797719</v>
+        <v>45.88087314296101</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>52.06115363237778</v>
+        <v>51.58366089815802</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>47.47117822616175</v>
+        <v>48.78451419152049</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>49.52934182820555</v>
+        <v>50.91523812716257</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>57.56693510698928</v>
+        <v>58.16483198114007</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6.738708663629065</v>
+        <v>7.827015537839845</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>23.48577086544146</v>
+        <v>27.10046361969219</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>51.33765679543723</v>
+        <v>52.441063829832</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>7.364660391970908</v>
+        <v>8.926330490544615</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.69396793575902</v>
+        <v>26.75099587814029</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.98545698948109</v>
+        <v>34.41523008520213</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.998469844437928</v>
+        <v>5.006524889682012</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>24.20832666918978</v>
+        <v>25.30632428652056</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.29584734081645</v>
+        <v>37.73244767557905</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.602463168149185</v>
+        <v>3.386034779362085</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.61704867171996</v>
+        <v>38.47637751124643</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.40823092356347</v>
+        <v>23.32919252428061</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>18.32246389878357</v>
+        <v>19.2821728031924</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.05305945793302</v>
+        <v>32.24548529379944</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.69721101123152</v>
+        <v>35.36395647651748</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>5.99942292936538</v>
+        <v>7.696990979627476</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>13.42085808533725</v>
+        <v>14.96105109440647</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.15195021159932</v>
+        <v>21.18258669260398</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.17813778995615</v>
+        <v>11.2535001818027</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.45383540229872</v>
+        <v>21.23033616060707</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.75320902424416</v>
+        <v>33.09067616526224</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>1.728474435173005</v>
+        <v>4.381004051914527</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.867708526162783</v>
+        <v>9.939090020174476</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>13.32616402016251</v>
+        <v>15.1163714525135</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>2.794654283800678</v>
+        <v>4.34404030533431</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>17.34140111448414</v>
+        <v>18.82961495901999</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>37.06174241129673</v>
+        <v>36.86494819281256</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.30676509357487</v>
+        <v>21.37845864684309</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.74229360286755</v>
+        <v>40.92393159874643</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>47.81895615577345</v>
+        <v>46.88997625452916</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>4.140382848610606</v>
+        <v>6.20770178857736</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.69093923635521</v>
+        <v>18.07872436778892</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.67964784663202</v>
+        <v>28.18060062108678</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>54.9753355873047</v>
+        <v>53.27978111997196</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>53.27480840006761</v>
+        <v>51.84207658816541</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>60.25512259636221</v>
+        <v>58.2454769786295</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>61.01367244926017</v>
+        <v>58.08635057424934</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>21.28444407095413</v>
+        <v>23.16278092288247</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.53080908549073</v>
+        <v>53.91634603552788</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>59.35765998801158</v>
+        <v>57.68159679343415</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>24.90031771092932</v>
+        <v>27.56230275617832</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.38046475934746</v>
+        <v>36.67400280969227</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.91121911530325</v>
+        <v>41.96654482985153</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4.615493042288758</v>
+        <v>6.276530709064367</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.88230110552936</v>
+        <v>38.57671573866921</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>43.42830628815926</v>
+        <v>42.5164966527872</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.979599115264769</v>
+        <v>8.088717463754577</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>62.26303702970114</v>
+        <v>59.70288774894218</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>66.18792508309255</v>
+        <v>64.28458135305078</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>77.84981496261683</v>
+        <v>74.08662294733946</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>80.913833979713</v>
+        <v>78.01084141098707</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>83.19162719973426</v>
+        <v>80.01550507796642</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.16898476507</v>
+        <v>31.29686963396939</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>72.9534533548877</v>
+        <v>70.34561274515484</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>77.17078670375692</v>
+        <v>74.28923398606855</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>58.02837279555088</v>
+        <v>56.31551129565624</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.30447925271193</v>
+        <v>44.19569226240618</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>50.31502962359</v>
+        <v>49.3792493951739</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>59.77952644688968</v>
+        <v>57.11879694420112</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>9.367513904251911</v>
+        <v>11.22942585754361</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>51.11915694888286</v>
+        <v>50.29539456146524</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.15051403407532</v>
+        <v>56.41774409902978</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>13.53460847538068</v>
+        <v>14.88661714794006</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.64873796623738</v>
+        <v>34.58593834150129</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>41.67068148081879</v>
+        <v>40.90755509582431</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.280681900123454</v>
+        <v>5.077489562904944</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.50891323964792</v>
+        <v>39.00161802972955</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.545560940405</v>
+        <v>45.54979451450616</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>6.994361431231823</v>
+        <v>8.783688032206982</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.95342728299231</v>
+        <v>61.02733061191323</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.62937403814099</v>
+        <v>69.02189435933326</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>77.43045095555998</v>
+        <v>74.66184986911874</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>78.92642297834502</v>
+        <v>75.43190189619335</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>86.47635384782913</v>
+        <v>82.78978931520285</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13.431762645235</v>
+        <v>13.39126354838695</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>66.80298400088537</v>
+        <v>64.89514008114074</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>79.84009502931447</v>
+        <v>76.56329751239463</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>56.89180211237291</v>
+        <v>54.73596103674722</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.19993021800818</v>
+        <v>26.2772565054898</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.98983277736671</v>
+        <v>33.66291253607299</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.88890699663094</v>
+        <v>43.22311264383076</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>6.015607578954011</v>
+        <v>7.928712532068005</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>47.3054139161198</v>
+        <v>46.6304345472096</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>57.69880612502857</v>
+        <v>55.70289356748562</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>9.167745656240719</v>
+        <v>10.61060821874633</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.29843001653483</v>
+        <v>33.18790310487555</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.00116074369582</v>
+        <v>43.38886265925851</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>3.554078073612239</v>
+        <v>5.315322222175919</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.13116085692322</v>
+        <v>34.32323792455169</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.31695420617045</v>
+        <v>46.80267290396176</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>1.512312088351869</v>
+        <v>3.615564246746054</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.84434034705099</v>
+        <v>51.28114378309449</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.16581552752345</v>
+        <v>69.20921593579257</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>57.96166011524777</v>
+        <v>56.37265147300681</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>66.73039294243307</v>
+        <v>65.01858032142469</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>86.99357555737824</v>
+        <v>83.54888782443103</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>5.600643744607861</v>
+        <v>7.537741496344637</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>55.05101701653285</v>
+        <v>54.65775622543424</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>76.44910820086908</v>
+        <v>73.16208104388221</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.90423654655887</v>
+        <v>15.79247669800327</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.11722991979464</v>
+        <v>18.63381331211101</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.82228686820138</v>
+        <v>27.74554441977379</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>1.280913723650222</v>
+        <v>4.93322798460505</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>21.11417494381591</v>
+        <v>20.61575950201663</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>24.00319942399539</v>
+        <v>22.82788824828354</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.710072027900697</v>
+        <v>9.45954015737782</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>42.16181510556022</v>
+        <v>37.60325239685319</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.02236742134797</v>
+        <v>39.29863351733892</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>20.48252104050003</v>
+        <v>21.17337937793857</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>25.86320068083139</v>
+        <v>26.17174756908148</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.69218735048551</v>
+        <v>25.9887669105715</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>20.1863194770923</v>
+        <v>19.73863220906346</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.8518050884813</v>
+        <v>19.50113895137965</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>42.76316558684438</v>
+        <v>37.98409754644394</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>9.567570584201441</v>
+        <v>12.44295276123315</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.014746604825</v>
+        <v>24.72999441288977</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>29.05139116893277</v>
+        <v>28.53517486977183</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-1.417218036671237</v>
+        <v>4.07194930009349</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.656497774692095</v>
+        <v>11.68712849405087</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>13.68564635247299</v>
+        <v>15.95691807185419</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>0.5634269565120924</v>
+        <v>4.74095641834899</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.82616824194583</v>
+        <v>25.12977128796849</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>16.88324134775424</v>
+        <v>17.87961868989839</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.58159136387021</v>
+        <v>23.96307566724956</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.23699468422199</v>
+        <v>27.88034129265558</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1.498110456249769</v>
+        <v>5.340502422497607</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>31.44151180695557</v>
+        <v>30.16664215080054</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>32.33287663916776</v>
+        <v>30.88339279640778</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>7.152719564441657</v>
+        <v>9.762057670798768</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>47.48414536189218</v>
+        <v>43.32623469782399</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>49.2261834419717</v>
+        <v>44.70831013711607</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>47.67163864994512</v>
+        <v>43.71793425517586</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.38381614928861</v>
+        <v>48.57063925441338</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>53.65042263160522</v>
+        <v>48.94699863220741</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.16036149184722</v>
+        <v>23.97942996742809</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>48.5809529288689</v>
+        <v>46.81852695281471</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54.76345797469116</v>
+        <v>49.59410552828678</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.3781327293162</v>
+        <v>18.82509571244242</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>31.15762325325488</v>
+        <v>30.1374598163367</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>34.68811698414023</v>
+        <v>33.1258459436869</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>0.02589898403260449</v>
+        <v>4.243969350723258</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.41993801307738</v>
+        <v>30.08251025555685</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.02001151662918</v>
+        <v>31.97781425474128</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.297412171268881</v>
+        <v>5.777724095303352</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>49.83892873009385</v>
+        <v>45.90249694782531</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.557634954438694</v>
+        <v>8.643201755908262</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.28350791635863</v>
+        <v>19.16641583873525</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.49007779129508</v>
+        <v>25.84537097325626</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>0.006335294241193168</v>
+        <v>4.341183107840884</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>30.21419625612653</v>
+        <v>29.08227276685006</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>32.62927855687783</v>
+        <v>31.07855008341649</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>5.866268492392972</v>
+        <v>8.956587982039075</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>45.78470231483446</v>
+        <v>42.04147968448922</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>52.28312718613282</v>
+        <v>47.35735463306509</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>52.07880074745692</v>
+        <v>47.64519681962706</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>54.53301675243449</v>
+        <v>49.41922232845828</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.28711237799543</v>
+        <v>55.92307238725703</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>6.534990684144312</v>
+        <v>8.403367443811597</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>32.76972526689512</v>
+        <v>31.45665115664285</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>41.62683715259369</v>
+        <v>38.37140886275413</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.264053208631228</v>
+        <v>10.60543054753409</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.88714643425818</v>
+        <v>27.99134502947168</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.63148454962975</v>
+        <v>31.11497730321846</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-0.8366358247428494</v>
+        <v>3.850190380906717</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.66101953264362</v>
+        <v>25.42685055960223</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>35.02332778566527</v>
+        <v>33.85026565783478</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>3.318578906293787</v>
+        <v>6.819100113167231</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>45.39623417594261</v>
+        <v>41.71214156635191</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3.012300426827551</v>
+        <v>7.155743847239805</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>13.05269004515745</v>
+        <v>15.56867416808579</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.10983923802143</v>
+        <v>24.77015565187076</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.03463233574973756</v>
+        <v>4.398672592101843</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>27.87368678978258</v>
+        <v>26.11646406996685</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>35.10602965920161</v>
+        <v>32.51825673960033</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>1.021021117967212</v>
+        <v>5.024427629981641</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>42.87805629144515</v>
+        <v>38.84257141335441</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>51.1007395321105</v>
+        <v>45.74541058017516</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>50.3837198809069</v>
+        <v>44.61648647768322</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>53.66010052834393</v>
+        <v>47.56636816902372</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>59.59929982444112</v>
+        <v>52.82339632430919</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>3.09571880659405</v>
+        <v>7.348094979513334</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.16929235683054</v>
+        <v>26.96748576811704</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>45.62522328933952</v>
+        <v>41.55294229333099</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.160156201446622</v>
+        <v>8.390021401632282</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.65957679657614</v>
+        <v>24.44654947969104</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>31.33918586925871</v>
+        <v>30.323428954308</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-0.4073867875822046</v>
+        <v>3.98548369869297</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.9781716420185</v>
+        <v>21.80114729646871</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>31.46665445358994</v>
+        <v>30.73914893835923</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>0.8548918674258772</v>
+        <v>4.537136586430012</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.46587524736232</v>
+        <v>33.96156852054563</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>27.0806244429278</v>
+        <v>26.22599039466878</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>21.43807286712393</v>
+        <v>22.0994640683039</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>37.51765479193232</v>
+        <v>35.35934649819541</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>38.05498150254702</v>
+        <v>35.94753649861129</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.679460830092964</v>
+        <v>10.90593000703529</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>18.55344864477769</v>
+        <v>19.12177016647635</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.40335608341818</v>
+        <v>25.67417121544955</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.8258466601573</v>
+        <v>14.03605348358052</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.78790532410928</v>
+        <v>24.98651772892132</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>35.85268028089471</v>
+        <v>34.19535682257345</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-1.578304896059052</v>
+        <v>3.199598621633239</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>8.133325062680949</v>
+        <v>10.63625736560041</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>17.35246575464598</v>
+        <v>18.47600244090743</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>1.423761161486023</v>
+        <v>4.995862138650288</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>25.462324624264</v>
+        <v>24.7646938578511</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>48.86415587655453</v>
+        <v>43.84634124949812</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.49554401801441</v>
+        <v>25.34315542632298</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.14818100496733</v>
+        <v>42.04736998424556</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>52.86629214460197</v>
+        <v>48.29235434165811</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>7.066470791841883</v>
+        <v>9.855388104854949</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>23.36990430030754</v>
+        <v>22.94937104977703</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>38.68661797479236</v>
+        <v>36.08753971625397</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>56.41595039431805</v>
+        <v>51.61927120262695</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>51.86607548641703</v>
+        <v>47.06509962645775</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>59.70393187109414</v>
+        <v>54.50019133972124</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>57.37960591474484</v>
+        <v>52.43445559676871</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.42326287498382</v>
+        <v>20.28057441710782</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>55.33003887224229</v>
+        <v>50.22424485604799</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>58.56142181858888</v>
+        <v>53.36188230659243</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>23.312411952738</v>
+        <v>24.31281825838289</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.55697944222361</v>
+        <v>35.19589087654084</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>43.73609954442776</v>
+        <v>41.44837982759685</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>0.9782265677417534</v>
+        <v>5.064213179667345</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.82171460332818</v>
+        <v>40.21708707320885</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.57579270141734</v>
+        <v>41.77202724803472</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>5.576917350399754</v>
+        <v>8.66224290355882</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.16364662866592</v>
+        <v>59.14394475920206</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>68.82964072097469</v>
+        <v>62.70253850558498</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.34269278581964</v>
+        <v>67.15605248626002</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>78.20124130567913</v>
+        <v>71.28746604834048</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>82.34599381692293</v>
+        <v>74.71050639474645</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.97539840897204</v>
+        <v>29.02681147191257</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>74.34729682247752</v>
+        <v>67.56500049234728</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>77.10326571991212</v>
+        <v>69.66542095410014</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>57.56145587166348</v>
+        <v>53.05964022284303</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>46.59837453108641</v>
+        <v>42.84731249500344</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>50.55460397597673</v>
+        <v>46.7734176180864</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>58.37656580727501</v>
+        <v>53.58373400734326</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>8.454030800801885</v>
+        <v>10.76875406607434</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>48.46852739317148</v>
+        <v>45.16932156265919</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>55.48553830893906</v>
+        <v>51.25899415180659</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>11.28527832977947</v>
+        <v>13.70415927774329</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.37488910762035</v>
+        <v>32.48855806666466</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>42.05356438702127</v>
+        <v>39.85740267950553</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-1.015741464871503</v>
+        <v>4.072455082940646</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>37.46579916902965</v>
+        <v>35.55352771272511</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>44.8719786707691</v>
+        <v>42.25148573367205</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>5.242087118865811</v>
+        <v>8.973409210113399</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>60.7821875632286</v>
+        <v>55.40378762062345</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>71.73363444038883</v>
+        <v>65.02879419408265</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>70.79067939009479</v>
+        <v>64.147335939626</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>76.61652879631059</v>
+        <v>69.48925990939041</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>86.04432479261862</v>
+        <v>77.66067756032834</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>11.80515209267723</v>
+        <v>14.06131250553723</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>71.204396876356</v>
+        <v>64.28497044033142</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>78.01708026917325</v>
+        <v>70.45852550316835</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>51.42897642132893</v>
+        <v>47.50290140732718</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.89531038085537</v>
+        <v>26.37366861275878</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>33.51558081271851</v>
+        <v>31.90928524789252</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>39.94694333311216</v>
+        <v>38.02734721718528</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>5.727965329171123</v>
+        <v>9.1114384002645</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>42.18706011586589</v>
+        <v>37.89979453803089</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.62955503530628</v>
+        <v>46.56789171156491</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.940230367584292</v>
+        <v>10.86305524051015</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>31.76246771189822</v>
+        <v>30.56480547425038</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>43.57093143358921</v>
+        <v>41.04183418682343</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-0.1259199027003888</v>
+        <v>4.287410689267475</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.92713493784849</v>
+        <v>33.07593603112586</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>44.41095402696594</v>
+        <v>41.51947700456801</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>1.402004006987269</v>
+        <v>5.46148306591126</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>55.98954501706753</v>
+        <v>50.64304136460262</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>71.69130830903985</v>
+        <v>63.91946391545463</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>60.52288401060594</v>
+        <v>54.42227478637946</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>73.18759700818123</v>
+        <v>65.56048830525319</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>84.39283891179915</v>
+        <v>75.91319501180269</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.394514514426927</v>
+        <v>10.00742629586919</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>67.11369585245335</v>
+        <v>59.44375810983209</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>78.68699246156227</v>
+        <v>70.65583929953891</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.101372486557221</v>
+        <v>10.78018446624912</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>10.40078173580282</v>
+        <v>13.2481658269708</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.09782416282463</v>
+        <v>20.91179454731476</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-0.08444673245746159</v>
+        <v>3.138997860556522</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>12.05352932108991</v>
+        <v>14.0161076730706</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>13.12620249570752</v>
+        <v>15.10201157780876</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.104217733827944</v>
+        <v>6.718561260341698</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.65668422002115</v>
+        <v>26.31912569219273</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.92823951837106</v>
+        <v>28.2847471126178</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>12.76620927818057</v>
+        <v>14.64925392030995</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>16.92957523063032</v>
+        <v>19.00150338690512</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>16.55052643057153</v>
+        <v>18.60684929477913</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>14.4166338001956</v>
+        <v>15.04358414250396</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.01693911790284</v>
+        <v>13.65414211813877</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.29257240441091</v>
+        <v>27.08156976700505</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>9.253772967061714</v>
+        <v>11.90658818322533</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>25.2813996219716</v>
+        <v>24.74514755777346</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>29.1973611246557</v>
+        <v>28.55211839359647</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.185510149638134</v>
+        <v>2.758002505505722</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>8.65980168916408</v>
+        <v>10.41696827491108</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>15.06594651524039</v>
+        <v>16.26194616479911</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.4154070506253902</v>
+        <v>3.689702466187534</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>27.1439740904236</v>
+        <v>25.90980772318579</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>11.36235210056047</v>
+        <v>12.96197861155378</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>17.22472238353163</v>
+        <v>18.94536673247504</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.56995948681999</v>
+        <v>21.68449057933927</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.3185320762569646</v>
+        <v>3.022621095882577</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>23.984363260008</v>
+        <v>24.27152937614077</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.04019452836088</v>
+        <v>25.15161043071573</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>3.736673407959898</v>
+        <v>6.5258313858509</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.92301064074612</v>
+        <v>35.34292714951687</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.72954474880218</v>
+        <v>36.12590413015781</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.80172148943353</v>
+        <v>35.3037823240748</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>44.04529331276134</v>
+        <v>41.32400935853908</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>44.3687177541883</v>
+        <v>41.82602806583515</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>15.98289622506204</v>
+        <v>17.77817447252716</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.81795966647248</v>
+        <v>37.2683574734378</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>41.45027847188003</v>
+        <v>39.86458306968899</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.54965606521091</v>
+        <v>17.94791282433393</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>32.03394675113613</v>
+        <v>30.72230727809318</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>35.12719770823264</v>
+        <v>33.43764737013143</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-0.8767146351100514</v>
+        <v>2.929883863626905</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>32.54776305381088</v>
+        <v>30.87535621933983</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>35.62915870047822</v>
+        <v>33.82153426539055</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.344976396301025</v>
+        <v>4.436559681508822</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>52.53872048924244</v>
+        <v>48.17506785643333</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>3.15893185544191</v>
+        <v>6.264468467320508</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.15334395965117</v>
+        <v>14.64657179515852</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.1957459504576</v>
+        <v>21.64152594997533</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-1.220835142437796</v>
+        <v>2.616282161730282</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>22.85398336598049</v>
+        <v>23.1065093352232</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.7221756478918</v>
+        <v>24.86674445020599</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>4.983446765452925</v>
+        <v>7.616188860716029</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>37.61185790381957</v>
+        <v>35.86307349401169</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>42.24233949466353</v>
+        <v>39.91515115528956</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>40.72077297493519</v>
+        <v>38.85496334157572</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>43.38605256025552</v>
+        <v>40.7794040623857</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>54.4734638085736</v>
+        <v>50.1118805474915</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>3.563124123615037</v>
+        <v>5.551155761647511</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.17534227946542</v>
+        <v>24.24634160765947</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>31.11576582133822</v>
+        <v>30.49850243414236</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.962528479139642</v>
+        <v>11.43335295395455</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>31.00571512459707</v>
+        <v>29.15327693585736</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>34.25965550594763</v>
+        <v>31.96222323366841</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-1.136997122419011</v>
+        <v>2.637842105052986</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.42788048333228</v>
+        <v>27.3064762799549</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>35.96830119882327</v>
+        <v>34.36220816036032</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>4.076364960355583</v>
+        <v>6.5485096372805</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>50.79756355812759</v>
+        <v>46.1958335843785</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>0.6069252217010543</v>
+        <v>4.784692629010991</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>8.013925361263087</v>
+        <v>10.97336564473168</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.12636081188999</v>
+        <v>20.57453167937766</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-1.632968166534297</v>
+        <v>2.738449979244152</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>16.83228288658338</v>
+        <v>17.62793557986778</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>27.32899982240651</v>
+        <v>26.66148875782317</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.6483778337353563</v>
+        <v>3.104709931023596</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.20940002855238</v>
+        <v>29.36254559761453</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>40.38397759950661</v>
+        <v>38.12183618180232</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>35.13380838380612</v>
+        <v>33.32208015216748</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.86097599536182</v>
+        <v>36.49648931929499</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>48.05818558300007</v>
+        <v>44.48430233391829</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>0.6086829563022214</v>
+        <v>4.595948064962446</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>19.54335444920872</v>
+        <v>20.47619594630554</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.15211848258416</v>
+        <v>34.46335993828725</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.338972024192845</v>
+        <v>8.625920208964839</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>27.20632757244972</v>
+        <v>26.13433572575831</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>32.38252685587715</v>
+        <v>30.82695062855246</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-0.9701742577154278</v>
+        <v>2.701003173568928</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>24.16737990674058</v>
+        <v>23.45592796772372</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>32.79861358110715</v>
+        <v>31.44418955759969</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.1566571639936356</v>
+        <v>3.154156180196679</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>40.100690904771</v>
+        <v>36.80882570757829</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>31.12970732305099</v>
+        <v>29.15793683564527</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.61351069194828</v>
+        <v>22.57979298468947</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>39.72463414703508</v>
+        <v>37.0257186645108</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>39.87589681412875</v>
+        <v>37.31659069881209</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.473146619263765</v>
+        <v>10.03712470066554</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>21.31152296708744</v>
+        <v>20.80992257464801</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>29.7852475396668</v>
+        <v>27.98935708398411</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>13.18166580490153</v>
+        <v>14.70038381747003</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.42026553364409</v>
+        <v>26.14013076213245</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>38.60172276071488</v>
+        <v>36.39385555483972</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-2.418608897598315</v>
+        <v>1.583091055983232</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>6.76353654549548</v>
+        <v>9.016006596492698</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>15.14315171450666</v>
+        <v>16.28419768658769</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.530102879903108</v>
+        <v>3.53811762654103</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.65983406665175</v>
+        <v>24.2439472866881</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>48.00672106769662</v>
+        <v>43.87945717665028</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>27.43954861393359</v>
+        <v>26.62442550146979</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>48.4412861150778</v>
+        <v>44.92116380582687</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>54.27843662630811</v>
+        <v>49.83703796491828</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>6.481306467908535</v>
+        <v>9.069686337565095</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.60052882714882</v>
+        <v>22.41601700136563</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>37.53161328841198</v>
+        <v>35.2343515031335</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>57.92475572830939</v>
+        <v>53.36382415433633</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>54.13211886655758</v>
+        <v>49.45188431866773</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>60.90757904956455</v>
+        <v>55.9916886938843</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>60.30078130372198</v>
+        <v>55.47622069323588</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.46650784889668</v>
+        <v>19.35378262375481</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>57.73737097275542</v>
+        <v>52.64555592521443</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>60.71876162538196</v>
+        <v>55.49004008729786</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.54505454487698</v>
+        <v>23.76624286622514</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>37.86528655222325</v>
+        <v>36.23886646789817</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>46.45920343046505</v>
+        <v>43.74853045131228</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>0.02712274564048656</v>
+        <v>3.623261118409822</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.69223539633515</v>
+        <v>42.63561264310265</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>48.75075505015738</v>
+        <v>45.32725891130002</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>4.068722209332829</v>
+        <v>6.965586574905274</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>69.54135027801249</v>
+        <v>63.0594541431446</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>72.59153896397171</v>
+        <v>66.55514557858294</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>78.1378140462965</v>
+        <v>70.85529128550786</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>82.5271795424907</v>
+        <v>75.43884651990817</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>85.57843230467398</v>
+        <v>78.44082079712871</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>29.79675775976132</v>
+        <v>28.78662016961068</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>79.02222771141808</v>
+        <v>72.05990395209206</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>81.54470229909825</v>
+        <v>73.82159325069436</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>61.45018395506173</v>
+        <v>56.43143748459728</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>50.63651619245697</v>
+        <v>45.95412804771779</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>55.26845017394034</v>
+        <v>50.41885362030418</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>61.29778787708429</v>
+        <v>55.66847271752937</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.22478683421366</v>
+        <v>12.42884825094845</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>53.06512663603166</v>
+        <v>48.71329205710461</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>59.39541563688394</v>
+        <v>54.37877509897379</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.3459259963341</v>
+        <v>14.88540125126403</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.65411879879042</v>
+        <v>34.28749263835864</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>45.38510444172573</v>
+        <v>42.81189709942707</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-1.70383422893422</v>
+        <v>2.900042283266082</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>42.11338276570217</v>
+        <v>39.17192044215243</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>46.5986971850009</v>
+        <v>43.81329006570887</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>4.695357464338031</v>
+        <v>8.154482785329673</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>68.72004414618029</v>
+        <v>62.2674283710561</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>76.3610612325092</v>
+        <v>69.69038020407918</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>77.6988952704544</v>
+        <v>70.25464719550638</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>83.49611391371727</v>
+        <v>75.64743339396007</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>89.5506236976356</v>
+        <v>81.22902485027285</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>12.42871230961625</v>
+        <v>14.09348088856812</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>78.26867919380088</v>
+        <v>70.52487319285305</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>83.57738937508917</v>
+        <v>75.49947749855801</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>53.87636647920097</v>
+        <v>49.44638104544677</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>31.39426002179506</v>
+        <v>29.71314228297252</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.29011630918656</v>
+        <v>35.2025352831865</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>44.64212335458591</v>
+        <v>41.37311195735273</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.535414687987767</v>
+        <v>9.872887771619911</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>43.98586004658442</v>
+        <v>38.28915462745393</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>52.30666621255023</v>
+        <v>47.54973108098307</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>8.931447331140454</v>
+        <v>11.27997686933389</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>33.88056172231263</v>
+        <v>32.12583606084991</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>45.92594817192968</v>
+        <v>43.08055359840586</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-0.9556280876615979</v>
+        <v>3.022255975305121</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>38.42722090139635</v>
+        <v>35.87801221349054</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>45.82063300039122</v>
+        <v>42.97793685977845</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>0.2404974524221153</v>
+        <v>3.930159265810957</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>62.24902101170164</v>
+        <v>56.16213990272968</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>74.87423117295411</v>
+        <v>67.34051718537688</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>67.91582420936554</v>
+        <v>61.08576405832559</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>80.05309426608126</v>
+        <v>71.87036140940708</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>88.73087577800864</v>
+        <v>80.51904411790022</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.070693959377991</v>
+        <v>10.11094724440198</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>74.43476047285002</v>
+        <v>66.1456348927328</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>82.38879189047883</v>
+        <v>74.56828005913903</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>14.14263754712831</v>
+        <v>16.92902649088921</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.69958414616048</v>
+        <v>16.97993858588242</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.36231706538052</v>
+        <v>26.10185018128198</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>4.644110359076279</v>
+        <v>7.928481113373042</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.57794754819123</v>
+        <v>20.74380691071265</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>21.84173456784529</v>
+        <v>23.83169765424266</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>8.042982374061125</v>
+        <v>11.13602975891103</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>31.73124189946243</v>
+        <v>33.33128395377556</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>32.21464806836391</v>
+        <v>34.60680664075139</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>14.61575161185782</v>
+        <v>16.83620455886784</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>16.74207674493618</v>
+        <v>19.4491639746941</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>17.28780633990783</v>
+        <v>19.59497018946853</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>13.61827658233631</v>
+        <v>18.01951549411624</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>12.62687003181992</v>
+        <v>15.95744639567451</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>27.54429473496387</v>
+        <v>30.85843983824024</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>11.02358436838118</v>
+        <v>13.76760180199453</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>18.87885742451199</v>
+        <v>21.06767173210843</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.99335987353184</v>
+        <v>29.9608160606169</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>8.719667688574024</v>
+        <v>11.78634939775372</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.55242530629724</v>
+        <v>15.41016483165018</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>15.74357051098688</v>
+        <v>18.04142139926991</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>3.96712666822766</v>
+        <v>7.230516201886115</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>12.69750574937595</v>
+        <v>16.50567070913684</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>19.03049268987734</v>
+        <v>21.60389465404957</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.70992746804828</v>
+        <v>25.0828649084395</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>25.58516515171603</v>
+        <v>26.85502337088452</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>4.406369400532629</v>
+        <v>7.961663159216553</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>29.63141610700947</v>
+        <v>31.08311827542999</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.93279848566682</v>
+        <v>30.95011416506382</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.933596843123475</v>
+        <v>10.94791999379144</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.1802949464544</v>
+        <v>38.97827808569166</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>38.33515851239487</v>
+        <v>37.97451779416598</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>40.65573726565889</v>
+        <v>40.36290509052489</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.91825518497649</v>
+        <v>44.32975863372964</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>44.80616496823983</v>
+        <v>45.07535955626961</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.53382986502488</v>
+        <v>26.7118018995008</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>37.81250227730994</v>
+        <v>41.39972377070423</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>44.77110658249583</v>
+        <v>44.63210024823211</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>16.56729877104274</v>
+        <v>18.60803332545302</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>24.23417756535952</v>
+        <v>25.26078059659206</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.99367107995853</v>
+        <v>29.37080552140147</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.820601002423867</v>
+        <v>12.04989116819838</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>24.19629335865623</v>
+        <v>25.17348274122112</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>30.63944595276957</v>
+        <v>31.85822285626687</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.09551714500819</v>
+        <v>34.62163444278347</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>10.98988068059928</v>
+        <v>13.1901502381348</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.6085019807532</v>
+        <v>23.87231526050554</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>27.28396994867605</v>
+        <v>28.67522231565598</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.38597372674932</v>
+        <v>7.02152392446553</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>30.4850978928491</v>
+        <v>31.81752288345488</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>33.99790881247596</v>
+        <v>34.59358808155584</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>10.16777399490397</v>
+        <v>12.69261220051502</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.22357005294185</v>
+        <v>43.85098181074636</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>45.65582609342798</v>
+        <v>46.15538174802911</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.67836237334355</v>
+        <v>46.42868916384283</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>48.65779609194939</v>
+        <v>47.98184302728609</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.68193527299644</v>
+        <v>51.16275491990248</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.25023398640532</v>
+        <v>14.82849684031944</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.71258658075148</v>
+        <v>35.72970263614813</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.78927586834503</v>
+        <v>42.20999940531482</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>11.97178724237089</v>
+        <v>14.71606323714323</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>24.58367727284316</v>
+        <v>26.58882265166701</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.00529683378197</v>
+        <v>29.21072622273572</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>8.448142037511339</v>
+        <v>11.68354823390822</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>23.04450726601537</v>
+        <v>25.35894421485111</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.09094158161867</v>
+        <v>34.83369801231661</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>6.868547241356509</v>
+        <v>10.0346262903213</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>35.52977765374101</v>
+        <v>36.4156476321969</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>6.867355339618172</v>
+        <v>10.1430817751436</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>14.25402663150879</v>
+        <v>17.10379814819018</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.20312351072734</v>
+        <v>23.94003982816514</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>3.286574085257943</v>
+        <v>6.947961668404744</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>27.34587165632801</v>
+        <v>28.31172257657957</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.37078564546037</v>
+        <v>33.92362059362598</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>3.705291199034381</v>
+        <v>7.345068292184234</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.06973128416173</v>
+        <v>37.41386622956424</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.21341798523316</v>
+        <v>42.00678682443957</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.62006914228744</v>
+        <v>36.99022102172864</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>35.85032817738145</v>
+        <v>38.7852842964127</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>42.28898217166134</v>
+        <v>44.3240650552746</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>9.069555064026527</v>
+        <v>11.04268368426041</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>22.99150454942639</v>
+        <v>27.03956355825184</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>44.11349644439308</v>
+        <v>43.63112435052534</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>8.071032914507857</v>
+        <v>11.22294204329879</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.6154548486022</v>
+        <v>23.41837314105777</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>27.76431534040109</v>
+        <v>28.90758776405909</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>8.875387213690612</v>
+        <v>11.841991127586</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>22.42425563826163</v>
+        <v>24.29587302651848</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>32.43610491100249</v>
+        <v>33.16412095812527</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>2.802802255616797</v>
+        <v>6.50320279268027</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>30.40962741346975</v>
+        <v>31.84488421106458</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>17.76530055308395</v>
+        <v>20.3107873715449</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>14.69674063376723</v>
+        <v>17.76718089218059</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>29.38527505378637</v>
+        <v>30.49230304967067</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.0721849490993</v>
+        <v>33.57230149438589</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>6.249968030253495</v>
+        <v>9.564589476783301</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.34620166530136</v>
+        <v>14.61469501166328</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>16.32952419592225</v>
+        <v>19.05259126683295</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.5563386171192</v>
+        <v>12.84145768865705</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>18.29983471116941</v>
+        <v>20.04996470870547</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.19555973282504</v>
+        <v>29.85638132166913</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>8.429405057227239</v>
+        <v>11.35387540533886</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>11.64629004437097</v>
+        <v>14.42781803879413</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>14.55325276818535</v>
+        <v>17.28303794379125</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>4.299642324432927</v>
+        <v>7.557548257430234</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>15.07091728718529</v>
+        <v>17.35964297036358</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>31.89917023499321</v>
+        <v>30.07536339539702</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>17.38465745370578</v>
+        <v>19.68703857639578</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.40701535027988</v>
+        <v>37.45556232009545</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>42.65005035312832</v>
+        <v>41.63776880840841</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>5.459240768152839</v>
+        <v>8.755065608034517</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>13.81230057318476</v>
+        <v>16.47972708572074</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.30476599437938</v>
+        <v>23.48536598971732</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.86459413284169</v>
+        <v>43.64563191421109</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.04629581904747</v>
+        <v>38.73969957333336</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>48.26851639310716</v>
+        <v>47.58248872097813</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>51.53396559715711</v>
+        <v>49.97333942511608</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>18.03755748498449</v>
+        <v>20.25488051241509</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.02719194837226</v>
+        <v>42.18825603608839</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.33300229251016</v>
+        <v>45.2581179223736</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>22.47723490361788</v>
+        <v>24.03851502134556</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.27611510952908</v>
+        <v>31.01658463376356</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.65021816611294</v>
+        <v>38.06548042987509</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.21503109902305</v>
+        <v>12.8771291686841</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.84526483165509</v>
+        <v>34.05460071837021</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>39.74589899186665</v>
+        <v>38.93686336486215</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>7.59577538719298</v>
+        <v>10.44540554000813</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>50.24439981953939</v>
+        <v>48.18857998623064</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>60.18450368278708</v>
+        <v>57.28500818061855</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>63.16687277450301</v>
+        <v>58.98401054327923</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>71.02931399764309</v>
+        <v>66.84193338582419</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>76.52727036147459</v>
+        <v>71.23673142477978</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.79122230807585</v>
+        <v>28.0456221438169</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>60.90330917958717</v>
+        <v>58.72149522511312</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.60884437308745</v>
+        <v>62.50590806695068</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>48.74204627304674</v>
+        <v>48.240017735729</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>34.00997955057665</v>
+        <v>35.07743080421071</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.85405289094999</v>
+        <v>39.41351295905952</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>49.84242100440044</v>
+        <v>48.65289649694959</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>12.82295075522541</v>
+        <v>15.34082827269236</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>40.63792219915668</v>
+        <v>40.97542613318831</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>45.08260017452818</v>
+        <v>45.01233063964247</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.3655176043959</v>
+        <v>17.68326324632343</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.56755416468439</v>
+        <v>30.38335308157479</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.51267201449922</v>
+        <v>37.93183792171062</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>9.180433324609165</v>
+        <v>12.16753417589547</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.69991229358639</v>
+        <v>34.96222274119164</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>42.5401535978414</v>
+        <v>41.7319322567927</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.731541172916177</v>
+        <v>12.13807970823211</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>51.78221430698515</v>
+        <v>50.43708328059777</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>66.28364744792694</v>
+        <v>62.03170610594709</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>63.88614365343297</v>
+        <v>60.25158324094131</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>68.61439211482202</v>
+        <v>64.17340135084552</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>78.5305671630924</v>
+        <v>72.85994831322948</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.36593598182609</v>
+        <v>18.89210282971779</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>55.33521485601201</v>
+        <v>52.16828493865355</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>66.64488493215124</v>
+        <v>61.9443494319607</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.40098770621129</v>
+        <v>43.0865252382828</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>20.00378825204215</v>
+        <v>22.26369794161452</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.18817419936688</v>
+        <v>28.12233807559635</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.39112974074579</v>
+        <v>35.96039256979154</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>8.115522062779171</v>
+        <v>11.34923593385984</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.88116537800759</v>
+        <v>37.14713919176938</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.54431051657245</v>
+        <v>43.08222246138466</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>11.93426760466345</v>
+        <v>13.9618725984632</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.82831271729837</v>
+        <v>29.17070430027326</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>41.16075921494809</v>
+        <v>39.7240481402505</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>10.16895333846269</v>
+        <v>12.65879136664945</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>30.99400378497938</v>
+        <v>31.44022362277494</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>44.82922993833439</v>
+        <v>43.40833862935845</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>3.494669300343347</v>
+        <v>7.222675742219124</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.94329097121548</v>
+        <v>42.71579349753219</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>64.48128364780908</v>
+        <v>61.28328083232154</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>47.54819956852714</v>
+        <v>46.27716635500431</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.833210809519</v>
+        <v>54.32146746976976</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>77.14799300885215</v>
+        <v>72.29519308116087</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>9.247724612547064</v>
+        <v>12.11108740372659</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>43.11651604664273</v>
+        <v>44.06024095328627</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>64.66548475262327</v>
+        <v>61.22208096066485</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>14.30822877753785</v>
+        <v>16.81075526206073</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.59236446094542</v>
+        <v>16.53357270906068</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.48064852119449</v>
+        <v>27.32571501064283</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>5.399372381672304</v>
+        <v>8.115338318731879</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>21.92845629237882</v>
+        <v>23.0304535941071</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.13909921036048</v>
+        <v>27.0182269997726</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7.795688133622207</v>
+        <v>10.61545793301331</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>35.67985928541359</v>
+        <v>36.61227136559751</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.12142557425055</v>
+        <v>37.54567804693459</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>15.85421984205298</v>
+        <v>17.18771889499326</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.66119730357255</v>
+        <v>19.71602718873257</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>18.18798806930841</v>
+        <v>19.84129031848542</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>14.26959299105731</v>
+        <v>18.48930811670089</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>13.53538593022661</v>
+        <v>16.22174788764267</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>31.42141648809296</v>
+        <v>34.01635641102057</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.96728823363157</v>
+        <v>14.49696762809904</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>21.70953988860491</v>
+        <v>22.27185688613057</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>32.25438595374421</v>
+        <v>31.51926230827306</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>10.6404853095563</v>
+        <v>13.02700647396758</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>16.46491066950018</v>
+        <v>17.69268759195132</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.32767641487559</v>
+        <v>20.40378031778728</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.853096415236745</v>
+        <v>7.528749202864724</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.17369038500202</v>
+        <v>18.68752466178207</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>19.92625679309308</v>
+        <v>22.58889726298214</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.40360840610089</v>
+        <v>25.82151339633831</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.00614597309697</v>
+        <v>27.63232731977124</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>5.176642723606637</v>
+        <v>8.131233554490358</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>32.66536238574682</v>
+        <v>33.43376636816628</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>32.97753595365642</v>
+        <v>33.41403169274206</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>8.428295413252762</v>
+        <v>11.01371945026277</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.48917321538272</v>
+        <v>40.66441311519415</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>40.54432501708423</v>
+        <v>39.51310234414808</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>42.23963341161299</v>
+        <v>40.9207995465288</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.46111824283726</v>
+        <v>43.87078831446189</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.83821143314928</v>
+        <v>44.14233150553354</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>23.85367240990788</v>
+        <v>27.01977884217696</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.03971229623085</v>
+        <v>41.36020497005762</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>46.09291213400654</v>
+        <v>45.28894222312746</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>19.91931387791361</v>
+        <v>20.43115709452631</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.64248473391071</v>
+        <v>26.80510326210544</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>30.14796661116925</v>
+        <v>29.83203924511302</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>11.0581237541811</v>
+        <v>13.41236747768614</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>29.63480416649229</v>
+        <v>28.49867237438412</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.52725173139531</v>
+        <v>32.71256579600301</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>39.71644105240016</v>
+        <v>37.4707944215136</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.968049485281302</v>
+        <v>11.92659417393349</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.17088972001159</v>
+        <v>23.27685670803899</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>27.75422137285136</v>
+        <v>28.25103655797678</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3.673555923280624</v>
+        <v>6.9646351264958</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.76174491480617</v>
+        <v>33.2184399548382</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.19876387767946</v>
+        <v>36.05227402562819</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>9.467944624644634</v>
+        <v>11.86356596048335</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.13073033558101</v>
+        <v>44.0825134047173</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.44923253922443</v>
+        <v>46.05853756811499</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>48.39214520392031</v>
+        <v>47.90904457099373</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>49.71798133790466</v>
+        <v>48.64152222738096</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>52.85494643615566</v>
+        <v>51.48307670912199</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.33859371468941</v>
+        <v>12.60136065640089</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.7519450001689</v>
+        <v>33.17995872929482</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>42.01180396729062</v>
+        <v>40.68735768448306</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.11171365541179</v>
+        <v>15.49696924475263</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.55739936427326</v>
+        <v>27.45209344767277</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.71798994468968</v>
+        <v>29.31799690778718</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>10.50117449396866</v>
+        <v>13.00251589423014</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.48691851371675</v>
+        <v>28.40265441235001</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.8222846799669</v>
+        <v>35.82583182238272</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>7.616081445707756</v>
+        <v>10.09571665153122</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>41.61114468693364</v>
+        <v>39.14846523841919</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>5.86874308644958</v>
+        <v>8.917909416786852</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>13.82700118655895</v>
+        <v>16.39382032464918</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>22.91648906889119</v>
+        <v>23.81880572619428</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>4.089070608905082</v>
+        <v>7.094043724410572</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.90417969078028</v>
+        <v>29.89937967523657</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.48633771609232</v>
+        <v>35.87661625153256</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>3.89765497237201</v>
+        <v>6.998382857306105</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.9109840614535</v>
+        <v>39.11022921800357</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>44.1459755867519</v>
+        <v>42.77797648263686</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>37.9284651865116</v>
+        <v>40.36987127344055</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>39.71015737707848</v>
+        <v>41.60091120066204</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>45.90497529473019</v>
+        <v>46.84752455873665</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>7.817656004983181</v>
+        <v>9.357873251231045</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.60113624856591</v>
+        <v>24.7531240740181</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>43.68051206418314</v>
+        <v>42.39831515559226</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.01891407855001</v>
+        <v>11.86769649005112</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.87219765528064</v>
+        <v>24.709795782439</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.9941372796017</v>
+        <v>29.4469753235522</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>11.07812865732745</v>
+        <v>13.06718860130935</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>27.26078326869806</v>
+        <v>26.9616879494789</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>35.1459482178645</v>
+        <v>34.06969775354241</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>3.676833356186066</v>
+        <v>6.623504640958309</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.82762378684875</v>
+        <v>34.367344243165</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.78681641286182</v>
+        <v>22.75833344448136</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.19204533372857</v>
+        <v>19.33794888359931</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>35.30082536616003</v>
+        <v>33.80879501840297</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>38.9778464214145</v>
+        <v>37.15279252870521</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>8.406273421233355</v>
+        <v>10.52003629345847</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.43800154689028</v>
+        <v>16.59805964429057</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.46797499966544</v>
+        <v>21.69057057264122</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>10.26158572171565</v>
+        <v>12.23300443301932</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>18.23168531971825</v>
+        <v>19.62823623821066</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>31.03860284785827</v>
+        <v>30.39198783564948</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>10.46175036658885</v>
+        <v>12.61425908915912</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>14.43463377212276</v>
+        <v>16.01848495231592</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>17.89683437904694</v>
+        <v>19.67613660043465</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>4.531188769916998</v>
+        <v>7.490216596412619</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.06397447487399</v>
+        <v>18.43401511584204</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.50127460596027</v>
+        <v>32.3531476151111</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.97916422329153</v>
+        <v>20.8358204542487</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>44.54388984870128</v>
+        <v>41.9982867950015</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>50.19521555539109</v>
+        <v>46.77163369563752</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>6.423821777584962</v>
+        <v>8.839768540305389</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.60434297927029</v>
+        <v>18.0452210283549</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.82680748631198</v>
+        <v>26.06434372296993</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>48.69905842504491</v>
+        <v>46.04710248590972</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>43.79422666030101</v>
+        <v>41.40157009168883</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>53.55312401530906</v>
+        <v>50.2185742079043</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>56.98155339194317</v>
+        <v>52.88306690285685</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.26587261051503</v>
+        <v>21.8696931016869</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>46.82877055879144</v>
+        <v>44.2360253436281</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>49.02726798520283</v>
+        <v>46.33156714660054</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>21.98397700326337</v>
+        <v>23.6285118321728</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.04915444933118</v>
+        <v>31.05978041769718</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>39.7709799311877</v>
+        <v>38.28382843302123</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>11.91988792999143</v>
+        <v>13.9365118074321</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>38.91081670493445</v>
+        <v>36.48987973731016</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>43.30226467684614</v>
+        <v>40.72398554979853</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>6.080488202027652</v>
+        <v>9.276780044002251</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.78137432406061</v>
+        <v>49.1015190137262</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>64.07540715666174</v>
+        <v>59.53209199230611</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>63.68254102109478</v>
+        <v>57.78439570229329</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>73.43005018147758</v>
+        <v>67.73662180767822</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>79.07545965510955</v>
+        <v>72.76149623169525</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.51726389626112</v>
+        <v>26.03482389014131</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>64.2256064784563</v>
+        <v>60.23773629385076</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>67.35928291457896</v>
+        <v>62.68713345108551</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>53.44121461977353</v>
+        <v>50.5379327292008</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.31525496971882</v>
+        <v>38.02400932654825</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>44.38354604067941</v>
+        <v>41.78342217552013</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>54.90235101063413</v>
+        <v>50.90496456201191</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.77161177309836</v>
+        <v>15.7783442927613</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.73870306550259</v>
+        <v>42.22499541863969</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>15.3005924374549</v>
+        <v>16.62932749563509</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.91432884726112</v>
+        <v>30.05219756997053</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>39.4552506730627</v>
+        <v>38.03733002699642</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>10.81846770234214</v>
+        <v>13.34056689828914</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.03302343237741</v>
+        <v>36.53458749346999</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>45.92014476130529</v>
+        <v>43.56010139061642</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>8.441550721723793</v>
+        <v>11.17062867782828</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>53.95607432884397</v>
+        <v>50.6471047260201</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>69.84088695612671</v>
+        <v>64.08547689582204</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>65.0161494924034</v>
+        <v>60.12007587860279</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>71.30034201355022</v>
+        <v>65.09131122032059</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>80.98026447826115</v>
+        <v>74.18235035864004</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.51445185163501</v>
+        <v>16.78747281177307</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>58.25667620985573</v>
+        <v>52.42253751962376</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>68.29593799003192</v>
+        <v>61.19414939062395</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>47.21056445791925</v>
+        <v>44.49479559098906</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.77578072552685</v>
+        <v>24.27742320951518</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.13829900379184</v>
+        <v>30.12021623967937</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>39.26132522418079</v>
+        <v>37.18439973915375</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.02265079953484</v>
+        <v>11.85766469846584</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>41.07499227328636</v>
+        <v>38.51254525680152</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>46.5466024981677</v>
+        <v>43.53506340749503</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>11.60097486464924</v>
+        <v>13.4501087490544</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>29.06015967092598</v>
+        <v>28.78245302058704</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>42.86326913014844</v>
+        <v>40.47733820029983</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>12.22770515691176</v>
+        <v>13.92301949161152</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.95586851445404</v>
+        <v>32.82164413672999</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>48.54967786799686</v>
+        <v>45.53241130663901</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>3.45236185314868</v>
+        <v>7.045020421536002</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>45.3574044250559</v>
+        <v>43.6963743301319</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>68.43479481732852</v>
+        <v>63.34934664436859</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>50.62348277590159</v>
+        <v>48.13040260558439</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>62.4688719489955</v>
+        <v>57.54645071219146</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>82.42051847399985</v>
+        <v>75.36188331811488</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.557151564547397</v>
+        <v>12.2499642212333</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>48.84033607965991</v>
+        <v>47.30499542188051</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>68.0670396301667</v>
+        <v>62.7478246164335</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>15.39044976073701</v>
+        <v>20.86142034852039</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>15.24295540692718</v>
+        <v>21.09481102161519</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>23.25946119552897</v>
+        <v>25.52687667747141</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>10.54863948351993</v>
+        <v>17.43706185986942</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>21.57539958161639</v>
+        <v>24.07315372766313</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>23.30905532196295</v>
+        <v>25.14012367834747</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>12.51841715820861</v>
+        <v>18.73731256570412</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.68777854160177</v>
+        <v>29.45433623448154</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>30.45349252890738</v>
+        <v>29.93732186380254</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>16.58316704587644</v>
+        <v>21.67149310101185</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>18.04503241878547</v>
+        <v>23.07107909002136</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>17.88643721043429</v>
+        <v>22.92441255530161</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>21.23713168397172</v>
+        <v>23.88224177756221</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>17.68666576830304</v>
+        <v>22.24163785719515</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>32.3600628244485</v>
+        <v>31.0558352627711</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>16.1830616245574</v>
+        <v>20.99391696010533</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>25.88028081451853</v>
+        <v>26.70194687069671</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.18892409324259</v>
+        <v>28.7642124893983</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>10.59391128665268</v>
+        <v>17.74145116311315</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>17.74439727202804</v>
+        <v>21.3689190658418</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>20.75019822245574</v>
+        <v>23.53444228260449</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>11.12612517567485</v>
+        <v>17.81864819355852</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.16369287694846</v>
+        <v>27.31596727367661</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>18.12094450227136</v>
+        <v>22.44903340545729</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>20.03028396843079</v>
+        <v>24.12582127069714</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>23.68680514360585</v>
+        <v>25.86449671173701</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>10.36379609518754</v>
+        <v>17.39906656485335</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.12968665068429</v>
+        <v>27.41167072368085</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.7858846590714</v>
+        <v>27.79468004718874</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>13.28221072049996</v>
+        <v>19.22027828357027</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>33.52745756169023</v>
+        <v>32.19022596065111</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>33.23238106195079</v>
+        <v>32.04746222617285</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>31.29885358020302</v>
+        <v>30.91181162497699</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>35.08003298650884</v>
+        <v>33.22928997482668</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>34.86629987715091</v>
+        <v>33.21810312434709</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>23.52743233272034</v>
+        <v>26.29875848507643</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>31.3683267501706</v>
+        <v>32.01447788252398</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>35.39974417110009</v>
+        <v>33.71285217770914</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>23.39952471642358</v>
+        <v>24.89944465896281</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.07909654514853</v>
+        <v>29.28907052029322</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.41545220623391</v>
+        <v>29.82497809094766</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>11.45038383746697</v>
+        <v>17.82001664835515</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>31.45595280115032</v>
+        <v>29.82384474442392</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>31.25757496946032</v>
+        <v>30.05583741266367</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>11.63190380045134</v>
+        <v>18.09721599059983</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>42.42069113253343</v>
+        <v>36.87769619738694</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>11.81480300548174</v>
+        <v>18.48675011864827</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>16.98956820826118</v>
+        <v>22.19037206569874</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>23.42729562800228</v>
+        <v>25.65325001785997</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>9.379088656010651</v>
+        <v>17.05895846561577</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>25.22384367350744</v>
+        <v>26.76999848083561</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.50533312483585</v>
+        <v>27.62489268777562</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>12.71522622046879</v>
+        <v>18.97019190846115</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>33.34364390914364</v>
+        <v>32.08168135836114</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>35.05882136178361</v>
+        <v>33.2054734256099</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>34.50338541779625</v>
+        <v>33.41928007860754</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>35.85863501793558</v>
+        <v>34.00789058349524</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>41.9658587031568</v>
+        <v>37.55312179564034</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>13.10531822414007</v>
+        <v>18.34622949872276</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>23.31030466928108</v>
+        <v>26.04121377069711</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.33105348903622</v>
+        <v>30.13947023725337</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>18.42461641926411</v>
+        <v>21.89695822240712</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.76422500502206</v>
+        <v>28.34773903041126</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.73472779415858</v>
+        <v>29.19222372060636</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>11.04007438427434</v>
+        <v>17.65829686727537</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>29.09268169409383</v>
+        <v>28.4553830436621</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>31.13308585925284</v>
+        <v>30.24748034576189</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>13.16584773828859</v>
+        <v>18.99132617867197</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>41.87850378898364</v>
+        <v>36.2545551286581</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>9.656039974205996</v>
+        <v>17.53148985710088</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>13.30021825035121</v>
+        <v>20.01298708529745</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>21.38445765437883</v>
+        <v>24.50487064420033</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>9.561099237971252</v>
+        <v>17.13878207022226</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>23.42423342024279</v>
+        <v>25.24568234138178</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.04752434654217</v>
+        <v>28.19790416771732</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>9.527011990359597</v>
+        <v>17.17363024512142</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.53431551516236</v>
+        <v>29.52433642437367</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>34.06683491862758</v>
+        <v>32.47725921348421</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>32.013528963488</v>
+        <v>31.30993799745507</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>33.57189976942846</v>
+        <v>32.36444188613326</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>38.8616486899869</v>
+        <v>35.56231522292541</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>9.633763390908339</v>
+        <v>17.34751488972066</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>18.49739277569146</v>
+        <v>23.23246347544043</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>33.07857866000465</v>
+        <v>31.7783712832617</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>15.34353053436918</v>
+        <v>20.20341514114451</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.2114120912852</v>
+        <v>27.49840297951569</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>29.32612926331803</v>
+        <v>28.98947122233687</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>11.26278084278173</v>
+        <v>17.66308078537098</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>27.2977216679576</v>
+        <v>27.15542677155145</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.84998816979532</v>
+        <v>29.28397171087571</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>10.52703300302716</v>
+        <v>17.42486583216952</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.50985043384603</v>
+        <v>32.82204303545372</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>29.96825118203587</v>
+        <v>28.87446246543669</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>23.81555706597792</v>
+        <v>25.50311259324386</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>35.75209495986254</v>
+        <v>32.50809149711026</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>36.39688528410832</v>
+        <v>32.99986468756345</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>16.54519231924262</v>
+        <v>20.79274290778579</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>24.26540636376455</v>
+        <v>25.44344661432979</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>29.59756863957126</v>
+        <v>28.58584448649381</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>18.51514943729283</v>
+        <v>22.13825366433585</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.20754305869506</v>
+        <v>26.49032194479715</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>33.80234072262957</v>
+        <v>31.49909250155206</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>10.58794491126845</v>
+        <v>17.30369688608543</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>16.20780263433892</v>
+        <v>20.48188908288675</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>21.3962967444695</v>
+        <v>23.67571686215866</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>11.08729854222949</v>
+        <v>17.71621290906415</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>25.95743444079461</v>
+        <v>26.50194294000942</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>40.79142806368832</v>
+        <v>34.79878941302222</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>26.67069015770764</v>
+        <v>27.1597697111467</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>42.53225972731927</v>
+        <v>36.51062290150919</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>45.59806243491055</v>
+        <v>38.52936164119707</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>14.95269618360838</v>
+        <v>20.05963660071746</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>24.82332179476873</v>
+        <v>25.82600724491197</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>32.95416141078513</v>
+        <v>31.02316687298623</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>44.60898446769837</v>
+        <v>38.43505328390955</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>43.47945221713531</v>
+        <v>37.33887094868911</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>47.52405346898567</v>
+        <v>40.11538679360067</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>48.31789134966259</v>
+        <v>40.48161775321053</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>25.67944583261453</v>
+        <v>26.16764378876169</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>45.04506190424743</v>
+        <v>38.55351330903625</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>44.81693810148656</v>
+        <v>38.60331915471011</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>24.93531595652842</v>
+        <v>26.28139504625056</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>11.86844718654845</v>
+        <v>18.05306025719381</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>38.68143250343569</v>
+        <v>34.39127684014392</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>40.81791344324974</v>
+        <v>35.62916189900377</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>12.53775816756705</v>
+        <v>18.81911443033133</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>51.74589864733025</v>
+        <v>42.47332366831495</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>55.8585972213159</v>
+        <v>45.11639855120738</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>55.28568861234582</v>
+        <v>44.61876269753797</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>60.95472318522783</v>
+        <v>48.35925898770806</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>63.31722427050666</v>
+        <v>49.89990728239269</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>30.28523630791243</v>
+        <v>28.89703324688425</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>58.34047284721284</v>
+        <v>46.83405535471083</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>58.7158443655657</v>
+        <v>47.06690187154349</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>47.18240691010654</v>
+        <v>40.14171978157719</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>41.57343976959149</v>
+        <v>36.00094465012491</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>43.83508484155142</v>
+        <v>37.73419186934213</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>47.57842420369423</v>
+        <v>39.96746413020847</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>19.77613382732469</v>
+        <v>22.51393807140975</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>42.20337805940981</v>
+        <v>36.90944705461598</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>44.19183361401042</v>
+        <v>38.42098197251364</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>18.85257159610833</v>
+        <v>22.38461134457212</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>30.62396533395936</v>
+        <v>30.02034526370788</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>37.58230966383999</v>
+        <v>34.11342220368525</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>10.81758159996605</v>
+        <v>17.75597259214349</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>36.83696392470429</v>
+        <v>33.16556509821624</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>39.63401837230586</v>
+        <v>35.19637831703138</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>13.18672065172058</v>
+        <v>19.47829040578384</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>51.79446061600675</v>
+        <v>42.40982899578993</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>58.32514748718116</v>
+        <v>46.6242984485754</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>56.41087226761946</v>
+        <v>45.49457535678945</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>61.30461785685189</v>
+        <v>48.40722136181763</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>64.9293985364308</v>
+        <v>50.81370790146887</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>19.5793589679793</v>
+        <v>22.51059345693908</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>57.3383431532134</v>
+        <v>45.41920710954589</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>60.41959562293179</v>
+        <v>47.60633587434917</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>42.15248861073971</v>
+        <v>36.92229707855983</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>30.19690714731718</v>
+        <v>29.03924339200726</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>34.14234993686449</v>
+        <v>31.44115726402379</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>36.90224060804633</v>
+        <v>33.6677651530404</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>16.36860116675066</v>
+        <v>20.86792052605269</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>38.46404779547747</v>
+        <v>33.84005732706844</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>40.97051064606551</v>
+        <v>36.04061938078686</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>16.81409679090196</v>
+        <v>21.17331609829894</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>30.42892874082071</v>
+        <v>29.41738484696423</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>39.34748011822573</v>
+        <v>34.86185978116122</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>11.71722535683049</v>
+        <v>17.88077079491249</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>35.45155310899545</v>
+        <v>32.02631883762723</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>40.5669920191558</v>
+        <v>35.46798114582761</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>10.64817379790639</v>
+        <v>17.70748397338256</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>49.25709164480002</v>
+        <v>40.48227010812462</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>58.10190576209258</v>
+        <v>45.90172462504555</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>52.53721021266968</v>
+        <v>42.64886035417456</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>60.7088291076321</v>
+        <v>47.48462864672886</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>66.26350907314981</v>
+        <v>51.31152157826764</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>16.46845213533083</v>
+        <v>20.75838964626923</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>55.82856455384825</v>
+        <v>44.3327562481155</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>61.1471324334068</v>
+        <v>48.17556273528692</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_4/out_of_sample/additive/plate_1/results.xlsx
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5</v>
+        <v>0.616</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.62</v>
+        <v>15.461</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.524</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.573</v>
+        <v>17.934</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.997</v>
+        <v>0.985</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.474</v>
+        <v>3.113</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>17.68747534239402</v>
+        <v>15.57551939843405</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.24661075572387</v>
+        <v>17.01861640482171</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>31.27696215258822</v>
+        <v>30.80538388561838</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.736443361465277</v>
+        <v>1.627970510409597</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>24.66697603031879</v>
+        <v>22.68158699764184</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>29.30312843714078</v>
+        <v>28.0519672007504</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.681346556330134</v>
+        <v>8.041149287405464</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>44.58987336161594</v>
+        <v>37.76915723740279</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>45.95474356720671</v>
+        <v>44.25189157955029</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>18.27843795437195</v>
+        <v>17.13922420231095</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>21.03222643076156</v>
+        <v>19.15332801391523</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>20.76634088780095</v>
+        <v>19.37420929196292</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.21735751046453</v>
+        <v>11.86883549311808</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>18.49378211758533</v>
+        <v>15.02754119887838</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>47.81498685132412</v>
+        <v>36.29029697963396</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>14.27934216246327</v>
+        <v>13.33726797268789</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.00504204443384</v>
+        <v>25.21269049089164</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.06653906029469</v>
+        <v>33.87327177172529</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>4.947076057443894</v>
+        <v>1.871726582733341</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>12.12577533585231</v>
+        <v>9.998296517503613</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>15.3008262655022</v>
+        <v>14.17967464234156</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.794985001474494</v>
+        <v>2.405947819113209</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>18.56257038886833</v>
+        <v>16.66736588042395</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>24.27598380781005</v>
+        <v>20.47448614052286</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.39515523406167</v>
+        <v>27.97979237161965</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.73221890899845</v>
+        <v>29.75695970410811</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.357162861071277</v>
+        <v>0.9777461990506175</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>34.50640169978922</v>
+        <v>33.69001772119089</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>33.61182401309044</v>
+        <v>33.26002280260634</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.997998858533876</v>
+        <v>7.090496635493885</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>47.73237280084315</v>
+        <v>47.1497204435066</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>46.85186940552062</v>
+        <v>47.75560606959003</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.34367748836947</v>
+        <v>47.88281766614101</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>50.07625873575132</v>
+        <v>51.48845080913944</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>52.33208859543084</v>
+        <v>51.33323830618866</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>30.35324026786092</v>
+        <v>22.81266955778183</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>51.3513557531432</v>
+        <v>41.85928105908413</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>57.39220080362814</v>
+        <v>55.05031719605732</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>21.6594087321624</v>
+        <v>18.6241915930983</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>31.2795805095039</v>
+        <v>33.58135619576633</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.46307709626269</v>
+        <v>35.21939288173354</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>5.342378889625358</v>
+        <v>2.887587562856009</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.26124841962318</v>
+        <v>28.80336631137736</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>34.65022798635366</v>
+        <v>34.64376765026567</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5.084237962517147</v>
+        <v>3.24449351426286</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>44.74713656149184</v>
+        <v>45.61295128446432</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.708812673656382</v>
+        <v>10.1468307593929</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.90409715929414</v>
+        <v>23.07632784009889</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.27502072920613</v>
+        <v>27.81239050211698</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>3.346933042588297</v>
+        <v>0.01488799161834464</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>35.46586519146224</v>
+        <v>33.00150478825879</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>38.44269811716897</v>
+        <v>36.3931069158687</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.51397637281164</v>
+        <v>8.065803538588082</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>52.0740029211828</v>
+        <v>49.33606211837812</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>55.24424762464332</v>
+        <v>52.53713240201859</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>59.04655507254422</v>
+        <v>54.10015925135747</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>59.75917517522065</v>
+        <v>55.57825402940048</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>64.14529174642507</v>
+        <v>57.63812425123821</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>9.997305946489671</v>
+        <v>11.4737289003598</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>37.31994299619035</v>
+        <v>33.22963825466384</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>48.69978344732235</v>
+        <v>50.00101671264526</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.08511510248139</v>
+        <v>10.83500875986086</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>30.8732212155462</v>
+        <v>30.1946110092026</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>33.39075960323053</v>
+        <v>33.7411502550199</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>4.64689176332071</v>
+        <v>1.711206229816181</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.83552282282801</v>
+        <v>24.39678266444978</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>37.92707422876033</v>
+        <v>38.03998445862661</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.708243693613024</v>
+        <v>4.476125974130614</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.97430157619506</v>
+        <v>44.47291560756631</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.878890269096033</v>
+        <v>4.913503683711475</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>16.58519660045546</v>
+        <v>14.13248421956086</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.00653697539547</v>
+        <v>23.14052804034954</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.141146946665803</v>
+        <v>-0.2228068999209789</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>31.31967216944846</v>
+        <v>29.81047933184963</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>38.61358727405141</v>
+        <v>36.96894838716456</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>4.034400602069237</v>
+        <v>1.88144928359133</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>45.88087314296101</v>
+        <v>43.95539837878104</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>51.58366089815802</v>
+        <v>51.09290578784462</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>48.78451419152049</v>
+        <v>41.55913345285047</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>50.91523812716257</v>
+        <v>43.68565350101082</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>58.16483198114007</v>
+        <v>47.97471343456388</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.827015537839845</v>
+        <v>4.979447104247289</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.10046361969219</v>
+        <v>22.71524854830448</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>52.441063829832</v>
+        <v>47.73543365000441</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8.926330490544615</v>
+        <v>6.863372042740632</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.75099587814029</v>
+        <v>27.02640512110069</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>34.41523008520213</v>
+        <v>35.24300007024163</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>5.006524889682012</v>
+        <v>2.612029997687557</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.30632428652056</v>
+        <v>23.87581716324097</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>37.73244767557905</v>
+        <v>38.51384946698456</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>3.386034779362085</v>
+        <v>1.518104887387331</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>38.47637751124643</v>
+        <v>38.20396439167722</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>23.32919252428061</v>
+        <v>22.17924313160911</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>19.2821728031924</v>
+        <v>18.47450435840658</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>32.24548529379944</v>
+        <v>30.95314499905331</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>35.36395647651748</v>
+        <v>35.69970670776532</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>7.696990979627476</v>
+        <v>4.517081730621925</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.96105109440647</v>
+        <v>12.91489900327901</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>21.18258669260398</v>
+        <v>20.44550711320261</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.2535001818027</v>
+        <v>10.19602039952144</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>21.23033616060707</v>
+        <v>20.40527309340664</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.09067616526224</v>
+        <v>32.61831833658577</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>4.381004051914527</v>
+        <v>1.249382298490776</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>9.939090020174476</v>
+        <v>7.244760085333006</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>15.1163714525135</v>
+        <v>12.66153836200033</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>4.34404030533431</v>
+        <v>2.600059449391988</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>18.82961495901999</v>
+        <v>16.75484624472442</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.86494819281256</v>
+        <v>36.0605599897686</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>21.37845864684309</v>
+        <v>19.8724625757699</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.92393159874643</v>
+        <v>41.15922465655274</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>46.88997625452916</v>
+        <v>46.12531890663345</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>6.20770178857736</v>
+        <v>3.219871999492018</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>18.07872436778892</v>
+        <v>15.99323926212968</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.18060062108678</v>
+        <v>28.73443390994833</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>53.27978111997196</v>
+        <v>54.97743650839823</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>51.84207658816541</v>
+        <v>53.81517561828719</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>58.2454769786295</v>
+        <v>60.74266802568995</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>58.08635057424934</v>
+        <v>61.26819443088665</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>23.16278092288247</v>
+        <v>19.7731435882349</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.91634603552788</v>
+        <v>55.41859451601589</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>57.68159679343415</v>
+        <v>60.02270152774962</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>27.56230275617832</v>
+        <v>22.20346303675653</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.67400280969227</v>
+        <v>37.06828483871382</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>41.96654482985153</v>
+        <v>43.11935490482144</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6.276530709064367</v>
+        <v>4.280716836286921</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>38.57671573866921</v>
+        <v>40.01804568373358</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.5164966527872</v>
+        <v>43.7457166680792</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.088717463754577</v>
+        <v>6.284170351655472</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>59.70288774894218</v>
+        <v>62.39793037003804</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>64.28458135305078</v>
+        <v>66.27128070098468</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>74.08662294733946</v>
+        <v>78.56159425568701</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>78.01084141098707</v>
+        <v>81.73096168456097</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>80.01550507796642</v>
+        <v>83.89574796115986</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>31.29686963396939</v>
+        <v>30.23560726140363</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.34561274515484</v>
+        <v>72.90505047330007</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>74.28923398606855</v>
+        <v>77.3373053431671</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>56.31551129565624</v>
+        <v>58.8949071014477</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>44.19569226240618</v>
+        <v>44.29794379645368</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>49.3792493951739</v>
+        <v>51.20358935886898</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>57.11879694420112</v>
+        <v>60.09377537116875</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>11.22942585754361</v>
+        <v>10.33279080799693</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>50.29539456146524</v>
+        <v>50.76107071495908</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>56.41774409902978</v>
+        <v>58.40776829422536</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.88661714794006</v>
+        <v>13.19322508204516</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>34.58593834150129</v>
+        <v>34.5919009530829</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>40.90755509582431</v>
+        <v>41.90367327462981</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>5.077489562904944</v>
+        <v>2.184137438661534</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>39.00161802972955</v>
+        <v>37.44471510182167</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>45.54979451450616</v>
+        <v>46.84773187200145</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.783688032206982</v>
+        <v>6.65508138915445</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>61.02733061191323</v>
+        <v>62.11515298636475</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>69.02189435933326</v>
+        <v>71.75308431379661</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>74.66184986911874</v>
+        <v>78.18291810509399</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>75.43190189619335</v>
+        <v>79.49272496543522</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>82.78978931520285</v>
+        <v>87.10220066996435</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>13.39126354838695</v>
+        <v>15.06202731738579</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>64.89514008114074</v>
+        <v>67.6567087225397</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>76.56329751239463</v>
+        <v>80.78879595209473</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>54.73596103674722</v>
+        <v>57.61923341545837</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.2772565054898</v>
+        <v>25.85295662472954</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>33.66291253607299</v>
+        <v>33.74139743142899</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>43.22311264383076</v>
+        <v>44.57524450910941</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>7.928712532068005</v>
+        <v>5.318270730172234</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>46.6304345472096</v>
+        <v>47.29710075777822</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>55.70289356748562</v>
+        <v>58.12906794398732</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.61060821874633</v>
+        <v>8.629014497887315</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.18790310487555</v>
+        <v>33.07344465033272</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>43.38886265925851</v>
+        <v>44.62932963864422</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>5.315322222175919</v>
+        <v>3.056347260743685</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.32323792455169</v>
+        <v>33.94660513061773</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>46.80267290396176</v>
+        <v>48.66966185794236</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.615564246746054</v>
+        <v>1.119853899541717</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>51.28114378309449</v>
+        <v>52.21469072384106</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>69.20921593579257</v>
+        <v>71.78237779146112</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>56.37265147300681</v>
+        <v>58.90350551699258</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>65.01858032142469</v>
+        <v>67.84316410067323</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>83.54888782443103</v>
+        <v>87.42448864230538</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>7.537741496344637</v>
+        <v>5.31375250784988</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>54.65775622543424</v>
+        <v>55.22006622986063</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>73.16208104388221</v>
+        <v>77.29422196147704</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>15.79247669800327</v>
+        <v>13.98184477585968</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>18.63381331211101</v>
+        <v>17.53532226655842</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.74554441977379</v>
+        <v>30.34230600550584</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>4.93322798460505</v>
+        <v>0.8301465472364491</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>20.61575950201663</v>
+        <v>22.82780659242677</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>22.82788824828354</v>
+        <v>25.88384298337841</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>9.45954015737782</v>
+        <v>7.025094697152273</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>37.60325239685319</v>
+        <v>43.32195979110617</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>39.29863351733892</v>
+        <v>46.53099402137442</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>21.17337937793857</v>
+        <v>20.81593827798548</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.17174756908148</v>
+        <v>27.79258917936328</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>25.9887669105715</v>
+        <v>27.72894938845298</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.73863220906346</v>
+        <v>18.85522058754765</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.50113895137965</v>
+        <v>19.70207951683882</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>37.98409754644394</v>
+        <v>44.43664722891236</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.44295276123315</v>
+        <v>10.36465390125895</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>24.72999441288977</v>
+        <v>25.51043082798364</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.53517486977183</v>
+        <v>29.698010531406</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>4.07194930009349</v>
+        <v>-2.427067747983795</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.68712849405087</v>
+        <v>9.737873951291146</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15.95691807185419</v>
+        <v>13.65235061231118</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4.74095641834899</v>
+        <v>0.03359196864907688</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>25.12977128796849</v>
+        <v>26.874971780845</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.87961868989839</v>
+        <v>16.80650581009589</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>23.96307566724956</v>
+        <v>23.59921627194651</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>27.88034129265558</v>
+        <v>30.09070419978087</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>5.340502422497607</v>
+        <v>0.9856655783093089</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.16664215080054</v>
+        <v>32.75510426458075</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>30.88339279640778</v>
+        <v>33.41717661233772</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>9.762057670798768</v>
+        <v>7.177675261253864</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>43.32623469782399</v>
+        <v>49.06826848107045</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>44.70831013711607</v>
+        <v>50.9956011849099</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>43.71793425517586</v>
+        <v>48.89815828698303</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>48.57063925441338</v>
+        <v>54.8155284552732</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>48.94699863220741</v>
+        <v>54.88304987833951</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>23.97942996742809</v>
+        <v>22.86166156152501</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>46.81852695281471</v>
+        <v>45.08404404220238</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>49.59410552828678</v>
+        <v>53.43637140149405</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.82509571244242</v>
+        <v>17.25970458106747</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>30.1374598163367</v>
+        <v>31.95216705543715</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>33.1258459436869</v>
+        <v>35.18761312933127</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.243969350723258</v>
+        <v>-0.5558142743961696</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>30.08251025555685</v>
+        <v>32.22088648832419</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>31.97781425474128</v>
+        <v>33.68765091244402</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>5.777724095303352</v>
+        <v>2.092539640568543</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>45.90249694782531</v>
+        <v>51.09471004424108</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>8.643201755908262</v>
+        <v>5.440005942386623</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>19.16641583873525</v>
+        <v>17.28859586975523</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.84537097325626</v>
+        <v>26.921556019036</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>4.341183107840884</v>
+        <v>-0.4704187408642184</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.08227276685006</v>
+        <v>31.15370017845091</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>31.07855008341649</v>
+        <v>33.93034857944341</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>8.956587982039075</v>
+        <v>6.648033939726634</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>42.04147968448922</v>
+        <v>47.48251966360669</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>47.35735463306509</v>
+        <v>53.85081627793157</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>47.64519681962706</v>
+        <v>53.04750849705226</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.41922232845828</v>
+        <v>56.04729850141928</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>55.92307238725703</v>
+        <v>62.39247670485533</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>8.403367443811597</v>
+        <v>8.381481343789694</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>31.45665115664285</v>
+        <v>34.14634048077728</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>38.37140886275413</v>
+        <v>43.43850795930791</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>10.60543054753409</v>
+        <v>8.395491403068494</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.99134502947168</v>
+        <v>28.7856981054385</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>31.11497730321846</v>
+        <v>33.27460189334182</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>3.850190380906717</v>
+        <v>-1.419288197891216</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>25.42685055960223</v>
+        <v>26.29544503497354</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>33.85026565783478</v>
+        <v>35.68766188927853</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>6.819100113167231</v>
+        <v>2.841415745204241</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>41.71214156635191</v>
+        <v>46.76943849796687</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>7.155743847239805</v>
+        <v>2.43349045964997</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>15.56867416808579</v>
+        <v>12.70149614420335</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>24.77015565187076</v>
+        <v>25.85482278871735</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.398672592101843</v>
+        <v>-0.7135144135509606</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.11646406996685</v>
+        <v>30.26438129014988</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>32.51825673960033</v>
+        <v>36.65909997797858</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>5.024427629981641</v>
+        <v>0.5052190679620594</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>38.84257141335441</v>
+        <v>45.24811760616018</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>45.74541058017516</v>
+        <v>53.50510117215523</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.61648647768322</v>
+        <v>50.45583417783493</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>47.56636816902372</v>
+        <v>55.16558704118383</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>52.82339632430919</v>
+        <v>60.62434434489178</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>7.348094979513334</v>
+        <v>3.807698150991381</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.96748576811704</v>
+        <v>28.16260829947944</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>41.55294229333099</v>
+        <v>49.21687898575616</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.390021401632282</v>
+        <v>4.965111111377606</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.44654947969104</v>
+        <v>25.26645775466263</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.323428954308</v>
+        <v>31.5774803138918</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>3.98548369869297</v>
+        <v>-1.838005217619081</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>21.80114729646871</v>
+        <v>22.69289824529058</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>30.73914893835923</v>
+        <v>31.66951229436915</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>4.537136586430012</v>
+        <v>-0.1742700558524639</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>33.96156852054563</v>
+        <v>37.81599622622693</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.22599039466878</v>
+        <v>28.41023755818742</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.0994640683039</v>
+        <v>20.8238346424785</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>35.35934649819541</v>
+        <v>38.43449862755158</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>35.94753649861129</v>
+        <v>38.61763330931319</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.90593000703529</v>
+        <v>8.024247145209294</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.12177016647635</v>
+        <v>18.98403964141492</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>25.67417121544955</v>
+        <v>26.77047755133022</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>14.03605348358052</v>
+        <v>11.60064039714522</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>24.98651772892132</v>
+        <v>24.89473986512102</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.19535682257345</v>
+        <v>36.51459530216327</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>3.199598621633239</v>
+        <v>-2.12854425708527</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>10.63625736560041</v>
+        <v>8.156605692736687</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>18.47600244090743</v>
+        <v>18.28724746882619</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>4.995862138650288</v>
+        <v>1.017395956305855</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.7646938578511</v>
+        <v>27.43423928349792</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>43.84634124949812</v>
+        <v>50.43490173943748</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>25.34315542632298</v>
+        <v>25.80988459053917</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>42.04736998424556</v>
+        <v>46.04292217161551</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>48.29235434165811</v>
+        <v>54.12388582544401</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>9.855388104854949</v>
+        <v>6.897372916427326</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>22.94937104977703</v>
+        <v>24.86974633772562</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.08753971625397</v>
+        <v>40.14754351483382</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>51.61927120262695</v>
+        <v>56.6910283237012</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>47.06509962645775</v>
+        <v>54.19278482950408</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>54.50019133972124</v>
+        <v>61.33455716512871</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>52.43445559676871</v>
+        <v>59.39405604939623</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>20.28057441710782</v>
+        <v>21.14588417385239</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>50.22424485604799</v>
+        <v>56.70961735935185</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>53.36188230659243</v>
+        <v>59.78226298115653</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>24.31281825838289</v>
+        <v>22.18915399768867</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>35.19589087654084</v>
+        <v>36.93478719423993</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>41.44837982759685</v>
+        <v>44.11783454012503</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>5.064213179667345</v>
+        <v>0.3397586576335065</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>40.21708707320885</v>
+        <v>43.14700782024207</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>41.77202724803472</v>
+        <v>44.43093811850191</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>8.66224290355882</v>
+        <v>5.279826136492041</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>59.14394475920206</v>
+        <v>65.1897624796253</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>62.70253850558498</v>
+        <v>69.78925947376317</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>67.15605248626002</v>
+        <v>74.65133652849551</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>71.28746604834048</v>
+        <v>79.33626729261667</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>74.71050639474645</v>
+        <v>83.13285141845206</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>29.02681147191257</v>
+        <v>29.47651952051747</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>67.56500049234728</v>
+        <v>75.92499487740434</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>69.66542095410014</v>
+        <v>78.32094170077984</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>53.05964022284303</v>
+        <v>58.55132592132881</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>42.84731249500344</v>
+        <v>47.85645960665409</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>46.7734176180864</v>
+        <v>51.61190837132791</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>53.58373400734326</v>
+        <v>58.58295281051393</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>10.76875406607434</v>
+        <v>9.092112130073854</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>45.16932156265919</v>
+        <v>49.63227202424255</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>51.25899415180659</v>
+        <v>56.47753612619038</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>13.70415927774329</v>
+        <v>11.16337930188818</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>32.48855806666466</v>
+        <v>33.68945854993162</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.85740267950553</v>
+        <v>42.54915837537146</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>4.072455082940646</v>
+        <v>-2.0222464253828</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>35.55352771272511</v>
+        <v>38.27025246383656</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.25148573367205</v>
+        <v>44.96743646713051</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>8.973409210113399</v>
+        <v>4.699335764329227</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>55.40378762062345</v>
+        <v>62.73131965967663</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>65.02879419408265</v>
+        <v>73.0028537123541</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>64.147335939626</v>
+        <v>72.65595857451576</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>69.48925990939041</v>
+        <v>78.03709017291328</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>77.66067756032834</v>
+        <v>87.09387400193587</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>14.06131250553723</v>
+        <v>11.86641956197186</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>64.28497044033142</v>
+        <v>72.86688514599884</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>70.45852550316835</v>
+        <v>79.63898856675613</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>47.50290140732718</v>
+        <v>52.67073788050277</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.37366861275878</v>
+        <v>27.58533904085081</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>31.90928524789252</v>
+        <v>34.08744408574616</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>38.02734721718528</v>
+        <v>40.4957650483319</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>9.1114384002645</v>
+        <v>5.604458780587436</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>37.89979453803089</v>
+        <v>43.93645348422342</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>46.56789171156491</v>
+        <v>51.8166401634017</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>10.86305524051015</v>
+        <v>6.462712300975614</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.56480547425038</v>
+        <v>32.42884061501158</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>41.04183418682343</v>
+        <v>44.07988552595751</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>4.287410689267475</v>
+        <v>-1.178085188423843</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>33.07593603112586</v>
+        <v>35.89943483167568</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>41.51947700456801</v>
+        <v>45.08395189879529</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>5.46148306591126</v>
+        <v>0.1928433078954015</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>50.64304136460262</v>
+        <v>57.74476965135879</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>63.91946391545463</v>
+        <v>72.90520451856207</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.42227478637946</v>
+        <v>62.09685963976438</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>65.56048830525319</v>
+        <v>75.19308398299555</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>75.91319501180269</v>
+        <v>86.30576851774714</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>10.00742629586919</v>
+        <v>7.178374222036634</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>59.44375810983209</v>
+        <v>69.31489552697428</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>70.65583929953891</v>
+        <v>80.51877963585075</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>10.78018446624912</v>
+        <v>7.555346415532483</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>13.2481658269708</v>
+        <v>9.925865084820281</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.91179454731476</v>
+        <v>20.29967744713822</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>3.138997860556522</v>
+        <v>-0.3069300764174905</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.0161076730706</v>
+        <v>12.08038813518975</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>15.10201157780876</v>
+        <v>13.22196747666259</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>6.718561260341698</v>
+        <v>4.065206077017052</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.31912569219273</v>
+        <v>26.53386193981992</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.2847471126178</v>
+        <v>29.41028161912313</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>14.64925392030995</v>
+        <v>12.52309850778626</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>19.00150338690512</v>
+        <v>18.25556372235794</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.60684929477913</v>
+        <v>18.31391763118607</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>15.04358414250396</v>
+        <v>12.88393433959515</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.65414211813877</v>
+        <v>12.17722363611934</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>27.08156976700505</v>
+        <v>28.96369151488851</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>11.90658818322533</v>
+        <v>10.72776015497877</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>24.74514755777346</v>
+        <v>25.87638838496481</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.55211839359647</v>
+        <v>30.32470383873583</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>2.758002505505722</v>
+        <v>-2.550617840237646</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.41696827491108</v>
+        <v>8.699905976149779</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.26194616479911</v>
+        <v>15.33935055102532</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>3.689702466187534</v>
+        <v>0.4251857683360818</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>25.90980772318579</v>
+        <v>28.26932467491937</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>12.96197861155378</v>
+        <v>10.95956227800862</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>18.94536673247504</v>
+        <v>16.64395862743052</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.68449057933927</v>
+        <v>21.60322332613138</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>3.022621095882577</v>
+        <v>-0.5671387616982173</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>24.27152937614077</v>
+        <v>24.19769700160204</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>25.15161043071573</v>
+        <v>24.86060125754156</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>6.5258313858509</v>
+        <v>3.681504054256841</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>35.34292714951687</v>
+        <v>37.14514197994156</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.12590413015781</v>
+        <v>38.0239442091062</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>35.3037823240748</v>
+        <v>36.81894561141142</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>41.32400935853908</v>
+        <v>44.30438385644683</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>41.82602806583515</v>
+        <v>45.06483621238582</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>17.77817447252716</v>
+        <v>15.32647479785383</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>37.2683574734378</v>
+        <v>34.39565138317031</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>39.86458306968899</v>
+        <v>39.38771702749654</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>17.94791282433393</v>
+        <v>17.62647346923131</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>30.72230727809318</v>
+        <v>32.99644340755582</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>33.43764737013143</v>
+        <v>36.0618919767979</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>2.929883863626905</v>
+        <v>-1.232899749020277</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>30.87535621933983</v>
+        <v>33.6164865718443</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.82153426539055</v>
+        <v>36.40601121802739</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>4.436559681508822</v>
+        <v>1.311733143793944</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>48.17506785643333</v>
+        <v>54.00354875142123</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>6.264468467320508</v>
+        <v>2.699888408714003</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>14.64657179515852</v>
+        <v>11.87866891288751</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.64152594997533</v>
+        <v>20.6572786567172</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>2.616282161730282</v>
+        <v>-1.277731921445383</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.1065093352232</v>
+        <v>22.70967859726277</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>24.86674445020599</v>
+        <v>24.97580537590421</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>7.616188860716029</v>
+        <v>5.943287171632694</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>35.86307349401169</v>
+        <v>38.11876810234961</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>39.91515115528956</v>
+        <v>42.71682092744439</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>38.85496334157572</v>
+        <v>40.82313825382369</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>40.7794040623857</v>
+        <v>44.54770747174756</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>50.1118805474915</v>
+        <v>53.27258721132687</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>5.551155761647511</v>
+        <v>4.598420054871188</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>24.24634160765947</v>
+        <v>24.62371581400767</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.49850243414236</v>
+        <v>31.28548922462179</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.43335295395455</v>
+        <v>10.38865304947461</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>29.15327693585736</v>
+        <v>31.68011345781419</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>31.96222323366841</v>
+        <v>35.41327872433347</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>2.637842105052986</v>
+        <v>-1.374549451953385</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>27.3064762799549</v>
+        <v>29.51173657683575</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>34.36220816036032</v>
+        <v>37.45806933227186</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.5485096372805</v>
+        <v>4.075750421316499</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.1958335843785</v>
+        <v>52.78120621914262</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>4.784692629010991</v>
+        <v>0.2531253104588167</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>10.97336564473168</v>
+        <v>7.529168538714178</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>20.57453167937766</v>
+        <v>20.57537446112831</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>2.738449979244152</v>
+        <v>-1.658868114140549</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.62793557986778</v>
+        <v>18.88073092071366</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.66148875782317</v>
+        <v>27.54699259032133</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>3.104709931023596</v>
+        <v>-0.8326621369932781</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>29.36254559761453</v>
+        <v>31.27221628387101</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>38.12183618180232</v>
+        <v>41.30600935959815</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>33.32208015216748</v>
+        <v>35.45506616203139</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.49648931929499</v>
+        <v>39.73281496931135</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>44.48430233391829</v>
+        <v>49.40656107272437</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>4.595948064962446</v>
+        <v>1.568203257566662</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.47619594630554</v>
+        <v>19.69516278642895</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>34.46335993828725</v>
+        <v>37.94952964938628</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>8.625920208964839</v>
+        <v>6.561553727355786</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.13433572575831</v>
+        <v>28.27226822180454</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.82695062855246</v>
+        <v>33.2572118295836</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.701003173568928</v>
+        <v>-1.892464197629291</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.45592796772372</v>
+        <v>25.23812529978639</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>31.44418955759969</v>
+        <v>33.44447125436449</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>3.154156180196679</v>
+        <v>-0.2159065357550354</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.80882570757829</v>
+        <v>42.23781325717113</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.15793683564527</v>
+        <v>32.50911195493478</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>22.57979298468947</v>
+        <v>22.75440553438909</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>37.0257186645108</v>
+        <v>40.84905118294529</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.31659069881209</v>
+        <v>40.84339888773832</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.03712470066554</v>
+        <v>8.76998131047608</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>20.80992257464801</v>
+        <v>22.3632292185751</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>27.98935708398411</v>
+        <v>30.9786763507411</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>14.70038381747003</v>
+        <v>13.33283739579614</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.14013076213245</v>
+        <v>26.71392415887215</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.39385555483972</v>
+        <v>39.55548437483306</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>1.583091055983232</v>
+        <v>-2.640639808611716</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.016006596492698</v>
+        <v>6.591999567993412</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.28419768658769</v>
+        <v>15.64235061015168</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>3.53811762654103</v>
+        <v>0.3752485659300291</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>24.2439472866881</v>
+        <v>27.59322802540859</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>43.87945717665028</v>
+        <v>49.30176931760782</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.62442550146979</v>
+        <v>28.1720826341509</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>44.92116380582687</v>
+        <v>49.53657433639987</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>49.83703796491828</v>
+        <v>55.50122507630262</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>9.069686337565095</v>
+        <v>6.411392184007763</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>22.41601700136563</v>
+        <v>24.89662076298714</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>35.2343515031335</v>
+        <v>38.68064381437766</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>53.36382415433633</v>
+        <v>58.95982963187502</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>49.45188431866773</v>
+        <v>56.22648517314205</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>55.9916886938843</v>
+        <v>62.96133409167714</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>55.47622069323588</v>
+        <v>61.6238628885968</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.35378262375481</v>
+        <v>20.65772558125801</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>52.64555592521443</v>
+        <v>59.21147649787926</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>55.49004008729786</v>
+        <v>62.3135464299389</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>23.76624286622514</v>
+        <v>23.36823706090505</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.23886646789817</v>
+        <v>38.35742307589859</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>43.74853045131228</v>
+        <v>47.05129826865959</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>3.623261118409822</v>
+        <v>-0.4433746997703061</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>42.63561264310265</v>
+        <v>47.07400427135673</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>45.32725891130002</v>
+        <v>47.62878085624433</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>6.965586574905274</v>
+        <v>3.68066457204349</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>63.0594541431446</v>
+        <v>70.46792105882493</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>66.55514557858294</v>
+        <v>73.07694682819934</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>70.85529128550786</v>
+        <v>78.94220085848931</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>75.43884651990817</v>
+        <v>84.05874401325291</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>78.44082079712871</v>
+        <v>85.82752014713726</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.78662016961068</v>
+        <v>29.38945658814671</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>72.05990395209206</v>
+        <v>80.76546627246813</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>73.82159325069436</v>
+        <v>82.68391644485109</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>56.43143748459728</v>
+        <v>62.81270416335036</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>45.95412804771779</v>
+        <v>52.10081580108667</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>50.41885362030418</v>
+        <v>56.94235191466726</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>55.66847271752937</v>
+        <v>62.3549483377161</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>12.42884825094845</v>
+        <v>11.69550032367704</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>48.71329205710461</v>
+        <v>54.91149284629557</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>54.37877509897379</v>
+        <v>60.93987982882828</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>14.88540125126403</v>
+        <v>13.4938914308754</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.28749263835864</v>
+        <v>36.1984411767521</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>42.81189709942707</v>
+        <v>46.09695107934912</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>2.900042283266082</v>
+        <v>-2.5498001106441</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>39.17192044215243</v>
+        <v>43.26166325286685</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>43.81329006570887</v>
+        <v>47.13405489094008</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>8.154482785329673</v>
+        <v>4.422440179477569</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>62.2674283710561</v>
+        <v>70.91702599516164</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>69.69038020407918</v>
+        <v>77.62838621360009</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>70.25464719550638</v>
+        <v>79.62029217968457</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>75.64743339396007</v>
+        <v>85.16020227895822</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>81.22902485027285</v>
+        <v>90.20798876496787</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.09348088856812</v>
+        <v>13.18724612971579</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>70.52487319285305</v>
+        <v>80.41799890159032</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>75.49947749855801</v>
+        <v>85.61137549640746</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>49.44638104544677</v>
+        <v>55.77126007947518</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.71314228297252</v>
+        <v>32.87882120710388</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>35.2025352831865</v>
+        <v>39.70742119348266</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.37311195735273</v>
+        <v>46.1232254826057</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>9.872887771619911</v>
+        <v>7.796508756303208</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>38.28915462745393</v>
+        <v>47.36766526360479</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>47.54973108098307</v>
+        <v>53.89472715768783</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>11.27997686933389</v>
+        <v>7.633153393411675</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.12583606084991</v>
+        <v>34.63549714970182</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>43.08055359840586</v>
+        <v>46.787193094003</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>3.022255975305121</v>
+        <v>-1.557054031192383</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>35.87801221349054</v>
+        <v>39.56383276596514</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>42.97793685977845</v>
+        <v>46.45071659231424</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>3.930159265810957</v>
+        <v>-0.1488464170891248</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>56.16213990272968</v>
+        <v>64.35891615578939</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>67.34051718537688</v>
+        <v>75.95204509370615</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>61.08576405832559</v>
+        <v>69.64584797479706</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>71.87036140940708</v>
+        <v>82.55609666764738</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>80.51904411790022</v>
+        <v>90.65976260327095</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>10.11094724440198</v>
+        <v>8.09259378573153</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>66.1456348927328</v>
+        <v>76.65279821649757</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>74.56828005913903</v>
+        <v>84.20648297739133</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>16.92902649088921</v>
+        <v>12.15910394871811</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>16.97993858588242</v>
+        <v>14.12138377868201</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.10185018128198</v>
+        <v>24.16299406015117</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>7.928481113373042</v>
+        <v>3.274783606697</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>20.74380691071265</v>
+        <v>17.17777783622961</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.83169765424266</v>
+        <v>21.1879196105007</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>11.13602975891103</v>
+        <v>7.45341709721303</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>33.33128395377556</v>
+        <v>28.14364072592242</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>34.60680664075139</v>
+        <v>31.45233778234433</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>16.83620455886784</v>
+        <v>14.2979207237373</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>19.4491639746941</v>
+        <v>16.32559288517187</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>19.59497018946853</v>
+        <v>15.93798438780945</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>18.01951549411624</v>
+        <v>11.55719619276689</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>15.95744639567451</v>
+        <v>10.9663475395515</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>30.85843983824024</v>
+        <v>25.36011410453161</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>13.76760180199453</v>
+        <v>9.734930796932407</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>21.06767173210843</v>
+        <v>17.70365111999808</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>29.9608160606169</v>
+        <v>27.34959078407124</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>11.78634939775372</v>
+        <v>8.183912757798662</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>15.41016483165018</v>
+        <v>11.47739378690043</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.04142139926991</v>
+        <v>15.13330550666028</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>7.230516201886115</v>
+        <v>3.261700699809172</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>16.50567070913684</v>
+        <v>11.70695106208916</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>21.60389465404957</v>
+        <v>17.44516124369383</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>25.0828649084395</v>
+        <v>23.99726861304552</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.85502337088452</v>
+        <v>25.64460542362854</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>7.961663159216553</v>
+        <v>2.918713157768519</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>31.08311827542999</v>
+        <v>28.89425403586398</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>30.95011416506382</v>
+        <v>29.70974838047005</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>10.94791999379144</v>
+        <v>6.881952769073479</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>38.97827808569166</v>
+        <v>39.04885011729144</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>37.97451779416598</v>
+        <v>38.89897433303265</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>40.36290509052489</v>
+        <v>39.8938129646107</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>44.32975863372964</v>
+        <v>43.89430873543368</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>45.07535955626961</v>
+        <v>43.74412893781006</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.7118018995008</v>
+        <v>21.88275052242262</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>41.39972377070423</v>
+        <v>36.42263969791556</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>44.63210024823211</v>
+        <v>45.12055035322722</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>18.60803332545302</v>
+        <v>15.24096916716776</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>25.26078059659206</v>
+        <v>23.19366796575697</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>29.37080552140147</v>
+        <v>26.83600807512146</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>12.04989116819838</v>
+        <v>7.928769777507117</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.17348274122112</v>
+        <v>23.2453215281779</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>31.85822285626687</v>
+        <v>29.79829912888709</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>34.62163444278347</v>
+        <v>32.84402813108628</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>13.1901502381348</v>
+        <v>10.67761852247901</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>23.87231526050554</v>
+        <v>22.13493155854445</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.67522231565598</v>
+        <v>26.5375097458106</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>7.02152392446553</v>
+        <v>2.327739990678563</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>31.81752288345488</v>
+        <v>29.43600968035399</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>34.59358808155584</v>
+        <v>33.32062319324316</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.69261220051502</v>
+        <v>9.115787828872868</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>43.85098181074636</v>
+        <v>43.26115112271296</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>46.15538174802911</v>
+        <v>45.21863233127892</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>46.42868916384283</v>
+        <v>44.55341066807146</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>47.98184302728609</v>
+        <v>45.96385019856677</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>51.16275491990248</v>
+        <v>48.66461515631079</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>14.82849684031944</v>
+        <v>14.56339180427667</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>35.72970263614813</v>
+        <v>32.3835704466459</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.20999940531482</v>
+        <v>44.28653687001544</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>14.71606323714323</v>
+        <v>11.17750868376297</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.58882265166701</v>
+        <v>23.19459695936928</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>29.21072622273572</v>
+        <v>26.92628953563056</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>11.68354823390822</v>
+        <v>7.945456346779455</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.35894421485111</v>
+        <v>21.65959510956414</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>34.83369801231661</v>
+        <v>33.23169422449407</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>10.0346262903213</v>
+        <v>5.957476358604701</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.4156476321969</v>
+        <v>34.24660360907244</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>10.1430817751436</v>
+        <v>5.74352683259055</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>17.10379814819018</v>
+        <v>13.72559939547225</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>23.94003982816514</v>
+        <v>20.95195729801288</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>6.947961668404744</v>
+        <v>1.847945340599296</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.31172257657957</v>
+        <v>25.97792062260831</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>33.92362059362598</v>
+        <v>32.52585121877481</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>7.345068292184234</v>
+        <v>2.541545814684998</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>37.41386622956424</v>
+        <v>35.82269455244429</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>42.00678682443957</v>
+        <v>41.26517058272875</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.99022102172864</v>
+        <v>31.07184226470418</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>38.7852842964127</v>
+        <v>32.87224966336058</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>44.3240650552746</v>
+        <v>37.54297894286473</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>11.04268368426041</v>
+        <v>7.327113487360474</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.03956355825184</v>
+        <v>21.34227515866834</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>43.63112435052534</v>
+        <v>41.20113985429135</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>11.22294204329879</v>
+        <v>7.009949287742547</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>23.41837314105777</v>
+        <v>20.78395384602898</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.90758776405909</v>
+        <v>26.75875602284332</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>11.841991127586</v>
+        <v>7.813721588909232</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>24.29587302651848</v>
+        <v>21.37194702632476</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>33.16412095812527</v>
+        <v>31.68513800804874</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>6.50320279268027</v>
+        <v>1.806539909499961</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>31.84488421106458</v>
+        <v>28.80748731111261</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>20.3107873715449</v>
+        <v>16.3153203074711</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.76718089218059</v>
+        <v>13.68614272863158</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.49230304967067</v>
+        <v>27.36904263568611</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>33.57230149438589</v>
+        <v>32.09150226372576</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>9.564589476783301</v>
+        <v>5.073829372922003</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>14.61469501166328</v>
+        <v>9.736456737278431</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>19.05259126683295</v>
+        <v>14.96372015669873</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>12.84145768865705</v>
+        <v>10.47745063347296</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>20.04996470870547</v>
+        <v>18.08962616694426</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>29.85638132166913</v>
+        <v>29.37197064000829</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>11.35387540533886</v>
+        <v>7.859118641313287</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>14.42781803879413</v>
+        <v>10.64287527915989</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>17.28303794379125</v>
+        <v>13.27204903985918</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>7.557548257430234</v>
+        <v>3.874102821316189</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>17.35964297036358</v>
+        <v>14.17678742610563</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>30.07536339539702</v>
+        <v>33.21101895083796</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>19.68703857639578</v>
+        <v>15.06939505184726</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>37.45556232009545</v>
+        <v>36.84698204684023</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.63776880840841</v>
+        <v>41.075826515723</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>8.755065608034517</v>
+        <v>4.617480869889587</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>16.47972708572074</v>
+        <v>12.23744420328408</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>23.48536598971732</v>
+        <v>22.72306387083668</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>43.64563191421109</v>
+        <v>42.78648437928969</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.73969957333336</v>
+        <v>37.90040542366158</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>47.58248872097813</v>
+        <v>47.14754177052026</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>49.97333942511608</v>
+        <v>50.31665872447199</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>20.25488051241509</v>
+        <v>17.18748410693056</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.18825603608839</v>
+        <v>40.59090673385726</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>45.2581179223736</v>
+        <v>43.96834719873846</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.03851502134556</v>
+        <v>21.74524229154063</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>31.01658463376356</v>
+        <v>29.73945727252034</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.06548042987509</v>
+        <v>38.27812732047033</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>12.8771291686841</v>
+        <v>9.515897796432483</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>34.05460071837021</v>
+        <v>34.58372964779277</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>38.93686336486215</v>
+        <v>39.2080954239693</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>10.44540554000813</v>
+        <v>6.872495953786739</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.18857998623064</v>
+        <v>50.04427655262431</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.28500818061855</v>
+        <v>60.20206703998197</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>58.98401054327923</v>
+        <v>64.13356987126072</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>66.84193338582419</v>
+        <v>71.7531476125576</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>71.23673142477978</v>
+        <v>77.04788634355857</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.0456221438169</v>
+        <v>29.60782225871052</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>58.72149522511312</v>
+        <v>59.88865793954633</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>62.50590806695068</v>
+        <v>65.24488474530907</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>48.240017735729</v>
+        <v>47.38636489607256</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>35.07743080421071</v>
+        <v>32.35620990305991</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>39.41351295905952</v>
+        <v>38.93581446174054</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>48.65289649694959</v>
+        <v>48.8851638324581</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>15.34082827269236</v>
+        <v>12.68414371255495</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>40.97542613318831</v>
+        <v>39.24072724417055</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>45.01233063964247</v>
+        <v>43.76877767455564</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>17.68326324632343</v>
+        <v>16.15035829811438</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>30.38335308157479</v>
+        <v>29.21299881884564</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>37.93183792171062</v>
+        <v>38.28391151929964</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>12.16753417589547</v>
+        <v>8.585468817123338</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>34.96222274119164</v>
+        <v>33.24131513584269</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.7319322567927</v>
+        <v>42.33311556881605</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>12.13807970823211</v>
+        <v>9.245665836802296</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>50.43708328059777</v>
+        <v>51.55319654443433</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>62.03170610594709</v>
+        <v>66.50252050374114</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>60.25158324094131</v>
+        <v>64.79645650404937</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>64.17340135084552</v>
+        <v>69.20074818496018</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>72.85994831322948</v>
+        <v>79.38172219518547</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>18.89210282971779</v>
+        <v>19.23719848487151</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>52.16828493865355</v>
+        <v>56.0426236200417</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>61.9443494319607</v>
+        <v>68.46473357434266</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>43.0865252382828</v>
+        <v>42.89310508291145</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>22.26369794161452</v>
+        <v>18.67009230505811</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.12233807559635</v>
+        <v>24.8484081168957</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.96039256979154</v>
+        <v>34.43347207783523</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>11.34923593385984</v>
+        <v>7.079133000235338</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>37.14713919176938</v>
+        <v>35.95535814280295</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>43.08222246138466</v>
+        <v>42.49710091938067</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>13.9618725984632</v>
+        <v>11.53012225749093</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.17070430027326</v>
+        <v>28.47023895261696</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.7240481402505</v>
+        <v>40.79049343268313</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>12.65879136664945</v>
+        <v>9.450691316383093</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>31.44022362277494</v>
+        <v>30.53297497099372</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.40833862935845</v>
+        <v>44.83858457776724</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>7.222675742219124</v>
+        <v>3.143946997286108</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>42.71579349753219</v>
+        <v>43.04314177818653</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>61.28328083232154</v>
+        <v>65.30552825764168</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>46.27716635500431</v>
+        <v>48.27663669998732</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>54.32146746976976</v>
+        <v>57.6399192921228</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>72.29519308116087</v>
+        <v>77.54760311297039</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>12.11108740372659</v>
+        <v>8.989637279857821</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>44.06024095328627</v>
+        <v>42.7062306990255</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>61.22208096066485</v>
+        <v>65.19433804426674</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>16.81075526206073</v>
+        <v>12.18633835428876</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>16.53357270906068</v>
+        <v>14.28096242830175</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>27.32571501064283</v>
+        <v>26.33642957125453</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>8.115338318731879</v>
+        <v>4.223449160603238</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.0304535941071</v>
+        <v>20.91378500920492</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>27.0182269997726</v>
+        <v>25.6147649167503</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>10.61545793301331</v>
+        <v>7.477299998615397</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.61227136559751</v>
+        <v>31.73750420379126</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>37.54567804693459</v>
+        <v>35.48780898289051</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>17.18771889499326</v>
+        <v>16.06418363949784</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>19.71602718873257</v>
+        <v>17.93731190060103</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>19.84129031848542</v>
+        <v>17.36080848535482</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>18.48930811670089</v>
+        <v>12.07743494469755</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>16.22174788764267</v>
+        <v>12.30523156098892</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>34.01635641102057</v>
+        <v>28.88129216268453</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>14.49696762809904</v>
+        <v>12.60115977618126</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.27185688613057</v>
+        <v>21.79393948655557</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>31.51926230827306</v>
+        <v>31.82349860377345</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>13.02700647396758</v>
+        <v>9.959737017834845</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>17.69268759195132</v>
+        <v>16.06277700452371</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>20.40378031778728</v>
+        <v>19.38445794026842</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>7.528749202864724</v>
+        <v>4.085388020073829</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>18.68752466178207</v>
+        <v>17.9265789237535</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.58889726298214</v>
+        <v>18.03125699612488</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>25.82151339633831</v>
+        <v>24.6155021207156</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.63232731977124</v>
+        <v>26.94070704176086</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>8.131233554490358</v>
+        <v>3.868159002946609</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.43376636816628</v>
+        <v>32.30282046281442</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>33.41403169274206</v>
+        <v>32.91677258080582</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>11.01371945026277</v>
+        <v>7.440164615970168</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>40.66441311519415</v>
+        <v>41.63070688075372</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>39.51310234414808</v>
+        <v>41.2930637813348</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>40.9207995465288</v>
+        <v>42.17657632513819</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>43.87078831446189</v>
+        <v>45.19470959994747</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>44.14233150553354</v>
+        <v>44.44500139429431</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>27.01977884217696</v>
+        <v>22.17650601900159</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>41.36020497005762</v>
+        <v>37.33014176376294</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>45.28894222312746</v>
+        <v>46.49943989367122</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>20.43115709452631</v>
+        <v>19.36089826500839</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.80510326210544</v>
+        <v>28.36677960761132</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.83203924511302</v>
+        <v>30.5090758710388</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>13.41236747768614</v>
+        <v>10.38498334600051</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.49867237438412</v>
+        <v>30.38062765196619</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>32.71256579600301</v>
+        <v>34.36857928705756</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>37.4707944215136</v>
+        <v>41.10448003663244</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>11.92659417393349</v>
+        <v>9.675609559954498</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>23.27685670803899</v>
+        <v>21.80581745786333</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.25103655797678</v>
+        <v>27.32278316810575</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>6.9646351264958</v>
+        <v>2.613545290127853</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>33.2184399548382</v>
+        <v>32.07522661733762</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.05227402562819</v>
+        <v>35.91696754430821</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>11.86356596048335</v>
+        <v>8.509927509506849</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.0825134047173</v>
+        <v>44.68499538986845</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.05853756811499</v>
+        <v>46.69419661749746</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>47.90904457099373</v>
+        <v>46.57937558244812</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>48.64152222738096</v>
+        <v>47.42915595202781</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>51.48307670912199</v>
+        <v>49.71342338265005</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>12.60136065640089</v>
+        <v>13.04938490810318</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.17995872929482</v>
+        <v>31.40186144389246</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.68735768448306</v>
+        <v>44.03166886121814</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>15.49696924475263</v>
+        <v>14.05093581428516</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>27.45209344767277</v>
+        <v>28.00115840811553</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>29.31799690778718</v>
+        <v>30.15370293465498</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>13.00251589423014</v>
+        <v>10.17903643872993</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.40265441235001</v>
+        <v>28.76682792697856</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>35.82583182238272</v>
+        <v>37.78497089394997</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.09571665153122</v>
+        <v>6.995280921397718</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>39.14846523841919</v>
+        <v>43.03810161473191</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>8.917909416786852</v>
+        <v>4.707884978449641</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>16.39382032464918</v>
+        <v>13.46130944077528</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>23.81880572619428</v>
+        <v>22.32960856291579</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>7.094043724410572</v>
+        <v>2.657425840270175</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>29.89937967523657</v>
+        <v>29.06666310350627</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.87661625153256</v>
+        <v>36.39900527010562</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>6.998382857306105</v>
+        <v>2.769448199677022</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>39.11022921800357</v>
+        <v>39.06712135014234</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.77797648263686</v>
+        <v>44.22259503297745</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>40.36987127344055</v>
+        <v>34.87157996340134</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>41.60091120066204</v>
+        <v>36.47941684607823</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>46.84752455873665</v>
+        <v>41.31608239182415</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>9.357873251231045</v>
+        <v>6.572032033366664</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>24.7531240740181</v>
+        <v>21.04193565874018</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>42.39831515559226</v>
+        <v>42.78142314651799</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>11.86769649005112</v>
+        <v>9.571531618302021</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>24.709795782439</v>
+        <v>25.67012447882026</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.4469753235522</v>
+        <v>30.67975066847117</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>13.06718860130935</v>
+        <v>10.097569565543</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.9616879494789</v>
+        <v>27.72165061608936</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.06969775354241</v>
+        <v>35.95657623859223</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>6.623504640958309</v>
+        <v>2.821510101375345</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>34.367344243165</v>
+        <v>36.6550294176247</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.75833344448136</v>
+        <v>23.15687787627094</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>19.33794888359931</v>
+        <v>18.66204264332696</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.80879501840297</v>
+        <v>35.78092605052027</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>37.15279252870521</v>
+        <v>39.90667400854455</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>10.52003629345847</v>
+        <v>7.877154695359785</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.59805964429057</v>
+        <v>15.34504143330663</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.69057057264122</v>
+        <v>21.47750890057209</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>12.23300443301932</v>
+        <v>10.27157796663646</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>19.62823623821066</v>
+        <v>18.28898219847678</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.39198783564948</v>
+        <v>32.72401248063108</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>12.61425908915912</v>
+        <v>9.904076452934287</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>16.01848495231592</v>
+        <v>13.79683974585394</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.67613660043465</v>
+        <v>16.92273990290674</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>7.490216596412619</v>
+        <v>4.18683295906936</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.43401511584204</v>
+        <v>17.27815778751343</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>32.3531476151111</v>
+        <v>39.77898569407401</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.8358204542487</v>
+        <v>18.25653316021645</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>41.9982867950015</v>
+        <v>45.52265001622602</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>46.77163369563752</v>
+        <v>50.10428940171741</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>8.839768540305389</v>
+        <v>6.152720125038631</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.0452210283549</v>
+        <v>16.09450402231393</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.06434372296993</v>
+        <v>26.92363016146303</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>46.04710248590972</v>
+        <v>49.82811955770057</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.40157009168883</v>
+        <v>46.59593970714181</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>50.2185742079043</v>
+        <v>55.13189270623127</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>52.88306690285685</v>
+        <v>58.08380672194511</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>21.8696931016869</v>
+        <v>21.13917175967406</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>44.2360253436281</v>
+        <v>48.04751895074004</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>46.33156714660054</v>
+        <v>50.23381831654873</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>23.6285118321728</v>
+        <v>21.32690584281107</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>31.05978041769718</v>
+        <v>31.4402582109713</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>38.28382843302123</v>
+        <v>40.58381962433367</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>13.9365118074321</v>
+        <v>11.31276576894973</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.48987973731016</v>
+        <v>40.14040950730742</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>40.72398554979853</v>
+        <v>43.89427754375876</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>9.276780044002251</v>
+        <v>4.972328249033634</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>49.1015190137262</v>
+        <v>54.55961288889713</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>59.53209199230611</v>
+        <v>65.84344143757515</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>57.78439570229329</v>
+        <v>66.93358573256862</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>67.73662180767822</v>
+        <v>76.11150086719451</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>72.76149623169525</v>
+        <v>81.6860367698589</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.03482389014131</v>
+        <v>27.48755301811285</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>60.23773629385076</v>
+        <v>65.1943215423277</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>62.68713345108551</v>
+        <v>69.20008183607112</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>50.5379327292008</v>
+        <v>54.50259552413084</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>38.02400932654825</v>
+        <v>41.54898899320916</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>41.78342217552013</v>
+        <v>47.34275019191536</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>50.90496456201191</v>
+        <v>56.70067370410061</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>15.7783442927613</v>
+        <v>15.58358882435244</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>42.22499541863969</v>
+        <v>46.21598894834987</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>16.62932749563509</v>
+        <v>14.74015828529051</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>30.05219756997053</v>
+        <v>30.33118093695067</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.03733002699642</v>
+        <v>40.26604031521519</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.34056689828914</v>
+        <v>10.24597081105858</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.53458749346999</v>
+        <v>38.38607381423313</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>43.56010139061642</v>
+        <v>47.2148780323425</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>11.17062867782828</v>
+        <v>7.480875373174985</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>50.6471047260201</v>
+        <v>55.84613395036</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>64.08547689582204</v>
+        <v>72.08243679948949</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>60.12007587860279</v>
+        <v>67.86018998781523</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>65.09131122032059</v>
+        <v>73.9419558717678</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>74.18235035864004</v>
+        <v>83.77961528935963</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>16.78747281177307</v>
+        <v>16.10731988000868</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>52.42253751962376</v>
+        <v>61.33003435162294</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>61.19414939062395</v>
+        <v>72.66885650537091</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>44.49479559098906</v>
+        <v>49.45897388043657</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>24.27742320951518</v>
+        <v>25.54447857603372</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>30.12021623967937</v>
+        <v>32.18822678383753</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>37.18439973915375</v>
+        <v>41.27474178351019</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>11.85766469846584</v>
+        <v>9.579782310992616</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>38.51254525680152</v>
+        <v>42.86658436287837</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>43.53506340749503</v>
+        <v>47.99313623878476</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>13.4501087490544</v>
+        <v>10.81221817581419</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.78245302058704</v>
+        <v>29.26717644407888</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>40.47733820029983</v>
+        <v>43.76076779591592</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>13.92301949161152</v>
+        <v>11.65533498893485</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>32.82164413672999</v>
+        <v>34.83534705053587</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>45.53241130663901</v>
+        <v>49.97224035159914</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.045020421536002</v>
+        <v>3.09563932756204</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>43.6963743301319</v>
+        <v>47.00529336356884</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>63.34934664436859</v>
+        <v>71.43788879927307</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>48.13040260558439</v>
+        <v>52.64943021840189</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>57.54645071219146</v>
+        <v>65.28963479905299</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>75.36188331811488</v>
+        <v>85.58669028304332</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>12.2499642212333</v>
+        <v>9.163198272516045</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>47.30499542188051</v>
+        <v>50.3287045478116</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>62.7478246164335</v>
+        <v>70.69494198456354</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>20.86142034852039</v>
+        <v>12.18969550119579</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>21.09481102161519</v>
+        <v>12.23785519703145</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>25.52687667747141</v>
+        <v>21.79593344226263</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>17.43706185986942</v>
+        <v>7.515870423563381</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>24.07315372766313</v>
+        <v>20.96386005190469</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>25.14012367834747</v>
+        <v>22.83342062267864</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>18.73731256570412</v>
+        <v>10.07897683725112</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.45433623448154</v>
+        <v>28.55763493449559</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>29.93732186380254</v>
+        <v>30.35371149030545</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>21.67149310101185</v>
+        <v>13.98536983622378</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>23.07107909002136</v>
+        <v>16.99523481974553</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>22.92441255530161</v>
+        <v>16.51660089998458</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>23.88224177756221</v>
+        <v>18.0708831825137</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>22.24163785719515</v>
+        <v>15.46720092907974</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>31.0558352627711</v>
+        <v>32.11219710814064</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>20.99391696010533</v>
+        <v>15.79880979394685</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.70194687069671</v>
+        <v>25.93284272151428</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>28.7642124893983</v>
+        <v>29.50355876821904</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>17.74145116311315</v>
+        <v>7.747908225571322</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>21.3689190658418</v>
+        <v>16.69995857438305</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>23.53444228260449</v>
+        <v>19.73289377497186</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>17.81864819355852</v>
+        <v>7.992905252624908</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>27.31596727367661</v>
+        <v>28.17429400826933</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>22.44903340545729</v>
+        <v>15.32455932864601</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>24.12582127069714</v>
+        <v>17.21063299423916</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>25.86449671173701</v>
+        <v>21.81002900628224</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>17.39906656485335</v>
+        <v>7.043077927334881</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>27.41167072368085</v>
+        <v>25.64702513286634</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>27.79468004718874</v>
+        <v>26.18506969588752</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>19.22027828357027</v>
+        <v>10.43116556262253</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>32.19022596065111</v>
+        <v>33.59452565589176</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>32.04746222617285</v>
+        <v>33.0370445930543</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>30.91181162497699</v>
+        <v>30.69859103583355</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>33.22928997482668</v>
+        <v>35.06181548979293</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>33.21810312434709</v>
+        <v>34.85504927513011</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.29875848507643</v>
+        <v>21.37176345796764</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>32.01447788252398</v>
+        <v>29.09587438292493</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>33.71285217770914</v>
+        <v>35.31472788029318</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>24.89944465896281</v>
+        <v>22.9370085875697</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>29.28907052029322</v>
+        <v>30.8891447060062</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>29.82497809094766</v>
+        <v>30.88310029609566</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>17.82001664835515</v>
+        <v>8.946006740743773</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>29.82384474442392</v>
+        <v>32.97525374615381</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>30.05583741266367</v>
+        <v>32.16974494733395</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>18.09721599059983</v>
+        <v>8.682360211834929</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.87769619738694</v>
+        <v>45.88550891816578</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>18.48675011864827</v>
+        <v>8.643464830334043</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>22.19037206569874</v>
+        <v>14.1180968636954</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>25.65325001785997</v>
+        <v>21.56020715079698</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>17.05895846561577</v>
+        <v>6.021633896213466</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.76999848083561</v>
+        <v>24.28089960919318</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>27.62489268777562</v>
+        <v>25.93337695417188</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>18.97019190846115</v>
+        <v>10.75264492191684</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>32.08168135836114</v>
+        <v>33.86744852000297</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>33.2054734256099</v>
+        <v>35.58222154675088</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.41928007860754</v>
+        <v>33.7686842626478</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>34.00789058349524</v>
+        <v>35.772990024816</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.55312179564034</v>
+        <v>41.04120375439624</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>18.34622949872276</v>
+        <v>11.94177056659851</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>26.04121377069711</v>
+        <v>21.86989774917798</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>30.13947023725337</v>
+        <v>30.14421761945162</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>21.89695822240712</v>
+        <v>17.2793270871945</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>28.34773903041126</v>
+        <v>29.33822035171301</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>29.19222372060636</v>
+        <v>30.06204263386223</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>17.65829686727537</v>
+        <v>8.606795631874526</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.4553830436621</v>
+        <v>30.24706537252605</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>30.24748034576189</v>
+        <v>32.40354384742535</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.99132617867197</v>
+        <v>10.5627221481963</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.2545551286581</v>
+        <v>45.64152028506697</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>17.53148985710088</v>
+        <v>5.720382649195006</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>20.01298708529745</v>
+        <v>9.560836027249724</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>24.50487064420033</v>
+        <v>19.69778487622948</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>17.13878207022226</v>
+        <v>5.897841780843994</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>25.24568234138178</v>
+        <v>23.02883264741233</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>28.19790416771732</v>
+        <v>27.84776039991329</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>17.17363024512142</v>
+        <v>5.760170651873249</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>29.52433642437367</v>
+        <v>29.43369100551858</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>32.47725921348421</v>
+        <v>34.64143118027084</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>31.30993799745507</v>
+        <v>30.61099788964182</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>32.36444188613326</v>
+        <v>32.52774647386739</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.56231522292541</v>
+        <v>38.48395185175131</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>17.34751488972066</v>
+        <v>7.279727386664952</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>23.23246347544043</v>
+        <v>16.01279134209012</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>31.7783712832617</v>
+        <v>34.09484024089417</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>20.20341514114451</v>
+        <v>13.49768143455089</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>27.49840297951569</v>
+        <v>27.77265509113839</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>28.98947122233687</v>
+        <v>29.64123411611461</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>17.66308078537098</v>
+        <v>8.231572090835154</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>27.15542677155145</v>
+        <v>28.37922942025562</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>29.28397171087571</v>
+        <v>30.34913000130301</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>17.42486583216952</v>
+        <v>7.006813280311444</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>32.82204303545372</v>
+        <v>39.50559704732036</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>28.87446246543669</v>
+        <v>31.2278082099969</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.50311259324386</v>
+        <v>23.26598332134193</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>32.50809149711026</v>
+        <v>38.43963338857313</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>32.99986468756345</v>
+        <v>38.69765591833405</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>20.79274290778579</v>
+        <v>14.96264768619385</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>25.44344661432979</v>
+        <v>24.43766470514017</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>28.58584448649381</v>
+        <v>30.09508816636566</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>22.13825366433585</v>
+        <v>17.3010110848813</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>26.49032194479715</v>
+        <v>24.98803442763264</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>31.49909250155206</v>
+        <v>36.06873909723843</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>17.30369688608543</v>
+        <v>7.893911162180132</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>20.48188908288675</v>
+        <v>14.85971052683362</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>23.67571686215866</v>
+        <v>20.76738868068702</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>17.71621290906415</v>
+        <v>8.276155369572152</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>26.50194294000942</v>
+        <v>28.1463110606336</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>34.79878941302222</v>
+        <v>45.40717343905447</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>27.1597697111467</v>
+        <v>26.01186117580779</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>36.51062290150919</v>
+        <v>45.90363955382824</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>38.52936164119707</v>
+        <v>49.209462961669</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>20.05963660071746</v>
+        <v>13.33428926910827</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>25.82600724491197</v>
+        <v>26.01219083545558</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>31.02316687298623</v>
+        <v>34.36233442627439</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>38.43505328390955</v>
+        <v>48.02836575300513</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>37.33887094868911</v>
+        <v>47.51012332112497</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>40.11538679360067</v>
+        <v>52.28111548236139</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>40.48161775321053</v>
+        <v>52.22600161423945</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>26.16764378876169</v>
+        <v>26.09089728817235</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>38.55351330903625</v>
+        <v>48.7441749178318</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>38.60331915471011</v>
+        <v>48.29606443394801</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>26.28139504625056</v>
+        <v>24.77290795582308</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>18.05306025719381</v>
+        <v>9.354991268316319</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>34.39127684014392</v>
+        <v>41.8975747680653</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>35.62916189900377</v>
+        <v>42.64053271579846</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>18.81911443033133</v>
+        <v>9.558531699914951</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>42.47332366831495</v>
+        <v>57.15951019579375</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>45.11639855120738</v>
+        <v>61.38146264343561</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>44.61876269753797</v>
+        <v>61.52967941039873</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>48.35925898770806</v>
+        <v>68.07410027098783</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>49.89990728239269</v>
+        <v>70.06574993373077</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>28.89703324688425</v>
+        <v>31.12395403130232</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>46.83405535471083</v>
+        <v>64.53140102956786</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>47.06690187154349</v>
+        <v>64.87890448932251</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>40.14171978157719</v>
+        <v>50.80749483487642</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>36.00094465012491</v>
+        <v>44.74925704746857</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>37.73419186934213</v>
+        <v>47.7797740803389</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>39.96746413020847</v>
+        <v>51.63447011978087</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>22.51393807140975</v>
+        <v>19.39832727641735</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>36.90944705461598</v>
+        <v>45.65317490470783</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>38.42098197251364</v>
+        <v>47.29195093589202</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>22.38461134457212</v>
+        <v>17.44994816702428</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>30.02034526370788</v>
+        <v>31.26818117037541</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>34.11342220368525</v>
+        <v>39.62491756389656</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>17.75597259214349</v>
+        <v>7.9578818978896</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>33.16556509821624</v>
+        <v>39.74923978336012</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>35.19637831703138</v>
+        <v>42.5122419748178</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>19.47829040578384</v>
+        <v>10.40337899203977</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>42.40982899578993</v>
+        <v>57.94979573894175</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>46.6242984485754</v>
+        <v>64.86512993777515</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>45.49457535678945</v>
+        <v>62.93827759342183</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>48.40722136181763</v>
+        <v>68.46533185592703</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>50.81370790146887</v>
+        <v>72.29697323234343</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>22.51059345693908</v>
+        <v>19.40168247201726</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>45.41920710954589</v>
+        <v>64.1817845941418</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>47.60633587434917</v>
+        <v>67.9471405544915</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>36.92229707855983</v>
+        <v>45.80084856762329</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>29.03924339200726</v>
+        <v>31.63433894831359</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>31.44115726402379</v>
+        <v>36.22144695792228</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>33.6677651530404</v>
+        <v>39.4889462855499</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>20.86792052605269</v>
+        <v>14.76531983304277</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>33.84005732706844</v>
+        <v>41.5642045021285</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>36.04061938078686</v>
+        <v>43.6931694967502</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>21.17331609829894</v>
+        <v>14.49702622817382</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>29.41738484696423</v>
+        <v>31.47932813811715</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>34.86185978116122</v>
+        <v>42.25421316273053</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>17.88077079491249</v>
+        <v>9.297716154273626</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>32.02631883762723</v>
+        <v>38.41139887675055</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>35.46798114582761</v>
+        <v>43.8615258160372</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>17.70748397338256</v>
+        <v>7.630466174710428</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>40.48227010812462</v>
+        <v>54.87873026973482</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>45.90172462504555</v>
+        <v>64.88414691687466</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>42.64886035417456</v>
+        <v>58.15009804148046</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>47.48462864672886</v>
+        <v>68.36443564484772</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>51.31152157826764</v>
+        <v>74.68899836449822</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>20.75838964626923</v>
+        <v>15.12232259807605</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>44.3327562481155</v>
+        <v>62.13675783708035</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>48.17556273528692</v>
+        <v>68.41088042203646</v>
       </c>
     </row>
   </sheetData>
